--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\CONGTO\openstack-deploy-tools\tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT\CONGTO\openstack-tools\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HCD_NOHA_IP_Planning" sheetId="18" r:id="rId1"/>
     <sheet name="HCD_IP_Planning" sheetId="15" r:id="rId2"/>
     <sheet name="HCD_CEPH" sheetId="17" r:id="rId3"/>
+    <sheet name="Queens" sheetId="19" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="152">
   <si>
     <t>IP Address</t>
   </si>
@@ -440,6 +441,54 @@
   </si>
   <si>
     <t>compute2</t>
+  </si>
+  <si>
+    <t>VLAN_DATAVM_10.10.10.0/24</t>
+  </si>
+  <si>
+    <t>ens3</t>
+  </si>
+  <si>
+    <t>10.10.10.211</t>
+  </si>
+  <si>
+    <t>VLAN_MGNT_API_172.16.68.0/24</t>
+  </si>
+  <si>
+    <t>ens4</t>
+  </si>
+  <si>
+    <t>172.16.68.211</t>
+  </si>
+  <si>
+    <t>172.16.68.1</t>
+  </si>
+  <si>
+    <t>ens5</t>
+  </si>
+  <si>
+    <t>192.168.20.211</t>
+  </si>
+  <si>
+    <t>10.10.10.212</t>
+  </si>
+  <si>
+    <t>172.16.68.212</t>
+  </si>
+  <si>
+    <t>192.168.20.212</t>
+  </si>
+  <si>
+    <t>10.10.10.213</t>
+  </si>
+  <si>
+    <t>172.16.68.213</t>
+  </si>
+  <si>
+    <t>192.168.20.213</t>
+  </si>
+  <si>
+    <t>VLAN_PROVIDER_192.168.20.0/24</t>
   </si>
 </sst>
 </file>
@@ -784,6 +833,51 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -811,56 +905,41 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,36 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1192,7 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -1213,44 +1262,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1300,24 +1349,24 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="39" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -1339,28 +1388,28 @@
       <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="42">
         <v>6</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="42">
         <v>2</v>
       </c>
-      <c r="L6" s="54">
+      <c r="L6" s="45">
         <v>40</v>
       </c>
-      <c r="M6" s="57">
+      <c r="M6" s="48">
         <v>50</v>
       </c>
-      <c r="N6" s="57">
+      <c r="N6" s="48">
         <v>60</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="48">
         <v>60</v>
       </c>
-      <c r="P6" s="57"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -1376,16 +1425,16 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -1401,16 +1450,16 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="50"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -1426,33 +1475,33 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
     </row>
     <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="47"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="39" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1474,22 +1523,22 @@
       <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="42">
         <v>4</v>
       </c>
-      <c r="K11" s="51">
+      <c r="K11" s="42">
         <v>4</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="45">
         <v>50</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -1505,16 +1554,16 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -1530,16 +1579,16 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -1555,33 +1604,33 @@
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="39" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -1603,22 +1652,22 @@
       <c r="I16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="42">
         <v>4</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="42">
         <v>4</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="45">
         <v>50</v>
       </c>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -1634,16 +1683,16 @@
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -1659,16 +1708,16 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -1684,33 +1733,33 @@
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
     </row>
     <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
     </row>
     <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="39" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -1732,26 +1781,26 @@
       <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="42">
         <v>4</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="42">
         <v>4</v>
       </c>
-      <c r="L21" s="54">
+      <c r="L21" s="45">
         <v>40</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="48">
         <v>50</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="48">
         <v>60</v>
       </c>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
     </row>
     <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="49"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -1767,16 +1816,16 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="46"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
     </row>
     <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="49"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -1792,16 +1841,16 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -1817,33 +1866,33 @@
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="50"/>
+      <c r="N24" s="50"/>
+      <c r="O24" s="50"/>
+      <c r="P24" s="50"/>
     </row>
     <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="47"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="38"/>
     </row>
     <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="39" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -1865,26 +1914,26 @@
       <c r="I26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="51">
+      <c r="J26" s="42">
         <v>4</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="42">
         <v>4</v>
       </c>
-      <c r="L26" s="54">
+      <c r="L26" s="45">
         <v>40</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="48">
         <v>50</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="48">
         <v>50</v>
       </c>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -1900,16 +1949,16 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="49"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -1925,16 +1974,16 @@
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="50"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -1950,33 +1999,33 @@
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50"/>
     </row>
     <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="47"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="38"/>
     </row>
     <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="39" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -1998,26 +2047,26 @@
       <c r="I31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="42">
         <v>4</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="42">
         <v>4</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="45">
         <v>40</v>
       </c>
-      <c r="M31" s="57">
+      <c r="M31" s="48">
         <v>50</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="48">
         <v>50</v>
       </c>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
     </row>
     <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="49"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -2033,16 +2082,16 @@
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="52"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -2058,16 +2107,16 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
     </row>
     <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="50"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -2083,61 +2132,16 @@
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -2150,6 +2154,51 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2183,44 +2232,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -2270,111 +2319,111 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="74"/>
+      <c r="G5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="60"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="51">
+      <c r="J5" s="42">
         <v>2</v>
       </c>
-      <c r="K5" s="51">
-        <v>1</v>
-      </c>
-      <c r="L5" s="54">
+      <c r="K5" s="42">
+        <v>1</v>
+      </c>
+      <c r="L5" s="45">
         <v>20</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="F7" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="66"/>
+      <c r="G7" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="64"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="69"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
-      <c r="C9" s="60" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="68" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -2383,194 +2432,194 @@
       <c r="F9" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="60" t="s">
+      <c r="G9" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I9" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="71"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="49"/>
-      <c r="C11" s="62" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F11" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="G11" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="72"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F13" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="74"/>
+      <c r="G13" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="60"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="51">
+      <c r="J13" s="42">
         <v>2</v>
       </c>
-      <c r="K13" s="51">
-        <v>1</v>
-      </c>
-      <c r="L13" s="54">
+      <c r="K13" s="42">
+        <v>1</v>
+      </c>
+      <c r="L13" s="45">
         <v>20</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="68" t="s">
+      <c r="F15" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="66"/>
+      <c r="G15" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="64"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="49"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="69"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="49"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="68" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -2579,127 +2628,127 @@
       <c r="F17" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="60" t="s">
+      <c r="G17" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I17" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="71"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="62" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="62" t="s">
+      <c r="D19" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+      <c r="G19" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="50"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
     </row>
     <row r="21" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="38"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="44"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
     </row>
     <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -2749,356 +2798,356 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="51">
+      <c r="G24" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="42">
         <v>2</v>
       </c>
-      <c r="K24" s="51">
-        <v>1</v>
-      </c>
-      <c r="L24" s="54">
+      <c r="K24" s="42">
+        <v>1</v>
+      </c>
+      <c r="L24" s="45">
         <v>20</v>
       </c>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="49"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="49"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="60" t="s">
+      <c r="D26" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="68" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="60" t="s">
+      <c r="G26" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="I26" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="52"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="49"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="71"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="72" t="s">
+      <c r="F28" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="51">
+      <c r="G28" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="42">
         <v>2</v>
       </c>
-      <c r="K28" s="51">
-        <v>1</v>
-      </c>
-      <c r="L28" s="54">
+      <c r="K28" s="42">
+        <v>1</v>
+      </c>
+      <c r="L28" s="45">
         <v>20</v>
       </c>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="49"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="73"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="49"/>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="68" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="60" t="s">
+      <c r="G30" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="I30" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="71"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="72" t="s">
+      <c r="F32" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
-      <c r="J32" s="51">
+      <c r="G32" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="42">
         <v>2</v>
       </c>
-      <c r="K32" s="51">
-        <v>1</v>
-      </c>
-      <c r="L32" s="54">
+      <c r="K32" s="42">
+        <v>1</v>
+      </c>
+      <c r="L32" s="45">
         <v>20</v>
       </c>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="49"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="75"/>
-      <c r="H33" s="75"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
     </row>
     <row r="34" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="49"/>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="68" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="60" t="s">
+      <c r="G34" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="I34" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
     </row>
     <row r="35" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="50"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="71"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="59"/>
-      <c r="N35" s="59"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="59"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
     </row>
     <row r="36" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="37"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="38"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="44"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
     </row>
     <row r="38" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
@@ -3148,356 +3197,356 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="48" t="s">
+      <c r="B39" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="72" t="s">
+      <c r="F39" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="51">
+      <c r="G39" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="42">
         <v>2</v>
       </c>
-      <c r="K39" s="51">
-        <v>1</v>
-      </c>
-      <c r="L39" s="54">
+      <c r="K39" s="42">
+        <v>1</v>
+      </c>
+      <c r="L39" s="45">
         <v>20</v>
       </c>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="49"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="49"/>
     </row>
     <row r="41" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="49"/>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="60" t="s">
+      <c r="E41" s="68" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="60" t="s">
+      <c r="G41" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="60" t="s">
+      <c r="I41" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="49"/>
     </row>
     <row r="42" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="49"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="71"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="46"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="49"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="48" t="s">
+      <c r="B43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="74" t="s">
+      <c r="D43" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="72" t="s">
+      <c r="F43" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
-      <c r="J43" s="51">
+      <c r="G43" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="42">
         <v>2</v>
       </c>
-      <c r="K43" s="51">
-        <v>1</v>
-      </c>
-      <c r="L43" s="54">
+      <c r="K43" s="42">
+        <v>1</v>
+      </c>
+      <c r="L43" s="45">
         <v>20</v>
       </c>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="49"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="52"/>
-      <c r="K44" s="52"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
+      <c r="I44" s="61"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="49"/>
     </row>
     <row r="45" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="49"/>
-      <c r="C45" s="60" t="s">
+      <c r="B45" s="40"/>
+      <c r="C45" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="68" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="60" t="s">
+      <c r="G45" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="60" t="s">
+      <c r="I45" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="52"/>
-      <c r="K45" s="52"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="49"/>
     </row>
     <row r="46" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="49"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="61" t="s">
+      <c r="B46" s="40"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="71"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="48" t="s">
+      <c r="B47" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="72" t="s">
+      <c r="F47" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="51">
+      <c r="G47" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="42">
         <v>2</v>
       </c>
-      <c r="K47" s="51">
-        <v>1</v>
-      </c>
-      <c r="L47" s="54">
+      <c r="K47" s="42">
+        <v>1</v>
+      </c>
+      <c r="L47" s="45">
         <v>20</v>
       </c>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
+      <c r="M47" s="48"/>
+      <c r="N47" s="48"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="48"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="49"/>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="75"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="52"/>
-      <c r="K48" s="52"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="49"/>
     </row>
     <row r="49" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="49"/>
-      <c r="C49" s="60" t="s">
+      <c r="B49" s="40"/>
+      <c r="C49" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="60" t="s">
+      <c r="D49" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="60" t="s">
+      <c r="E49" s="68" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="60" t="s">
+      <c r="G49" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="60" t="s">
+      <c r="I49" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J49" s="52"/>
-      <c r="K49" s="52"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="49"/>
     </row>
     <row r="50" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="50"/>
-      <c r="C50" s="61"/>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61" t="s">
+      <c r="B50" s="41"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="69" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="71"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="50"/>
+      <c r="O50" s="50"/>
+      <c r="P50" s="50"/>
     </row>
     <row r="51" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="37"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="38"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="53"/>
     </row>
     <row r="52" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="42" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="44"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
@@ -3547,111 +3596,111 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="72" t="s">
+      <c r="F54" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="74"/>
+      <c r="G54" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="60"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="51">
+      <c r="J54" s="42">
         <v>2</v>
       </c>
-      <c r="K54" s="51">
-        <v>1</v>
-      </c>
-      <c r="L54" s="54">
+      <c r="K54" s="42">
+        <v>1</v>
+      </c>
+      <c r="L54" s="45">
         <v>20</v>
       </c>
-      <c r="M54" s="57"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="57"/>
-      <c r="P54" s="57"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="49"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="73"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="55"/>
-      <c r="M55" s="58"/>
-      <c r="N55" s="58"/>
-      <c r="O55" s="58"/>
-      <c r="P55" s="58"/>
+      <c r="J55" s="43"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="49"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="49"/>
-      <c r="C56" s="66" t="s">
+      <c r="B56" s="40"/>
+      <c r="C56" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="66" t="s">
+      <c r="D56" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="68" t="s">
+      <c r="F56" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="66"/>
+      <c r="G56" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="64"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="52"/>
-      <c r="L56" s="55"/>
-      <c r="M56" s="58"/>
-      <c r="N56" s="58"/>
-      <c r="O56" s="58"/>
-      <c r="P56" s="58"/>
+      <c r="J56" s="43"/>
+      <c r="K56" s="43"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="49"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="49"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="69"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
+      <c r="F57" s="67"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="58"/>
-      <c r="N57" s="58"/>
-      <c r="O57" s="58"/>
-      <c r="P57" s="58"/>
+      <c r="J57" s="43"/>
+      <c r="K57" s="43"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="49"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="49"/>
-      <c r="C58" s="60" t="s">
+      <c r="B58" s="40"/>
+      <c r="C58" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="60" t="s">
+      <c r="D58" s="68" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
@@ -3660,194 +3709,194 @@
       <c r="F58" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="60" t="s">
+      <c r="G58" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="60" t="s">
+      <c r="I58" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="52"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="58"/>
-      <c r="O58" s="58"/>
-      <c r="P58" s="58"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="49"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="49"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="69"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="71"/>
-      <c r="G59" s="61"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="61"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="58"/>
-      <c r="N59" s="58"/>
-      <c r="O59" s="58"/>
-      <c r="P59" s="58"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="49"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="49"/>
-      <c r="C60" s="62" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="62" t="s">
+      <c r="D60" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="58"/>
-      <c r="N60" s="58"/>
-      <c r="O60" s="58"/>
-      <c r="P60" s="58"/>
+      <c r="G60" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="72"/>
+      <c r="I60" s="72"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="49"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="49"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="73"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="65"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-      <c r="I61" s="63"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="55"/>
-      <c r="M61" s="58"/>
-      <c r="N61" s="58"/>
-      <c r="O61" s="58"/>
-      <c r="P61" s="58"/>
+      <c r="F61" s="75"/>
+      <c r="G61" s="73"/>
+      <c r="H61" s="73"/>
+      <c r="I61" s="73"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="49"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="49"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="48" t="s">
+      <c r="B62" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="72" t="s">
+      <c r="F62" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="74"/>
+      <c r="G62" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="60"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="51">
+      <c r="J62" s="42">
         <v>2</v>
       </c>
-      <c r="K62" s="51">
-        <v>1</v>
-      </c>
-      <c r="L62" s="54">
+      <c r="K62" s="42">
+        <v>1</v>
+      </c>
+      <c r="L62" s="45">
         <v>20</v>
       </c>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="57"/>
-      <c r="P62" s="57"/>
+      <c r="M62" s="48"/>
+      <c r="N62" s="48"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="48"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="49"/>
-      <c r="C63" s="75"/>
-      <c r="D63" s="75"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="73"/>
-      <c r="G63" s="75"/>
-      <c r="H63" s="75"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="58"/>
-      <c r="N63" s="58"/>
-      <c r="O63" s="58"/>
-      <c r="P63" s="58"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="49"/>
-      <c r="C64" s="66" t="s">
+      <c r="B64" s="40"/>
+      <c r="C64" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="66" t="s">
+      <c r="D64" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="68" t="s">
+      <c r="F64" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="66"/>
+      <c r="G64" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="64"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="55"/>
-      <c r="M64" s="58"/>
-      <c r="N64" s="58"/>
-      <c r="O64" s="58"/>
-      <c r="P64" s="58"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+      <c r="P64" s="49"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="49"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="55"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="58"/>
-      <c r="O65" s="58"/>
-      <c r="P65" s="58"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="49"/>
-      <c r="C66" s="60" t="s">
+      <c r="B66" s="40"/>
+      <c r="C66" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="60" t="s">
+      <c r="D66" s="68" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -3856,194 +3905,194 @@
       <c r="F66" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="60" t="s">
+      <c r="G66" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="60" t="s">
+      <c r="I66" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="55"/>
-      <c r="M66" s="58"/>
-      <c r="N66" s="58"/>
-      <c r="O66" s="58"/>
-      <c r="P66" s="58"/>
+      <c r="J66" s="43"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+      <c r="P66" s="49"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="49"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="69"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="71"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="55"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
+      <c r="G67" s="69"/>
+      <c r="H67" s="69"/>
+      <c r="I67" s="69"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+      <c r="P67" s="49"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="49"/>
-      <c r="C68" s="62" t="s">
+      <c r="B68" s="40"/>
+      <c r="C68" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="62" t="s">
+      <c r="D68" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="64" t="s">
+      <c r="F68" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="55"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
+      <c r="G68" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="72"/>
+      <c r="I68" s="72"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="49"/>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+      <c r="P68" s="49"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="50"/>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="73"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="65"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="56"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
+      <c r="F69" s="75"/>
+      <c r="G69" s="73"/>
+      <c r="H69" s="73"/>
+      <c r="I69" s="73"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="50"/>
+      <c r="N69" s="50"/>
+      <c r="O69" s="50"/>
+      <c r="P69" s="50"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="48" t="s">
+      <c r="B70" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="74" t="s">
+      <c r="D70" s="60" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="72" t="s">
+      <c r="F70" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="74"/>
+      <c r="G70" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="60"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="51">
+      <c r="J70" s="42">
         <v>2</v>
       </c>
-      <c r="K70" s="51">
-        <v>1</v>
-      </c>
-      <c r="L70" s="54">
+      <c r="K70" s="42">
+        <v>1</v>
+      </c>
+      <c r="L70" s="45">
         <v>20</v>
       </c>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="49"/>
-      <c r="C71" s="75"/>
-      <c r="D71" s="75"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="73"/>
-      <c r="G71" s="75"/>
-      <c r="H71" s="75"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="52"/>
-      <c r="L71" s="55"/>
-      <c r="M71" s="58"/>
-      <c r="N71" s="58"/>
-      <c r="O71" s="58"/>
-      <c r="P71" s="58"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+      <c r="P71" s="49"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="49"/>
-      <c r="C72" s="66" t="s">
+      <c r="B72" s="40"/>
+      <c r="C72" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="66" t="s">
+      <c r="D72" s="64" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="68" t="s">
+      <c r="F72" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="66"/>
+      <c r="G72" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="64"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="52"/>
-      <c r="L72" s="55"/>
-      <c r="M72" s="58"/>
-      <c r="N72" s="58"/>
-      <c r="O72" s="58"/>
-      <c r="P72" s="58"/>
+      <c r="J72" s="43"/>
+      <c r="K72" s="43"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="49"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="52"/>
-      <c r="L73" s="55"/>
-      <c r="M73" s="58"/>
-      <c r="N73" s="58"/>
-      <c r="O73" s="58"/>
-      <c r="P73" s="58"/>
+      <c r="J73" s="43"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+      <c r="P73" s="49"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="49"/>
-      <c r="C74" s="60" t="s">
+      <c r="B74" s="40"/>
+      <c r="C74" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="60" t="s">
+      <c r="D74" s="68" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
@@ -4052,113 +4101,331 @@
       <c r="F74" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="60" t="s">
+      <c r="G74" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="60" t="s">
+      <c r="I74" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J74" s="52"/>
-      <c r="K74" s="52"/>
-      <c r="L74" s="55"/>
-      <c r="M74" s="58"/>
-      <c r="N74" s="58"/>
-      <c r="O74" s="58"/>
-      <c r="P74" s="58"/>
+      <c r="J74" s="43"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="49"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="69"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="71"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="52"/>
-      <c r="L75" s="55"/>
-      <c r="M75" s="58"/>
-      <c r="N75" s="58"/>
-      <c r="O75" s="58"/>
-      <c r="P75" s="58"/>
+      <c r="G75" s="69"/>
+      <c r="H75" s="69"/>
+      <c r="I75" s="69"/>
+      <c r="J75" s="43"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="49"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+      <c r="P75" s="49"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="49"/>
-      <c r="C76" s="62" t="s">
+      <c r="B76" s="40"/>
+      <c r="C76" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="62" t="s">
+      <c r="D76" s="72" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="64" t="s">
+      <c r="F76" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="62"/>
-      <c r="I76" s="62"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="55"/>
-      <c r="M76" s="58"/>
-      <c r="N76" s="58"/>
-      <c r="O76" s="58"/>
-      <c r="P76" s="58"/>
+      <c r="G76" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="72"/>
+      <c r="I76" s="72"/>
+      <c r="J76" s="43"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+      <c r="P76" s="49"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="50"/>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="73"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="65"/>
-      <c r="G77" s="63"/>
-      <c r="H77" s="63"/>
-      <c r="I77" s="63"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="53"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="59"/>
-      <c r="N77" s="59"/>
-      <c r="O77" s="59"/>
-      <c r="P77" s="59"/>
+      <c r="F77" s="75"/>
+      <c r="G77" s="73"/>
+      <c r="H77" s="73"/>
+      <c r="I77" s="73"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="50"/>
+      <c r="N77" s="50"/>
+      <c r="O77" s="50"/>
+      <c r="P77" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="P62:P69"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="J62:J69"/>
+    <mergeCell ref="K62:K69"/>
+    <mergeCell ref="L62:L69"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="M62:M69"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -4183,247 +4450,29 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="P62:P69"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="J62:J69"/>
-    <mergeCell ref="K62:K69"/>
-    <mergeCell ref="L62:L69"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="M62:M69"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4454,44 +4503,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="42" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -4541,63 +4590,63 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="64" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="66" t="s">
+      <c r="G5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="49"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="49"/>
-      <c r="C7" s="60" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="68" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -4606,40 +4655,40 @@
       <c r="F7" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
+      <c r="G7" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="49"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="76" t="s">
         <v>89</v>
       </c>
@@ -4657,91 +4706,91 @@
       </c>
       <c r="H9" s="76"/>
       <c r="I9" s="76"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="49"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="64" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="66" t="s">
+      <c r="G11" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="49"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="69"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="49"/>
-      <c r="C13" s="60" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="68" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -4750,40 +4799,40 @@
       <c r="F13" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="G13" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="49"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="71"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="49"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="76" t="s">
         <v>89</v>
       </c>
@@ -4796,96 +4845,96 @@
       <c r="F15" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
+      <c r="G15" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="50"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="65"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="59"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="64" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="66" t="s">
+      <c r="G17" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="66" t="s">
+      <c r="I17" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="49"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="49"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D19" s="68" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -4894,40 +4943,40 @@
       <c r="F19" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+      <c r="G19" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="49"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="71"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="49"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="76" t="s">
         <v>89</v>
       </c>
@@ -4940,52 +4989,93 @@
       <c r="F21" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="G21" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="50"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P5:P10"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="K5:K10"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="O5:O10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="P17:P22"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
@@ -5002,61 +5092,619 @@
     <mergeCell ref="M17:M22"/>
     <mergeCell ref="N17:N22"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P5:P10"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="J5:J10"/>
-    <mergeCell ref="K5:K10"/>
-    <mergeCell ref="L5:L10"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="O5:O10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
+    </row>
+    <row r="3" spans="2:15" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+    </row>
+    <row r="4" spans="2:15" ht="33" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="42">
+        <v>6</v>
+      </c>
+      <c r="J6" s="42">
+        <v>2</v>
+      </c>
+      <c r="K6" s="45">
+        <v>40</v>
+      </c>
+      <c r="L6" s="48">
+        <v>50</v>
+      </c>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="40"/>
+      <c r="C7" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+    </row>
+    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+    </row>
+    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="42">
+        <v>4</v>
+      </c>
+      <c r="J10" s="42">
+        <v>4</v>
+      </c>
+      <c r="K10" s="45">
+        <v>50</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+    </row>
+    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="40"/>
+      <c r="C11" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+    </row>
+    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="41"/>
+      <c r="C12" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="42">
+        <v>4</v>
+      </c>
+      <c r="J14" s="42">
+        <v>4</v>
+      </c>
+      <c r="K14" s="45">
+        <v>50</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="40"/>
+      <c r="C15" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+    </row>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="42">
+        <v>4</v>
+      </c>
+      <c r="J18" s="42">
+        <v>4</v>
+      </c>
+      <c r="K18" s="45">
+        <v>40</v>
+      </c>
+      <c r="L18" s="48">
+        <v>50</v>
+      </c>
+      <c r="M18" s="48">
+        <v>60</v>
+      </c>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+    </row>
+    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="40"/>
+      <c r="C19" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+    </row>
+    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="40"/>
+      <c r="C20" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+    </row>
+    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="41"/>
+      <c r="C21" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+    </row>
+    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="M18:M21"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="155">
   <si>
     <t>IP Address</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>VLAN_PROVIDER_192.168.20.0/24</t>
+  </si>
+  <si>
+    <t>10.10.10.214</t>
+  </si>
+  <si>
+    <t>172.16.68.214</t>
+  </si>
+  <si>
+    <t>192.168.20.214</t>
   </si>
 </sst>
 </file>
@@ -833,6 +842,33 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -878,38 +914,41 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -917,41 +956,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1262,44 +1271,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1349,24 +1358,24 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
     </row>
     <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="48" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -1388,28 +1397,28 @@
       <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="51">
         <v>6</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="51">
         <v>2</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="54">
         <v>40</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="57">
         <v>50</v>
       </c>
-      <c r="N6" s="48">
+      <c r="N6" s="57">
         <v>60</v>
       </c>
-      <c r="O6" s="48">
+      <c r="O6" s="57">
         <v>60</v>
       </c>
-      <c r="P6" s="48"/>
+      <c r="P6" s="57"/>
     </row>
     <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -1425,16 +1434,16 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
     </row>
     <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -1450,16 +1459,16 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -1475,33 +1484,33 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
     </row>
     <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="38"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="47"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="48" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1523,22 +1532,22 @@
       <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="51">
         <v>4</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="51">
         <v>4</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="54">
         <v>50</v>
       </c>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -1554,16 +1563,16 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -1579,16 +1588,16 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -1604,33 +1613,33 @@
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="48" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -1652,22 +1661,22 @@
       <c r="I16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="42">
+      <c r="J16" s="51">
         <v>4</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="51">
         <v>4</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="54">
         <v>50</v>
       </c>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -1683,16 +1692,16 @@
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -1708,16 +1717,16 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -1733,33 +1742,33 @@
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
     </row>
     <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="38"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="47"/>
     </row>
     <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -1781,26 +1790,26 @@
       <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="42">
+      <c r="J21" s="51">
         <v>4</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="51">
         <v>4</v>
       </c>
-      <c r="L21" s="45">
+      <c r="L21" s="54">
         <v>40</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="57">
         <v>50</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="57">
         <v>60</v>
       </c>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
     </row>
     <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -1816,16 +1825,16 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="58"/>
     </row>
     <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -1841,16 +1850,16 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="58"/>
+      <c r="P23" s="58"/>
     </row>
     <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="41"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -1866,33 +1875,33 @@
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
     </row>
     <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
     </row>
     <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="48" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -1914,26 +1923,26 @@
       <c r="I26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="42">
+      <c r="J26" s="51">
         <v>4</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="51">
         <v>4</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="54">
         <v>40</v>
       </c>
-      <c r="M26" s="48">
+      <c r="M26" s="57">
         <v>50</v>
       </c>
-      <c r="N26" s="48">
+      <c r="N26" s="57">
         <v>50</v>
       </c>
-      <c r="O26" s="48"/>
-      <c r="P26" s="48"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -1949,16 +1958,16 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -1974,16 +1983,16 @@
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="58"/>
     </row>
     <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="41"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -1999,33 +2008,33 @@
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
     </row>
     <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="38"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="47"/>
     </row>
     <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="48" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -2047,26 +2056,26 @@
       <c r="I31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="51">
         <v>4</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="51">
         <v>4</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="54">
         <v>40</v>
       </c>
-      <c r="M31" s="48">
+      <c r="M31" s="57">
         <v>50</v>
       </c>
-      <c r="N31" s="48">
+      <c r="N31" s="57">
         <v>50</v>
       </c>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
     </row>
     <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
+      <c r="B32" s="49"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -2082,16 +2091,16 @@
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="58"/>
     </row>
     <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
+      <c r="B33" s="49"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -2107,16 +2116,16 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
     </row>
     <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="41"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -2132,16 +2141,61 @@
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
+      <c r="J34" s="53"/>
+      <c r="K34" s="53"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -2154,51 +2208,6 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2232,44 +2241,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -2319,111 +2328,111 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="60"/>
+      <c r="G5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="74"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="42">
+      <c r="J5" s="51">
         <v>2</v>
       </c>
-      <c r="K5" s="42">
-        <v>1</v>
-      </c>
-      <c r="L5" s="45">
+      <c r="K5" s="51">
+        <v>1</v>
+      </c>
+      <c r="L5" s="54">
         <v>20</v>
       </c>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="64" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="64"/>
+      <c r="G7" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="66"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-      <c r="C9" s="68" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="68" t="s">
+      <c r="D9" s="60" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -2432,194 +2441,194 @@
       <c r="F9" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="68" t="s">
+      <c r="G9" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="68" t="s">
+      <c r="I9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="71"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-      <c r="C11" s="72" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="62" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
+      <c r="G11" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="60"/>
+      <c r="G13" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="74"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="42">
+      <c r="J13" s="51">
         <v>2</v>
       </c>
-      <c r="K13" s="42">
-        <v>1</v>
-      </c>
-      <c r="L13" s="45">
+      <c r="K13" s="51">
+        <v>1</v>
+      </c>
+      <c r="L13" s="54">
         <v>20</v>
       </c>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="63"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-      <c r="C15" s="64" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="64"/>
+      <c r="G15" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="66"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="67"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="49"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="49"/>
+      <c r="C17" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="68" t="s">
+      <c r="D17" s="60" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -2628,127 +2637,127 @@
       <c r="F17" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="68" t="s">
+      <c r="G17" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="71"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="62" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
+      <c r="G19" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="41"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="75"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
     </row>
     <row r="21" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="38"/>
     </row>
     <row r="22" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="44"/>
     </row>
     <row r="23" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -2798,356 +2807,356 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="60" t="s">
+      <c r="D24" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="62" t="s">
+      <c r="F24" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="42">
+      <c r="G24" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="51">
         <v>2</v>
       </c>
-      <c r="K24" s="42">
-        <v>1</v>
-      </c>
-      <c r="L24" s="45">
+      <c r="K24" s="51">
+        <v>1</v>
+      </c>
+      <c r="L24" s="54">
         <v>20</v>
       </c>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="63"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="75"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
     </row>
     <row r="26" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-      <c r="C26" s="68" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="68" t="s">
+      <c r="D26" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="68" t="s">
+      <c r="E26" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="68" t="s">
+      <c r="G26" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="68" t="s">
+      <c r="I26" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="58"/>
     </row>
     <row r="27" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="71"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="58"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="60" t="s">
+      <c r="C28" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="62" t="s">
+      <c r="F28" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="42">
+      <c r="G28" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="51">
         <v>2</v>
       </c>
-      <c r="K28" s="42">
-        <v>1</v>
-      </c>
-      <c r="L28" s="45">
+      <c r="K28" s="51">
+        <v>1</v>
+      </c>
+      <c r="L28" s="54">
         <v>20</v>
       </c>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="63"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="58"/>
     </row>
     <row r="30" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="68" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="68" t="s">
+      <c r="D30" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="68" t="s">
+      <c r="E30" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="68" t="s">
+      <c r="G30" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="58"/>
     </row>
     <row r="31" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="71"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="58"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="62" t="s">
+      <c r="F32" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="42">
+      <c r="G32" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="51">
         <v>2</v>
       </c>
-      <c r="K32" s="42">
-        <v>1</v>
-      </c>
-      <c r="L32" s="45">
+      <c r="K32" s="51">
+        <v>1</v>
+      </c>
+      <c r="L32" s="54">
         <v>20</v>
       </c>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="63"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="58"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="58"/>
+      <c r="P33" s="58"/>
     </row>
     <row r="34" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="40"/>
-      <c r="C34" s="68" t="s">
+      <c r="B34" s="49"/>
+      <c r="C34" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="68" t="s">
+      <c r="D34" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="68" t="s">
+      <c r="E34" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="68" t="s">
+      <c r="G34" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="68" t="s">
+      <c r="I34" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="46"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="58"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="58"/>
+      <c r="P34" s="58"/>
     </row>
     <row r="35" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="41"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69" t="s">
+      <c r="B35" s="50"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="71"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="53"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
     </row>
     <row r="36" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="38"/>
     </row>
     <row r="37" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="44"/>
     </row>
     <row r="38" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
@@ -3197,356 +3206,356 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="60" t="s">
+      <c r="D39" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="62" t="s">
+      <c r="F39" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="60"/>
-      <c r="J39" s="42">
+      <c r="G39" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="51">
         <v>2</v>
       </c>
-      <c r="K39" s="42">
-        <v>1</v>
-      </c>
-      <c r="L39" s="45">
+      <c r="K39" s="51">
+        <v>1</v>
+      </c>
+      <c r="L39" s="54">
         <v>20</v>
       </c>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="48"/>
+      <c r="M39" s="57"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="40"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="63"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="49"/>
-      <c r="P40" s="49"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="58"/>
     </row>
     <row r="41" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B41" s="40"/>
-      <c r="C41" s="68" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="68" t="s">
+      <c r="D41" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="68" t="s">
+      <c r="E41" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="68" t="s">
+      <c r="G41" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="68" t="s">
+      <c r="I41" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="46"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="58"/>
     </row>
     <row r="42" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B42" s="40"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="71"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="46"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="49"/>
-      <c r="P42" s="49"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="58"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="58"/>
+      <c r="P42" s="58"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="62" t="s">
+      <c r="F43" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="42">
+      <c r="G43" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="74"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="51">
         <v>2</v>
       </c>
-      <c r="K43" s="42">
-        <v>1</v>
-      </c>
-      <c r="L43" s="45">
+      <c r="K43" s="51">
+        <v>1</v>
+      </c>
+      <c r="L43" s="54">
         <v>20</v>
       </c>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="40"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="63"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="61"/>
-      <c r="I44" s="61"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="49"/>
-      <c r="P44" s="49"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="75"/>
+      <c r="I44" s="75"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="58"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="58"/>
+      <c r="P44" s="58"/>
     </row>
     <row r="45" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B45" s="40"/>
-      <c r="C45" s="68" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="68" t="s">
+      <c r="D45" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="68" t="s">
+      <c r="E45" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="68" t="s">
+      <c r="G45" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="68" t="s">
+      <c r="I45" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="49"/>
-      <c r="P45" s="49"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
     </row>
     <row r="46" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B46" s="40"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="71"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="60" t="s">
+      <c r="D47" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="62" t="s">
+      <c r="F47" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="42">
+      <c r="G47" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="51">
         <v>2</v>
       </c>
-      <c r="K47" s="42">
-        <v>1</v>
-      </c>
-      <c r="L47" s="45">
+      <c r="K47" s="51">
+        <v>1</v>
+      </c>
+      <c r="L47" s="54">
         <v>20</v>
       </c>
-      <c r="M47" s="48"/>
-      <c r="N47" s="48"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="48"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="40"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="63"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="49"/>
-      <c r="P48" s="49"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="75"/>
+      <c r="H48" s="75"/>
+      <c r="I48" s="75"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="58"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="58"/>
+      <c r="P48" s="58"/>
     </row>
     <row r="49" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="40"/>
-      <c r="C49" s="68" t="s">
+      <c r="B49" s="49"/>
+      <c r="C49" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="68" t="s">
+      <c r="D49" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="68" t="s">
+      <c r="E49" s="60" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="70" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="68" t="s">
+      <c r="G49" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="68" t="s">
+      <c r="I49" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="49"/>
-      <c r="P49" s="49"/>
+      <c r="J49" s="52"/>
+      <c r="K49" s="52"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="58"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="58"/>
+      <c r="P49" s="58"/>
     </row>
     <row r="50" spans="2:16" ht="15" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69" t="s">
+      <c r="B50" s="50"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="71"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="50"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
+      <c r="J50" s="53"/>
+      <c r="K50" s="53"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
     </row>
     <row r="51" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="38"/>
     </row>
     <row r="52" spans="2:16" ht="18" x14ac:dyDescent="0.25">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57" t="s">
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="59"/>
+      <c r="K52" s="43"/>
+      <c r="L52" s="43"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="43"/>
+      <c r="O52" s="43"/>
+      <c r="P52" s="44"/>
     </row>
     <row r="53" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
@@ -3596,111 +3605,111 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="60" t="s">
+      <c r="D54" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="60"/>
+      <c r="G54" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="74"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="42">
+      <c r="J54" s="51">
         <v>2</v>
       </c>
-      <c r="K54" s="42">
-        <v>1</v>
-      </c>
-      <c r="L54" s="45">
+      <c r="K54" s="51">
+        <v>1</v>
+      </c>
+      <c r="L54" s="54">
         <v>20</v>
       </c>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="48"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="40"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="75"/>
+      <c r="D55" s="75"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="63"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="61"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="75"/>
+      <c r="H55" s="75"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="49"/>
-      <c r="P55" s="49"/>
+      <c r="J55" s="52"/>
+      <c r="K55" s="52"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="58"/>
+      <c r="P55" s="58"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B56" s="40"/>
-      <c r="C56" s="64" t="s">
+      <c r="B56" s="49"/>
+      <c r="C56" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="64" t="s">
+      <c r="D56" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="66" t="s">
+      <c r="F56" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="64"/>
+      <c r="G56" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="66"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="49"/>
-      <c r="P56" s="49"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="55"/>
+      <c r="M56" s="58"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="58"/>
+      <c r="P56" s="58"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="40"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="65"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="67"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="67"/>
+      <c r="H57" s="67"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="49"/>
-      <c r="P57" s="49"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="58"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="58"/>
+      <c r="P57" s="58"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="40"/>
-      <c r="C58" s="68" t="s">
+      <c r="B58" s="49"/>
+      <c r="C58" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="68" t="s">
+      <c r="D58" s="60" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
@@ -3709,194 +3718,194 @@
       <c r="F58" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="68" t="s">
+      <c r="G58" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="68" t="s">
+      <c r="I58" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="55"/>
+      <c r="M58" s="58"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="58"/>
+      <c r="P58" s="58"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B59" s="40"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="71"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="49"/>
-      <c r="O59" s="49"/>
-      <c r="P59" s="49"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="55"/>
+      <c r="M59" s="58"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="58"/>
+      <c r="P59" s="58"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="40"/>
-      <c r="C60" s="72" t="s">
+      <c r="B60" s="49"/>
+      <c r="C60" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="72" t="s">
+      <c r="D60" s="62" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="74" t="s">
+      <c r="F60" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="43"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="49"/>
-      <c r="O60" s="49"/>
-      <c r="P60" s="49"/>
+      <c r="G60" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="58"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="58"/>
+      <c r="P60" s="58"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="40"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="75"/>
-      <c r="G61" s="73"/>
-      <c r="H61" s="73"/>
-      <c r="I61" s="73"/>
-      <c r="J61" s="44"/>
-      <c r="K61" s="44"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="49"/>
-      <c r="O61" s="49"/>
-      <c r="P61" s="49"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="55"/>
+      <c r="M61" s="58"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="58"/>
+      <c r="P61" s="58"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="60" t="s">
+      <c r="D62" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="62" t="s">
+      <c r="F62" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="60"/>
+      <c r="G62" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="74"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="42">
+      <c r="J62" s="51">
         <v>2</v>
       </c>
-      <c r="K62" s="42">
-        <v>1</v>
-      </c>
-      <c r="L62" s="45">
+      <c r="K62" s="51">
+        <v>1</v>
+      </c>
+      <c r="L62" s="54">
         <v>20</v>
       </c>
-      <c r="M62" s="48"/>
-      <c r="N62" s="48"/>
-      <c r="O62" s="48"/>
-      <c r="P62" s="48"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B63" s="40"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="63"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="75"/>
+      <c r="H63" s="75"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="46"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
+      <c r="J63" s="52"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="58"/>
+      <c r="P63" s="58"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="40"/>
-      <c r="C64" s="64" t="s">
+      <c r="B64" s="49"/>
+      <c r="C64" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="64" t="s">
+      <c r="D64" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="64"/>
+      <c r="G64" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="66"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="49"/>
-      <c r="O64" s="49"/>
-      <c r="P64" s="49"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="55"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="58"/>
+      <c r="P64" s="58"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="40"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="67"/>
-      <c r="G65" s="65"/>
-      <c r="H65" s="65"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49"/>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
+      <c r="J65" s="52"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="55"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="58"/>
+      <c r="P65" s="58"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="40"/>
-      <c r="C66" s="68" t="s">
+      <c r="B66" s="49"/>
+      <c r="C66" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="68" t="s">
+      <c r="D66" s="60" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -3905,194 +3914,194 @@
       <c r="F66" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="68" t="s">
+      <c r="G66" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="68" t="s">
+      <c r="I66" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="49"/>
-      <c r="O66" s="49"/>
-      <c r="P66" s="49"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="55"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="58"/>
+      <c r="P66" s="58"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="40"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="71"/>
-      <c r="G67" s="69"/>
-      <c r="H67" s="69"/>
-      <c r="I67" s="69"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="46"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="49"/>
-      <c r="O67" s="49"/>
-      <c r="P67" s="49"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="55"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="40"/>
-      <c r="C68" s="72" t="s">
+      <c r="B68" s="49"/>
+      <c r="C68" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="72" t="s">
+      <c r="D68" s="62" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="74" t="s">
+      <c r="F68" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="72"/>
-      <c r="I68" s="72"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="49"/>
-      <c r="O68" s="49"/>
-      <c r="P68" s="49"/>
+      <c r="G68" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="55"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="58"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="75"/>
-      <c r="G69" s="73"/>
-      <c r="H69" s="73"/>
-      <c r="I69" s="73"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="56"/>
+      <c r="M69" s="59"/>
+      <c r="N69" s="59"/>
+      <c r="O69" s="59"/>
+      <c r="P69" s="59"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="60" t="s">
+      <c r="D70" s="74" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="62" t="s">
+      <c r="F70" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="60"/>
+      <c r="G70" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="74"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="42">
+      <c r="J70" s="51">
         <v>2</v>
       </c>
-      <c r="K70" s="42">
-        <v>1</v>
-      </c>
-      <c r="L70" s="45">
+      <c r="K70" s="51">
+        <v>1</v>
+      </c>
+      <c r="L70" s="54">
         <v>20</v>
       </c>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="40"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="63"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="75"/>
+      <c r="H71" s="75"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="49"/>
-      <c r="O71" s="49"/>
-      <c r="P71" s="49"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="55"/>
+      <c r="M71" s="58"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="58"/>
+      <c r="P71" s="58"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="40"/>
-      <c r="C72" s="64" t="s">
+      <c r="B72" s="49"/>
+      <c r="C72" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="64" t="s">
+      <c r="D72" s="66" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="66" t="s">
+      <c r="F72" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="64"/>
+      <c r="G72" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="66"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="55"/>
+      <c r="M72" s="58"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="58"/>
+      <c r="P72" s="58"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="40"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="67"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="49"/>
-      <c r="O73" s="49"/>
-      <c r="P73" s="49"/>
+      <c r="J73" s="52"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="55"/>
+      <c r="M73" s="58"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="58"/>
+      <c r="P73" s="58"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="40"/>
-      <c r="C74" s="68" t="s">
+      <c r="B74" s="49"/>
+      <c r="C74" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="68" t="s">
+      <c r="D74" s="60" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
@@ -4101,111 +4110,333 @@
       <c r="F74" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="68" t="s">
+      <c r="G74" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="68" t="s">
+      <c r="I74" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="58"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="58"/>
+      <c r="P74" s="58"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="40"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="69"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="71"/>
-      <c r="G75" s="69"/>
-      <c r="H75" s="69"/>
-      <c r="I75" s="69"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="46"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="49"/>
-      <c r="O75" s="49"/>
-      <c r="P75" s="49"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="52"/>
+      <c r="K75" s="52"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="58"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="58"/>
+      <c r="P75" s="58"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="40"/>
-      <c r="C76" s="72" t="s">
+      <c r="B76" s="49"/>
+      <c r="C76" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="72" t="s">
+      <c r="D76" s="62" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="74" t="s">
+      <c r="F76" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="72"/>
-      <c r="I76" s="72"/>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="49"/>
-      <c r="O76" s="49"/>
-      <c r="P76" s="49"/>
+      <c r="G76" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="55"/>
+      <c r="M76" s="58"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="58"/>
+      <c r="P76" s="58"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="41"/>
-      <c r="C77" s="73"/>
-      <c r="D77" s="73"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="75"/>
-      <c r="G77" s="73"/>
-      <c r="H77" s="73"/>
-      <c r="I77" s="73"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="44"/>
-      <c r="L77" s="47"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="50"/>
-      <c r="O77" s="50"/>
-      <c r="P77" s="50"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="53"/>
+      <c r="K77" s="53"/>
+      <c r="L77" s="56"/>
+      <c r="M77" s="59"/>
+      <c r="N77" s="59"/>
+      <c r="O77" s="59"/>
+      <c r="P77" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="P62:P69"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -4230,249 +4461,27 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="M62:M69"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -4503,44 +4512,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
     </row>
     <row r="4" spans="2:16" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -4590,63 +4599,63 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="66" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="64" t="s">
+      <c r="G5" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="58"/>
+      <c r="P5" s="58"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="60" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -4655,40 +4664,40 @@
       <c r="F7" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
+      <c r="G7" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="71"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="76" t="s">
         <v>89</v>
       </c>
@@ -4706,91 +4715,91 @@
       </c>
       <c r="H9" s="76"/>
       <c r="I9" s="76"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="66" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="64" t="s">
+      <c r="G11" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="67"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="60" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -4799,40 +4808,40 @@
       <c r="F13" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
+      <c r="G13" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="71"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="76" t="s">
         <v>89</v>
       </c>
@@ -4845,96 +4854,96 @@
       <c r="F15" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
+      <c r="G15" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="64" t="s">
+      <c r="C17" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="66" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="66" t="s">
+      <c r="F17" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="58"/>
+      <c r="P17" s="58"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="67"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-      <c r="C19" s="68" t="s">
+      <c r="B19" s="49"/>
+      <c r="C19" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="60" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -4943,40 +4952,40 @@
       <c r="F19" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
+      <c r="G19" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="71"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="76" t="s">
         <v>89</v>
       </c>
@@ -4989,40 +4998,105 @@
       <c r="F21" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
+      <c r="G21" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="41"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="75"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="P5:P10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -5039,71 +5113,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5112,10 +5121,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O22"/>
+  <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5134,42 +5143,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="44"/>
     </row>
     <row r="4" spans="2:15" ht="33" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -5216,23 +5225,23 @@
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
     </row>
     <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="48" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -5249,24 +5258,24 @@
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
-      <c r="I6" s="42">
+      <c r="I6" s="51">
         <v>6</v>
       </c>
-      <c r="J6" s="42">
+      <c r="J6" s="51">
         <v>2</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="54">
         <v>40</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="57">
         <v>50</v>
       </c>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
     </row>
     <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
@@ -5285,16 +5294,16 @@
       <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="34" t="s">
         <v>151</v>
       </c>
@@ -5309,32 +5318,32 @@
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="38"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="47"/>
     </row>
     <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="48" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -5351,22 +5360,22 @@
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="42">
+      <c r="I10" s="51">
         <v>4</v>
       </c>
-      <c r="J10" s="42">
+      <c r="J10" s="51">
         <v>4</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="54">
         <v>50</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
     </row>
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="30" t="s">
         <v>139</v>
       </c>
@@ -5385,16 +5394,16 @@
       <c r="H11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="34" t="s">
         <v>151</v>
       </c>
@@ -5409,32 +5418,32 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="38"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="47"/>
     </row>
     <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="48" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -5451,22 +5460,22 @@
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="42">
+      <c r="I14" s="51">
         <v>4</v>
       </c>
-      <c r="J14" s="42">
+      <c r="J14" s="51">
         <v>4</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="54">
         <v>50</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="30" t="s">
         <v>139</v>
       </c>
@@ -5485,16 +5494,16 @@
       <c r="H15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
     </row>
     <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="34" t="s">
         <v>151</v>
       </c>
@@ -5509,170 +5518,156 @@
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="38"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="47"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="48" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="29" t="s">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="51">
+        <v>2</v>
+      </c>
+      <c r="J18" s="51">
+        <v>2</v>
+      </c>
+      <c r="K18" s="54">
+        <v>50</v>
+      </c>
+      <c r="L18" s="57">
+        <v>80</v>
+      </c>
+      <c r="M18" s="57">
+        <v>80</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+    </row>
+    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+      <c r="C19" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="H19" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="42">
-        <v>4</v>
-      </c>
-      <c r="J18" s="42">
-        <v>4</v>
-      </c>
-      <c r="K18" s="45">
-        <v>40</v>
-      </c>
-      <c r="L18" s="48">
-        <v>50</v>
-      </c>
-      <c r="M18" s="48">
-        <v>60</v>
-      </c>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-    </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-      <c r="C19" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-      <c r="C20" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-    </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="38"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="M18:M21"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="O18:O21"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
     <mergeCell ref="O10:O12"/>
     <mergeCell ref="B13:O13"/>
     <mergeCell ref="B14:B16"/>
@@ -5683,26 +5678,16 @@
     <mergeCell ref="M14:M16"/>
     <mergeCell ref="N14:N16"/>
     <mergeCell ref="O14:O16"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -9,15 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="HCD_NOHA_IP_Planning" sheetId="18" r:id="rId1"/>
-    <sheet name="HCD_IP_Planning" sheetId="15" r:id="rId2"/>
-    <sheet name="HCD_CEPH" sheetId="17" r:id="rId3"/>
-    <sheet name="Queens" sheetId="19" r:id="rId4"/>
-    <sheet name="HA_Qeens_No_bond" sheetId="20" r:id="rId5"/>
-    <sheet name="HA_Qeens_Bond" sheetId="21" r:id="rId6"/>
+    <sheet name="HA_Qeens_No_HA" sheetId="22" r:id="rId1"/>
+    <sheet name="HCD_NOHA_IP_Planning" sheetId="18" r:id="rId2"/>
+    <sheet name="HCD_IP_Planning" sheetId="15" r:id="rId3"/>
+    <sheet name="HCD_CEPH" sheetId="17" r:id="rId4"/>
+    <sheet name="Queens" sheetId="19" r:id="rId5"/>
+    <sheet name="HA_Qeens_No_bond" sheetId="20" r:id="rId6"/>
+    <sheet name="HA_Qeens_Bond" sheetId="21" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="201">
   <si>
     <t>IP Address</t>
   </si>
@@ -493,15 +494,6 @@
     <t>VLAN_PROVIDER_192.168.20.0/24</t>
   </si>
   <si>
-    <t>10.10.10.214</t>
-  </si>
-  <si>
-    <t>172.16.68.214</t>
-  </si>
-  <si>
-    <t>192.168.20.214</t>
-  </si>
-  <si>
     <t>VLAN_DATA_VM</t>
   </si>
   <si>
@@ -563,6 +555,90 @@
   </si>
   <si>
     <t>192.168.50.53</t>
+  </si>
+  <si>
+    <t>COM1</t>
+  </si>
+  <si>
+    <t>COM2</t>
+  </si>
+  <si>
+    <t>VLAN ID</t>
+  </si>
+  <si>
+    <t>MGNT</t>
+  </si>
+  <si>
+    <t>CEPH COM</t>
+  </si>
+  <si>
+    <t>DATA VM</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Compute1</t>
+  </si>
+  <si>
+    <t>Compute2</t>
+  </si>
+  <si>
+    <t>VLAN10</t>
+  </si>
+  <si>
+    <t>VLAN13</t>
+  </si>
+  <si>
+    <t>VLAN12</t>
+  </si>
+  <si>
+    <t>VLAN11</t>
+  </si>
+  <si>
+    <t>+8GB</t>
+  </si>
+  <si>
+    <t>+60GB</t>
+  </si>
+  <si>
+    <t>+80GB</t>
+  </si>
+  <si>
+    <t>10.10.10.111</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.13.111</t>
+  </si>
+  <si>
+    <t>10.10.12.111</t>
+  </si>
+  <si>
+    <t>10.10.10.112</t>
+  </si>
+  <si>
+    <t>10.10.13.112</t>
+  </si>
+  <si>
+    <t>10.10.12.112</t>
+  </si>
+  <si>
+    <t>10.10.10.113</t>
+  </si>
+  <si>
+    <t>10.10.13.113</t>
+  </si>
+  <si>
+    <t>10.10.12.113</t>
+  </si>
+  <si>
+    <t>+6GB</t>
   </si>
 </sst>
 </file>
@@ -802,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -931,6 +1007,54 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,32 +1100,47 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,86 +1148,32 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,6 +1455,530 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" style="2" customWidth="1"/>
+    <col min="12" max="16" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
+    </row>
+    <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
+    </row>
+    <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="95">
+        <v>2</v>
+      </c>
+      <c r="L6" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+    </row>
+    <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="96"/>
+      <c r="C7" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>192</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+    </row>
+    <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="96"/>
+      <c r="C8" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+    </row>
+    <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="96"/>
+      <c r="C9" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+    </row>
+    <row r="10" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>194</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="K10" s="95">
+        <v>4</v>
+      </c>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+    </row>
+    <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="64"/>
+      <c r="C11" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
+    </row>
+    <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="64"/>
+      <c r="C12" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+    </row>
+    <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="64"/>
+      <c r="C13" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
+    </row>
+    <row r="14" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>191</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="K14" s="95">
+        <v>4</v>
+      </c>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
+    </row>
+    <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="64"/>
+      <c r="C15" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
+    </row>
+    <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="64"/>
+      <c r="C16" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
+    </row>
+    <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="65"/>
+      <c r="C17" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P34"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -1393,44 +2002,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="67"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -1480,24 +2089,24 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="62"/>
     </row>
     <row r="6" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -1519,28 +2128,28 @@
       <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="66">
         <v>6</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="66">
         <v>2</v>
       </c>
-      <c r="L6" s="53">
+      <c r="L6" s="69">
         <v>40</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="72">
         <v>50</v>
       </c>
-      <c r="N6" s="56">
+      <c r="N6" s="72">
         <v>60</v>
       </c>
-      <c r="O6" s="56">
+      <c r="O6" s="72">
         <v>60</v>
       </c>
-      <c r="P6" s="56"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -1556,16 +2165,16 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -1581,16 +2190,16 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="49"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -1606,33 +2215,33 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
     </row>
     <row r="10" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="46"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="63" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -1654,22 +2263,22 @@
       <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="66">
         <v>4</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="66">
         <v>4</v>
       </c>
-      <c r="L11" s="53">
+      <c r="L11" s="69">
         <v>50</v>
       </c>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
     </row>
     <row r="12" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="48"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -1685,16 +2294,16 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
     </row>
     <row r="13" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="48"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -1710,16 +2319,16 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="49"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -1735,33 +2344,33 @@
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
     </row>
     <row r="15" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="62"/>
     </row>
     <row r="16" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="63" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -1783,22 +2392,22 @@
       <c r="I16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="66">
         <v>4</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="66">
         <v>4</v>
       </c>
-      <c r="L16" s="53">
+      <c r="L16" s="69">
         <v>50</v>
       </c>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
     </row>
     <row r="17" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="48"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -1814,16 +2423,16 @@
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
     </row>
     <row r="18" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -1839,16 +2448,16 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="49"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -1864,33 +2473,33 @@
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
     </row>
     <row r="20" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="44"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="46"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="62"/>
     </row>
     <row r="21" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="63" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -1912,26 +2521,26 @@
       <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="50">
+      <c r="J21" s="66">
         <v>4</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="66">
         <v>4</v>
       </c>
-      <c r="L21" s="53">
+      <c r="L21" s="69">
         <v>40</v>
       </c>
-      <c r="M21" s="56">
+      <c r="M21" s="72">
         <v>50</v>
       </c>
-      <c r="N21" s="56">
+      <c r="N21" s="72">
         <v>60</v>
       </c>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
     </row>
     <row r="22" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="48"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -1947,16 +2556,16 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
     </row>
     <row r="23" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="48"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -1972,16 +2581,16 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
     </row>
     <row r="24" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="49"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -1997,33 +2606,33 @@
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
     </row>
     <row r="25" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="46"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="62"/>
     </row>
     <row r="26" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="63" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2045,26 +2654,26 @@
       <c r="I26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="50">
+      <c r="J26" s="66">
         <v>4</v>
       </c>
-      <c r="K26" s="50">
+      <c r="K26" s="66">
         <v>4</v>
       </c>
-      <c r="L26" s="53">
+      <c r="L26" s="69">
         <v>40</v>
       </c>
-      <c r="M26" s="56">
+      <c r="M26" s="72">
         <v>50</v>
       </c>
-      <c r="N26" s="56">
+      <c r="N26" s="72">
         <v>50</v>
       </c>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
     </row>
     <row r="27" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -2080,16 +2689,16 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
     </row>
     <row r="28" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="48"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -2105,16 +2714,16 @@
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
     </row>
     <row r="29" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="49"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -2130,33 +2739,33 @@
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
     </row>
     <row r="30" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="44"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="45"/>
-      <c r="P30" s="46"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="62"/>
     </row>
     <row r="31" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="63" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -2178,26 +2787,26 @@
       <c r="I31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="50">
+      <c r="J31" s="66">
         <v>4</v>
       </c>
-      <c r="K31" s="50">
+      <c r="K31" s="66">
         <v>4</v>
       </c>
-      <c r="L31" s="53">
+      <c r="L31" s="69">
         <v>40</v>
       </c>
-      <c r="M31" s="56">
+      <c r="M31" s="72">
         <v>50</v>
       </c>
-      <c r="N31" s="56">
+      <c r="N31" s="72">
         <v>50</v>
       </c>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
     </row>
     <row r="32" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="48"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -2213,16 +2822,16 @@
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
     </row>
     <row r="33" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="48"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -2238,16 +2847,16 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="49"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -2263,16 +2872,61 @@
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -2285,58 +2939,13 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2363,44 +2972,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="67"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -2450,436 +3059,436 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="70" t="s">
+      <c r="F5" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="68"/>
+      <c r="G5" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="89"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="50">
+      <c r="J5" s="66">
         <v>2</v>
       </c>
-      <c r="K5" s="50">
-        <v>1</v>
-      </c>
-      <c r="L5" s="53">
+      <c r="K5" s="66">
+        <v>1</v>
+      </c>
+      <c r="L5" s="69">
         <v>20</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="72" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="72"/>
+      <c r="G7" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="81"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="48"/>
-      <c r="C9" s="76" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="76" t="s">
+      <c r="D9" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="78" t="s">
+      <c r="F9" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="76" t="s">
+      <c r="G9" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="76" t="s">
+      <c r="I9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="48"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="48"/>
-      <c r="C11" s="80" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
+      <c r="G11" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="48"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="83"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="68" t="s">
+      <c r="C13" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="68"/>
+      <c r="G13" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="89"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="50">
+      <c r="J13" s="66">
         <v>2</v>
       </c>
-      <c r="K13" s="50">
-        <v>1</v>
-      </c>
-      <c r="L13" s="53">
+      <c r="K13" s="66">
+        <v>1</v>
+      </c>
+      <c r="L13" s="69">
         <v>20</v>
       </c>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="48"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="48"/>
-      <c r="C15" s="72" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="72" t="s">
+      <c r="D15" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="74" t="s">
+      <c r="F15" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="72"/>
+      <c r="G15" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="81"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="48"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="75"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="48"/>
-      <c r="C17" s="76" t="s">
+      <c r="B17" s="64"/>
+      <c r="C17" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="F17" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="76" t="s">
+      <c r="G17" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="48"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="79"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="48"/>
-      <c r="C19" s="80" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="80" t="s">
+      <c r="D19" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
+      <c r="G19" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="49"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
     </row>
     <row r="21" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
     </row>
     <row r="23" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
@@ -2929,356 +3538,356 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="70" t="s">
+      <c r="F24" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="50">
+      <c r="G24" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="66">
         <v>2</v>
       </c>
-      <c r="K24" s="50">
-        <v>1</v>
-      </c>
-      <c r="L24" s="53">
+      <c r="K24" s="66">
+        <v>1</v>
+      </c>
+      <c r="L24" s="69">
         <v>20</v>
       </c>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="48"/>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="71"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
     </row>
     <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="48"/>
-      <c r="C26" s="76" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="76" t="s">
+      <c r="E26" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="76" t="s">
+      <c r="G26" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
     </row>
     <row r="27" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77" t="s">
+      <c r="B27" s="64"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="68" t="s">
+      <c r="C28" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="68" t="s">
+      <c r="D28" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="70" t="s">
+      <c r="F28" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="50">
+      <c r="G28" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="66">
         <v>2</v>
       </c>
-      <c r="K28" s="50">
-        <v>1</v>
-      </c>
-      <c r="L28" s="53">
+      <c r="K28" s="66">
+        <v>1</v>
+      </c>
+      <c r="L28" s="69">
         <v>20</v>
       </c>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="48"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
     </row>
     <row r="30" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="48"/>
-      <c r="C30" s="76" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="76" t="s">
+      <c r="E30" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="76" t="s">
+      <c r="G30" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="51"/>
-      <c r="K30" s="51"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="73"/>
+      <c r="O30" s="73"/>
+      <c r="P30" s="73"/>
     </row>
     <row r="31" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="48"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77" t="s">
+      <c r="B31" s="64"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="79"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="57"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="67"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
     </row>
     <row r="32" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="68" t="s">
+      <c r="D32" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="70" t="s">
+      <c r="F32" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="50">
+      <c r="G32" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="66">
         <v>2</v>
       </c>
-      <c r="K32" s="50">
-        <v>1</v>
-      </c>
-      <c r="L32" s="53">
+      <c r="K32" s="66">
+        <v>1</v>
+      </c>
+      <c r="L32" s="69">
         <v>20</v>
       </c>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
     </row>
     <row r="33" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B33" s="48"/>
-      <c r="C33" s="69"/>
-      <c r="D33" s="69"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="51"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
     </row>
     <row r="34" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="48"/>
-      <c r="C34" s="76" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="76" t="s">
+      <c r="E34" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="78" t="s">
+      <c r="F34" s="85" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="76" t="s">
+      <c r="G34" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="76" t="s">
+      <c r="I34" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="51"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
     </row>
     <row r="35" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="49"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77" t="s">
+      <c r="B35" s="65"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="52"/>
-      <c r="K35" s="52"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
     </row>
     <row r="36" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="61"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="67"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
     </row>
     <row r="38" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
@@ -3328,356 +3937,356 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="68" t="s">
+      <c r="C39" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="70" t="s">
+      <c r="F39" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="50">
+      <c r="G39" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="66">
         <v>2</v>
       </c>
-      <c r="K39" s="50">
-        <v>1</v>
-      </c>
-      <c r="L39" s="53">
+      <c r="K39" s="66">
+        <v>1</v>
+      </c>
+      <c r="L39" s="69">
         <v>20</v>
       </c>
-      <c r="M39" s="56"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="56"/>
-      <c r="P39" s="56"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
     </row>
     <row r="40" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B40" s="48"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="69"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="71"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
     </row>
     <row r="41" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="48"/>
-      <c r="C41" s="76" t="s">
+      <c r="B41" s="64"/>
+      <c r="C41" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="76" t="s">
+      <c r="E41" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="78" t="s">
+      <c r="F41" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="76" t="s">
+      <c r="G41" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="I41" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
     </row>
     <row r="42" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="48"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="79"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
     </row>
     <row r="43" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="68" t="s">
+      <c r="D43" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="50">
+      <c r="G43" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="66">
         <v>2</v>
       </c>
-      <c r="K43" s="50">
-        <v>1</v>
-      </c>
-      <c r="L43" s="53">
+      <c r="K43" s="66">
+        <v>1</v>
+      </c>
+      <c r="L43" s="69">
         <v>20</v>
       </c>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
     </row>
     <row r="44" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B44" s="48"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="71"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="90"/>
+      <c r="H44" s="90"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
     </row>
     <row r="45" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="48"/>
-      <c r="C45" s="76" t="s">
+      <c r="B45" s="64"/>
+      <c r="C45" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="76" t="s">
+      <c r="E45" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="78" t="s">
+      <c r="F45" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="76" t="s">
+      <c r="G45" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="76" t="s">
+      <c r="I45" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
     </row>
     <row r="46" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="48"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77" t="s">
+      <c r="B46" s="64"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="79"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="51"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="67"/>
+      <c r="K46" s="67"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
     </row>
     <row r="47" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="68" t="s">
+      <c r="C47" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="68" t="s">
+      <c r="D47" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="50">
+      <c r="G47" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="66">
         <v>2</v>
       </c>
-      <c r="K47" s="50">
-        <v>1</v>
-      </c>
-      <c r="L47" s="53">
+      <c r="K47" s="66">
+        <v>1</v>
+      </c>
+      <c r="L47" s="69">
         <v>20</v>
       </c>
-      <c r="M47" s="56"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="56"/>
-      <c r="P47" s="56"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
     </row>
     <row r="48" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B48" s="48"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
+      <c r="B48" s="64"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="90"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="90"/>
+      <c r="H48" s="90"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
     </row>
     <row r="49" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="48"/>
-      <c r="C49" s="76" t="s">
+      <c r="B49" s="64"/>
+      <c r="C49" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="76" t="s">
+      <c r="D49" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="76" t="s">
+      <c r="E49" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="78" t="s">
+      <c r="F49" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="76" t="s">
+      <c r="G49" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="76" t="s">
+      <c r="I49" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J49" s="51"/>
-      <c r="K49" s="51"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
     </row>
     <row r="50" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="49"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77" t="s">
+      <c r="B50" s="65"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
+      <c r="E50" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="79"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
     </row>
     <row r="51" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="61"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="53"/>
     </row>
     <row r="52" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="67"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -3727,616 +4336,838 @@
       </c>
     </row>
     <row r="54" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="68" t="s">
+      <c r="C54" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="68" t="s">
+      <c r="D54" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="70" t="s">
+      <c r="F54" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="68"/>
+      <c r="G54" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="89"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="50">
+      <c r="J54" s="66">
         <v>2</v>
       </c>
-      <c r="K54" s="50">
-        <v>1</v>
-      </c>
-      <c r="L54" s="53">
+      <c r="K54" s="66">
+        <v>1</v>
+      </c>
+      <c r="L54" s="69">
         <v>20</v>
       </c>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
     </row>
     <row r="55" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B55" s="48"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="71"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
+      <c r="F55" s="88"/>
+      <c r="G55" s="90"/>
+      <c r="H55" s="90"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="51"/>
-      <c r="K55" s="51"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="57"/>
-      <c r="P55" s="57"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
     </row>
     <row r="56" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B56" s="48"/>
-      <c r="C56" s="72" t="s">
+      <c r="B56" s="64"/>
+      <c r="C56" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="72" t="s">
+      <c r="D56" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="74" t="s">
+      <c r="F56" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="72"/>
+      <c r="G56" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="81"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="51"/>
-      <c r="K56" s="51"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="57"/>
-      <c r="P56" s="57"/>
+      <c r="J56" s="67"/>
+      <c r="K56" s="67"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
     </row>
     <row r="57" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B57" s="48"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="82"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="75"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="82"/>
+      <c r="H57" s="82"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="57"/>
-      <c r="O57" s="57"/>
-      <c r="P57" s="57"/>
+      <c r="J57" s="67"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
     </row>
     <row r="58" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B58" s="48"/>
-      <c r="C58" s="76" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="76" t="s">
+      <c r="D58" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="78" t="s">
+      <c r="F58" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="76" t="s">
+      <c r="G58" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="76" t="s">
+      <c r="I58" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="51"/>
-      <c r="K58" s="51"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="57"/>
-      <c r="N58" s="57"/>
-      <c r="O58" s="57"/>
-      <c r="P58" s="57"/>
+      <c r="J58" s="67"/>
+      <c r="K58" s="67"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
     </row>
     <row r="59" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B59" s="48"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="76"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="79"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="51"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="57"/>
-      <c r="N59" s="57"/>
-      <c r="O59" s="57"/>
-      <c r="P59" s="57"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="67"/>
+      <c r="K59" s="67"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="73"/>
+      <c r="N59" s="73"/>
+      <c r="O59" s="73"/>
+      <c r="P59" s="73"/>
     </row>
     <row r="60" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B60" s="48"/>
-      <c r="C60" s="80" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="80" t="s">
+      <c r="D60" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="82" t="s">
+      <c r="F60" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="51"/>
-      <c r="K60" s="51"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
+      <c r="G60" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="73"/>
+      <c r="N60" s="73"/>
+      <c r="O60" s="73"/>
+      <c r="P60" s="73"/>
     </row>
     <row r="61" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B61" s="48"/>
-      <c r="C61" s="81"/>
-      <c r="D61" s="81"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="78"/>
+      <c r="D61" s="78"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="83"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="52"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="57"/>
-      <c r="O61" s="57"/>
-      <c r="P61" s="57"/>
+      <c r="F61" s="80"/>
+      <c r="G61" s="78"/>
+      <c r="H61" s="78"/>
+      <c r="I61" s="78"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="73"/>
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
     </row>
     <row r="62" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="68" t="s">
+      <c r="D62" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="70" t="s">
+      <c r="F62" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="68"/>
+      <c r="G62" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="89"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="50">
+      <c r="J62" s="66">
         <v>2</v>
       </c>
-      <c r="K62" s="50">
-        <v>1</v>
-      </c>
-      <c r="L62" s="53">
+      <c r="K62" s="66">
+        <v>1</v>
+      </c>
+      <c r="L62" s="69">
         <v>20</v>
       </c>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
+      <c r="M62" s="72"/>
+      <c r="N62" s="72"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
     </row>
     <row r="63" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B63" s="48"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="90"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="71"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
+      <c r="F63" s="88"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="51"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
+      <c r="O63" s="73"/>
+      <c r="P63" s="73"/>
     </row>
     <row r="64" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B64" s="48"/>
-      <c r="C64" s="72" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="72" t="s">
+      <c r="D64" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="74" t="s">
+      <c r="F64" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="72"/>
+      <c r="G64" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="81"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="73"/>
+      <c r="N64" s="73"/>
+      <c r="O64" s="73"/>
+      <c r="P64" s="73"/>
     </row>
     <row r="65" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B65" s="48"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="82"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="75"/>
-      <c r="G65" s="73"/>
-      <c r="H65" s="73"/>
+      <c r="F65" s="84"/>
+      <c r="G65" s="82"/>
+      <c r="H65" s="82"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="51"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
+      <c r="J65" s="67"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="73"/>
+      <c r="N65" s="73"/>
+      <c r="O65" s="73"/>
+      <c r="P65" s="73"/>
     </row>
     <row r="66" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B66" s="48"/>
-      <c r="C66" s="76" t="s">
+      <c r="B66" s="64"/>
+      <c r="C66" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="76" t="s">
+      <c r="D66" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="78" t="s">
+      <c r="F66" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="76" t="s">
+      <c r="G66" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="76" t="s">
+      <c r="I66" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="51"/>
-      <c r="K66" s="51"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
+      <c r="O66" s="73"/>
+      <c r="P66" s="73"/>
     </row>
     <row r="67" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B67" s="48"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="76"/>
+      <c r="D67" s="76"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="79"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="67"/>
+      <c r="K67" s="67"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
+      <c r="O67" s="73"/>
+      <c r="P67" s="73"/>
     </row>
     <row r="68" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B68" s="48"/>
-      <c r="C68" s="80" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="80" t="s">
+      <c r="D68" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="82" t="s">
+      <c r="F68" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="51"/>
-      <c r="K68" s="51"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
+      <c r="G68" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="77"/>
+      <c r="I68" s="77"/>
+      <c r="J68" s="67"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="73"/>
+      <c r="N68" s="73"/>
+      <c r="O68" s="73"/>
+      <c r="P68" s="73"/>
     </row>
     <row r="69" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B69" s="49"/>
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="83"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="81"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="52"/>
-      <c r="K69" s="52"/>
-      <c r="L69" s="55"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
+      <c r="F69" s="80"/>
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="74"/>
+      <c r="P69" s="74"/>
     </row>
     <row r="70" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B70" s="47" t="s">
+      <c r="B70" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="68" t="s">
+      <c r="C70" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="68" t="s">
+      <c r="D70" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="70" t="s">
+      <c r="F70" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="68"/>
+      <c r="G70" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="89"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="50">
+      <c r="J70" s="66">
         <v>2</v>
       </c>
-      <c r="K70" s="50">
-        <v>1</v>
-      </c>
-      <c r="L70" s="53">
+      <c r="K70" s="66">
+        <v>1</v>
+      </c>
+      <c r="L70" s="69">
         <v>20</v>
       </c>
-      <c r="M70" s="56"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="56"/>
-      <c r="P70" s="56"/>
+      <c r="M70" s="72"/>
+      <c r="N70" s="72"/>
+      <c r="O70" s="72"/>
+      <c r="P70" s="72"/>
     </row>
     <row r="71" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B71" s="48"/>
-      <c r="C71" s="69"/>
-      <c r="D71" s="69"/>
+      <c r="B71" s="64"/>
+      <c r="C71" s="90"/>
+      <c r="D71" s="90"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="71"/>
-      <c r="G71" s="69"/>
-      <c r="H71" s="69"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="90"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="57"/>
+      <c r="J71" s="67"/>
+      <c r="K71" s="67"/>
+      <c r="L71" s="70"/>
+      <c r="M71" s="73"/>
+      <c r="N71" s="73"/>
+      <c r="O71" s="73"/>
+      <c r="P71" s="73"/>
     </row>
     <row r="72" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B72" s="48"/>
-      <c r="C72" s="72" t="s">
+      <c r="B72" s="64"/>
+      <c r="C72" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="72" t="s">
+      <c r="D72" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="74" t="s">
+      <c r="F72" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="72"/>
+      <c r="G72" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="81"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="51"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="57"/>
-      <c r="N72" s="57"/>
-      <c r="O72" s="57"/>
-      <c r="P72" s="57"/>
+      <c r="J72" s="67"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="70"/>
+      <c r="M72" s="73"/>
+      <c r="N72" s="73"/>
+      <c r="O72" s="73"/>
+      <c r="P72" s="73"/>
     </row>
     <row r="73" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B73" s="48"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="82"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="75"/>
-      <c r="G73" s="73"/>
-      <c r="H73" s="73"/>
+      <c r="F73" s="84"/>
+      <c r="G73" s="82"/>
+      <c r="H73" s="82"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="51"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="70"/>
+      <c r="M73" s="73"/>
+      <c r="N73" s="73"/>
+      <c r="O73" s="73"/>
+      <c r="P73" s="73"/>
     </row>
     <row r="74" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B74" s="48"/>
-      <c r="C74" s="76" t="s">
+      <c r="B74" s="64"/>
+      <c r="C74" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="76" t="s">
+      <c r="D74" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F74" s="78" t="s">
+      <c r="F74" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="76" t="s">
+      <c r="G74" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="76" t="s">
+      <c r="I74" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J74" s="51"/>
-      <c r="K74" s="51"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="57"/>
-      <c r="N74" s="57"/>
-      <c r="O74" s="57"/>
-      <c r="P74" s="57"/>
+      <c r="J74" s="67"/>
+      <c r="K74" s="67"/>
+      <c r="L74" s="70"/>
+      <c r="M74" s="73"/>
+      <c r="N74" s="73"/>
+      <c r="O74" s="73"/>
+      <c r="P74" s="73"/>
     </row>
     <row r="75" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B75" s="48"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="76"/>
+      <c r="D75" s="76"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F75" s="79"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
+      <c r="F75" s="86"/>
+      <c r="G75" s="76"/>
+      <c r="H75" s="76"/>
+      <c r="I75" s="76"/>
+      <c r="J75" s="67"/>
+      <c r="K75" s="67"/>
+      <c r="L75" s="70"/>
+      <c r="M75" s="73"/>
+      <c r="N75" s="73"/>
+      <c r="O75" s="73"/>
+      <c r="P75" s="73"/>
     </row>
     <row r="76" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B76" s="48"/>
-      <c r="C76" s="80" t="s">
+      <c r="B76" s="64"/>
+      <c r="C76" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="80" t="s">
+      <c r="D76" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="82" t="s">
+      <c r="F76" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="51"/>
-      <c r="K76" s="51"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
+      <c r="G76" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="70"/>
+      <c r="M76" s="73"/>
+      <c r="N76" s="73"/>
+      <c r="O76" s="73"/>
+      <c r="P76" s="73"/>
     </row>
     <row r="77" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B77" s="49"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="81"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="83"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="81"/>
-      <c r="I77" s="81"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="55"/>
-      <c r="M77" s="58"/>
-      <c r="N77" s="58"/>
-      <c r="O77" s="58"/>
-      <c r="P77" s="58"/>
+      <c r="F77" s="80"/>
+      <c r="G77" s="78"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="71"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="P62:P69"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -4361,256 +5192,34 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="M62:M69"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P22"/>
   <sheetViews>
@@ -4634,44 +5243,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="67"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -4721,439 +5330,504 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="81" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="83" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="72" t="s">
+      <c r="G5" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="72" t="s">
+      <c r="I5" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="48"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="76" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="76" t="s">
+      <c r="D7" s="75" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="78" t="s">
+      <c r="F7" s="85" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="G7" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="79"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="48"/>
-      <c r="C9" s="84" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="91" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
+      <c r="G9" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="48"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="83"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="81" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="74" t="s">
+      <c r="F11" s="83" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="72" t="s">
+      <c r="G11" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="72" t="s">
+      <c r="I11" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="48"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="48"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="64"/>
+      <c r="C13" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="F13" s="85" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
+      <c r="G13" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="48"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="79"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="48"/>
-      <c r="C15" s="84" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="91" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="92" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
+      <c r="G15" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="49"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="81"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="81" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="83" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="72" t="s">
+      <c r="G17" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="48"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="75"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="48"/>
-      <c r="C19" s="76" t="s">
+      <c r="B19" s="64"/>
+      <c r="C19" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="76" t="s">
+      <c r="D19" s="75" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="78" t="s">
+      <c r="F19" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
+      <c r="G19" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="48"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="48"/>
-      <c r="C21" s="84" t="s">
+      <c r="B21" s="64"/>
+      <c r="C21" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="91" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="85" t="s">
+      <c r="F21" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
+      <c r="G21" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="49"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="83"/>
-      <c r="G22" s="81"/>
-      <c r="H22" s="81"/>
-      <c r="I22" s="81"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="P5:P10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -5170,83 +5844,18 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5265,42 +5874,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="61"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="67"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" spans="2:15" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -5347,23 +5956,23 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="46"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="62"/>
     </row>
     <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -5380,24 +5989,24 @@
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
-      <c r="I6" s="50">
+      <c r="I6" s="66">
         <v>6</v>
       </c>
-      <c r="J6" s="50">
+      <c r="J6" s="66">
         <v>2</v>
       </c>
-      <c r="K6" s="53">
+      <c r="K6" s="69">
         <v>40</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="72">
         <v>50</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
     </row>
     <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
@@ -5416,16 +6025,16 @@
       <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
     </row>
     <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="49"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="34" t="s">
         <v>151</v>
       </c>
@@ -5440,32 +6049,32 @@
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
     </row>
     <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="46"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="62"/>
     </row>
     <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="63" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -5482,22 +6091,22 @@
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="50">
+      <c r="I10" s="66">
         <v>4</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="66">
         <v>4</v>
       </c>
-      <c r="K10" s="53">
+      <c r="K10" s="69">
         <v>50</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
     </row>
     <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="48"/>
+      <c r="B11" s="64"/>
       <c r="C11" s="30" t="s">
         <v>139</v>
       </c>
@@ -5516,16 +6125,16 @@
       <c r="H11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
     </row>
     <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="49"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="34" t="s">
         <v>151</v>
       </c>
@@ -5540,32 +6149,32 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
     </row>
     <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="46"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
     </row>
     <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="63" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -5582,22 +6191,22 @@
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="50">
+      <c r="I14" s="66">
         <v>4</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="66">
         <v>4</v>
       </c>
-      <c r="K14" s="53">
+      <c r="K14" s="69">
         <v>50</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="48"/>
+      <c r="B15" s="64"/>
       <c r="C15" s="30" t="s">
         <v>139</v>
       </c>
@@ -5616,16 +6225,16 @@
       <c r="H15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
     </row>
     <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="49"/>
+      <c r="B16" s="65"/>
       <c r="C16" s="34" t="s">
         <v>151</v>
       </c>
@@ -5640,164 +6249,96 @@
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
     </row>
     <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="46"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
     </row>
     <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>1</v>
-      </c>
+      <c r="B18" s="63"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="50">
-        <v>2</v>
-      </c>
-      <c r="J18" s="50">
-        <v>2</v>
-      </c>
-      <c r="K18" s="53">
-        <v>50</v>
-      </c>
-      <c r="L18" s="56">
-        <v>80</v>
-      </c>
-      <c r="M18" s="56">
-        <v>80</v>
-      </c>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
     </row>
     <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="48"/>
-      <c r="C19" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
     </row>
     <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="48"/>
-      <c r="C20" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>1</v>
-      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
     </row>
     <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="46"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="O10:O12"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:O3"/>
@@ -5810,21 +6351,49 @@
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="O6:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5843,61 +6412,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -5907,7 +6476,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>28</v>
@@ -5947,364 +6516,354 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="F6" s="88" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="91"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
+      <c r="G6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="86"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F7" s="46" t="s">
         <v>159</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>162</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="86"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>160</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>163</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
-      <c r="L8" s="90"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="95"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
     </row>
     <row r="9" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="86"/>
-      <c r="C9" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="95" t="s">
+      <c r="B9" s="96"/>
+      <c r="C9" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="94" t="s">
+      <c r="G9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
     </row>
     <row r="10" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="88" t="s">
+      <c r="B10" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="G10" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
+      <c r="C10" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="93"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="86"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="F11" s="46" t="s">
         <v>167</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>170</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="86"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="93" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>169</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
-      <c r="O12" s="91"/>
-      <c r="P12" s="91"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="86"/>
-      <c r="C13" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="95" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="I13" s="94" t="s">
+      <c r="G13" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="I13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="91"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="91"/>
-      <c r="P13" s="91"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="87" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
+      <c r="B14" s="96" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="86"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>171</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="86"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E16" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="47" t="s">
         <v>168</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>171</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="86"/>
-      <c r="C17" s="96" t="s">
-        <v>157</v>
-      </c>
-      <c r="D17" s="94" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="94" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="95" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="I17" s="94" t="s">
+      <c r="G17" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="B2:P2"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
     <mergeCell ref="B3:P3"/>
@@ -6312,19 +6871,29 @@
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="J6:J9"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
     <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6351,63 +6920,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -6457,602 +7026,666 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="70" t="s">
+      <c r="F6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="68"/>
+      <c r="G6" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="89"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="50">
+      <c r="J6" s="66">
         <v>2</v>
       </c>
-      <c r="K6" s="50">
-        <v>1</v>
-      </c>
-      <c r="L6" s="53">
+      <c r="K6" s="66">
+        <v>1</v>
+      </c>
+      <c r="L6" s="69">
         <v>20</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="48"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
       <c r="E7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="F7" s="88"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="48"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="83" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="72"/>
+      <c r="G8" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="81"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="48"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="48"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="76" t="s">
+      <c r="G10" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="76" t="s">
+      <c r="I10" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="48"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
       <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="57"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="48"/>
-      <c r="C12" s="80" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
+      <c r="G12" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="48"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
       <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="83"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="68"/>
+      <c r="G14" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="89"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="50">
+      <c r="J14" s="66">
         <v>2</v>
       </c>
-      <c r="K14" s="50">
-        <v>1</v>
-      </c>
-      <c r="L14" s="53">
+      <c r="K14" s="66">
+        <v>1</v>
+      </c>
+      <c r="L14" s="69">
         <v>20</v>
       </c>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="48"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
+      <c r="F15" s="88"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="48"/>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="72"/>
+      <c r="G16" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="81"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="48"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="75"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="57"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="48"/>
-      <c r="C18" s="76" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="78" t="s">
+      <c r="F18" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="76" t="s">
+      <c r="G18" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="76" t="s">
+      <c r="I18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="48"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="79"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="57"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="48"/>
-      <c r="C20" s="80" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
+      <c r="G20" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="49"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="81"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="68" t="s">
+      <c r="D22" s="89" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="70" t="s">
+      <c r="F22" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="68"/>
+      <c r="G22" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="89"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="50">
+      <c r="J22" s="66">
         <v>2</v>
       </c>
-      <c r="K22" s="50">
-        <v>1</v>
-      </c>
-      <c r="L22" s="53">
+      <c r="K22" s="66">
+        <v>1</v>
+      </c>
+      <c r="L22" s="69">
         <v>20</v>
       </c>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
     </row>
     <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B23" s="48"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="71"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="48"/>
-      <c r="C24" s="72" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="81" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="74" t="s">
+      <c r="F24" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="72"/>
+      <c r="G24" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="81"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="48"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
       <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
     </row>
     <row r="26" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B26" s="48"/>
-      <c r="C26" s="76" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="75" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="78" t="s">
+      <c r="F26" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="76" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="76" t="s">
+      <c r="G26" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="73"/>
     </row>
     <row r="27" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B27" s="48"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="79"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="51"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="67"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="73"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="48"/>
-      <c r="C28" s="80" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="77" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
+      <c r="G28" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="73"/>
+      <c r="O28" s="73"/>
+      <c r="P28" s="73"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="49"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="83"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="N6:N13"/>
+    <mergeCell ref="O6:O13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="P14:P21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="O14:O21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
     <mergeCell ref="P22:P29"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
@@ -7069,77 +7702,13 @@
     <mergeCell ref="M22:M29"/>
     <mergeCell ref="N22:N29"/>
     <mergeCell ref="O22:O29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="P14:P21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="O14:O21"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="O6:O13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="203">
   <si>
     <t>IP Address</t>
   </si>
@@ -639,6 +639,12 @@
   </si>
   <si>
     <t>+6GB</t>
+  </si>
+  <si>
+    <t>+100GB</t>
+  </si>
+  <si>
+    <t>VLAN NAME</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1034,27 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1055,6 +1082,15 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1064,15 +1100,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,12 +1127,42 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,62 +1175,11 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1461,14 +1467,14 @@
   <dimension ref="B2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.54296875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
@@ -1480,68 +1486,68 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>175</v>
@@ -1584,7 +1590,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="67" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -1608,24 +1614,24 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="95">
+      <c r="K6" s="56">
         <v>2</v>
       </c>
-      <c r="L6" s="98" t="s">
+      <c r="L6" s="68" t="s">
         <v>188</v>
       </c>
-      <c r="M6" s="99" t="s">
-        <v>189</v>
-      </c>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
+      <c r="M6" s="69" t="s">
+        <v>201</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="96"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="29" t="s">
         <v>177</v>
       </c>
@@ -1643,16 +1649,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="96"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="35" t="s">
         <v>178</v>
       </c>
@@ -1670,16 +1676,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="96"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="50" t="s">
         <v>179</v>
       </c>
@@ -1697,16 +1703,16 @@
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="52" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -1730,20 +1736,22 @@
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="95">
+      <c r="K10" s="56">
         <v>4</v>
       </c>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
+      <c r="L10" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="64"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="29" t="s">
         <v>177</v>
       </c>
@@ -1761,16 +1769,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="64"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="35" t="s">
         <v>178</v>
       </c>
@@ -1788,16 +1796,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="50" t="s">
         <v>179</v>
       </c>
@@ -1815,16 +1823,16 @@
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="52" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -1848,20 +1856,22 @@
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="97" t="s">
+      <c r="J14" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="95">
+      <c r="K14" s="56">
         <v>4</v>
       </c>
-      <c r="L14" s="93"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
+      <c r="L14" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="64"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="29" t="s">
         <v>177</v>
       </c>
@@ -1879,16 +1889,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="64"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="35" t="s">
         <v>178</v>
       </c>
@@ -1906,16 +1916,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="65"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="50" t="s">
         <v>179</v>
       </c>
@@ -1933,34 +1943,16 @@
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="P10:P13"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:I4"/>
@@ -1971,6 +1963,24 @@
     <mergeCell ref="L6:L9"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2002,44 +2012,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -2089,24 +2099,24 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="62"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="72"/>
     </row>
     <row r="6" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -2128,28 +2138,28 @@
       <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="73">
         <v>6</v>
       </c>
-      <c r="K6" s="66">
+      <c r="K6" s="73">
         <v>2</v>
       </c>
-      <c r="L6" s="69">
+      <c r="L6" s="76">
         <v>40</v>
       </c>
-      <c r="M6" s="72">
+      <c r="M6" s="79">
         <v>50</v>
       </c>
-      <c r="N6" s="72">
+      <c r="N6" s="79">
         <v>60</v>
       </c>
-      <c r="O6" s="72">
+      <c r="O6" s="79">
         <v>60</v>
       </c>
-      <c r="P6" s="72"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -2165,16 +2175,16 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="64"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -2190,16 +2200,16 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="65"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -2215,33 +2225,33 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
+      <c r="O9" s="81"/>
+      <c r="P9" s="81"/>
     </row>
     <row r="10" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="62"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="72"/>
     </row>
     <row r="11" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="52" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2263,22 +2273,22 @@
       <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="66">
+      <c r="J11" s="73">
         <v>4</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="73">
         <v>4</v>
       </c>
-      <c r="L11" s="69">
+      <c r="L11" s="76">
         <v>50</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
     </row>
     <row r="12" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="64"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -2294,16 +2304,16 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="64"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -2319,16 +2329,16 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -2344,33 +2354,33 @@
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="78"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="81"/>
     </row>
     <row r="15" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="62"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
     </row>
     <row r="16" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="52" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -2392,22 +2402,22 @@
       <c r="I16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="66">
+      <c r="J16" s="73">
         <v>4</v>
       </c>
-      <c r="K16" s="66">
+      <c r="K16" s="73">
         <v>4</v>
       </c>
-      <c r="L16" s="69">
+      <c r="L16" s="76">
         <v>50</v>
       </c>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
     </row>
     <row r="17" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="64"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -2423,16 +2433,16 @@
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="64"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -2448,16 +2458,16 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="65"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -2473,33 +2483,33 @@
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="78"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="81"/>
     </row>
     <row r="20" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="62"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="72"/>
     </row>
     <row r="21" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -2521,26 +2531,26 @@
       <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="66">
+      <c r="J21" s="73">
         <v>4</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="73">
         <v>4</v>
       </c>
-      <c r="L21" s="69">
+      <c r="L21" s="76">
         <v>40</v>
       </c>
-      <c r="M21" s="72">
+      <c r="M21" s="79">
         <v>50</v>
       </c>
-      <c r="N21" s="72">
+      <c r="N21" s="79">
         <v>60</v>
       </c>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
     </row>
     <row r="22" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="64"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -2556,16 +2566,16 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
     </row>
     <row r="23" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="64"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -2581,16 +2591,16 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
     </row>
     <row r="24" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="65"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -2606,33 +2616,33 @@
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
+      <c r="J24" s="75"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
     </row>
     <row r="25" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="62"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="72"/>
     </row>
     <row r="26" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="52" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2654,26 +2664,26 @@
       <c r="I26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="66">
+      <c r="J26" s="73">
         <v>4</v>
       </c>
-      <c r="K26" s="66">
+      <c r="K26" s="73">
         <v>4</v>
       </c>
-      <c r="L26" s="69">
+      <c r="L26" s="76">
         <v>40</v>
       </c>
-      <c r="M26" s="72">
+      <c r="M26" s="79">
         <v>50</v>
       </c>
-      <c r="N26" s="72">
+      <c r="N26" s="79">
         <v>50</v>
       </c>
-      <c r="O26" s="72"/>
-      <c r="P26" s="72"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
     </row>
     <row r="27" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="64"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -2689,16 +2699,16 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="64"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -2714,16 +2724,16 @@
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
     </row>
     <row r="29" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="65"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -2739,33 +2749,33 @@
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
     </row>
     <row r="30" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="62"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="72"/>
     </row>
     <row r="31" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="52" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -2787,26 +2797,26 @@
       <c r="I31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="66">
+      <c r="J31" s="73">
         <v>4</v>
       </c>
-      <c r="K31" s="66">
+      <c r="K31" s="73">
         <v>4</v>
       </c>
-      <c r="L31" s="69">
+      <c r="L31" s="76">
         <v>40</v>
       </c>
-      <c r="M31" s="72">
+      <c r="M31" s="79">
         <v>50</v>
       </c>
-      <c r="N31" s="72">
+      <c r="N31" s="79">
         <v>50</v>
       </c>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
     </row>
     <row r="32" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="64"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -2822,16 +2832,16 @@
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="67"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
     </row>
     <row r="33" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="64"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -2847,16 +2857,16 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
     </row>
     <row r="34" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="65"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -2872,61 +2882,16 @@
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -2939,6 +2904,51 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2972,44 +2982,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -3059,436 +3069,436 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="89"/>
+      <c r="G5" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="82"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="66">
+      <c r="J5" s="73">
         <v>2</v>
       </c>
-      <c r="K5" s="66">
-        <v>1</v>
-      </c>
-      <c r="L5" s="69">
+      <c r="K5" s="73">
+        <v>1</v>
+      </c>
+      <c r="L5" s="76">
         <v>20</v>
       </c>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
-      <c r="C7" s="81" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="81"/>
+      <c r="G7" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="86"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="64"/>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="84"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="64"/>
-      <c r="C9" s="75" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="85" t="s">
+      <c r="F9" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="75" t="s">
+      <c r="G9" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="75" t="s">
+      <c r="I9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="64"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="64"/>
-      <c r="C11" s="77" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
+      <c r="G11" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="64"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="80"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="89"/>
+      <c r="G13" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="82"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="66">
+      <c r="J13" s="73">
         <v>2</v>
       </c>
-      <c r="K13" s="66">
-        <v>1</v>
-      </c>
-      <c r="L13" s="69">
+      <c r="K13" s="73">
+        <v>1</v>
+      </c>
+      <c r="L13" s="76">
         <v>20</v>
       </c>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="64"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="88"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="64"/>
-      <c r="C15" s="81" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="81"/>
+      <c r="G15" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="86"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="64"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="84"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="64"/>
-      <c r="C17" s="75" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="75" t="s">
+      <c r="D17" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="85" t="s">
+      <c r="F17" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="75" t="s">
+      <c r="G17" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="75" t="s">
+      <c r="I17" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="64"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="64"/>
-      <c r="C19" s="77" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="G19" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="65"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="81"/>
     </row>
     <row r="21" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="60"/>
     </row>
     <row r="22" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="66"/>
     </row>
     <row r="23" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
@@ -3538,356 +3548,356 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="89" t="s">
+      <c r="D24" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="87" t="s">
+      <c r="F24" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="66">
+      <c r="G24" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="73">
         <v>2</v>
       </c>
-      <c r="K24" s="66">
-        <v>1</v>
-      </c>
-      <c r="L24" s="69">
+      <c r="K24" s="73">
+        <v>1</v>
+      </c>
+      <c r="L24" s="76">
         <v>20</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="64"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="88"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
     </row>
     <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="64"/>
-      <c r="C26" s="75" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="75" t="s">
+      <c r="G26" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
     </row>
     <row r="27" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="64"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="89" t="s">
+      <c r="D28" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="87" t="s">
+      <c r="F28" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="66">
+      <c r="G28" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
+      <c r="J28" s="73">
         <v>2</v>
       </c>
-      <c r="K28" s="66">
-        <v>1</v>
-      </c>
-      <c r="L28" s="69">
+      <c r="K28" s="73">
+        <v>1</v>
+      </c>
+      <c r="L28" s="76">
         <v>20</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="64"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="88"/>
-      <c r="G29" s="90"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="90"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="73"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="77"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
     </row>
     <row r="30" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="64"/>
-      <c r="C30" s="75" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="75" t="s">
+      <c r="E30" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="85" t="s">
+      <c r="F30" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="75" t="s">
+      <c r="G30" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="75" t="s">
+      <c r="I30" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="73"/>
-      <c r="N30" s="73"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="80"/>
     </row>
     <row r="31" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="64"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="73"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
     </row>
     <row r="32" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="89" t="s">
+      <c r="C32" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="89" t="s">
+      <c r="D32" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="87" t="s">
+      <c r="F32" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="66">
+      <c r="G32" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="73">
         <v>2</v>
       </c>
-      <c r="K32" s="66">
-        <v>1</v>
-      </c>
-      <c r="L32" s="69">
+      <c r="K32" s="73">
+        <v>1</v>
+      </c>
+      <c r="L32" s="76">
         <v>20</v>
       </c>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="79"/>
     </row>
     <row r="33" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B33" s="64"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="88"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="77"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="80"/>
     </row>
     <row r="34" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="64"/>
-      <c r="C34" s="75" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="75" t="s">
+      <c r="E34" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="85" t="s">
+      <c r="F34" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="75" t="s">
+      <c r="G34" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="75" t="s">
+      <c r="I34" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="80"/>
     </row>
     <row r="35" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="65"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="86"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
     </row>
     <row r="36" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="60"/>
     </row>
     <row r="37" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="65"/>
+      <c r="P37" s="66"/>
     </row>
     <row r="38" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
@@ -3937,356 +3947,356 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="89" t="s">
+      <c r="D39" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="87" t="s">
+      <c r="F39" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="66">
+      <c r="G39" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
+      <c r="J39" s="73">
         <v>2</v>
       </c>
-      <c r="K39" s="66">
-        <v>1</v>
-      </c>
-      <c r="L39" s="69">
+      <c r="K39" s="73">
+        <v>1</v>
+      </c>
+      <c r="L39" s="76">
         <v>20</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
+      <c r="P39" s="79"/>
     </row>
     <row r="40" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B40" s="64"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="88"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="73"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
     </row>
     <row r="41" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="64"/>
-      <c r="C41" s="75" t="s">
+      <c r="B41" s="53"/>
+      <c r="C41" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="85" t="s">
+      <c r="F41" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="75" t="s">
+      <c r="G41" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="75" t="s">
+      <c r="I41" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="73"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="77"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
     </row>
     <row r="42" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="64"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="86"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="67"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="73"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="80"/>
     </row>
     <row r="43" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="89" t="s">
+      <c r="D43" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="87" t="s">
+      <c r="F43" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="66">
+      <c r="G43" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="73">
         <v>2</v>
       </c>
-      <c r="K43" s="66">
-        <v>1</v>
-      </c>
-      <c r="L43" s="69">
+      <c r="K43" s="73">
+        <v>1</v>
+      </c>
+      <c r="L43" s="76">
         <v>20</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
+      <c r="P43" s="79"/>
     </row>
     <row r="44" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B44" s="64"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="88"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="67"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="73"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="73"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="80"/>
     </row>
     <row r="45" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="64"/>
-      <c r="C45" s="75" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="75" t="s">
+      <c r="D45" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="75" t="s">
+      <c r="E45" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="85" t="s">
+      <c r="F45" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="75" t="s">
+      <c r="G45" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="75" t="s">
+      <c r="I45" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="80"/>
     </row>
     <row r="46" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="64"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="86"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="76"/>
-      <c r="J46" s="67"/>
-      <c r="K46" s="67"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="73"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="73"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
     </row>
     <row r="47" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="C47" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="89" t="s">
+      <c r="D47" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="87" t="s">
+      <c r="F47" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="66">
+      <c r="G47" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="73">
         <v>2</v>
       </c>
-      <c r="K47" s="66">
-        <v>1</v>
-      </c>
-      <c r="L47" s="69">
+      <c r="K47" s="73">
+        <v>1</v>
+      </c>
+      <c r="L47" s="76">
         <v>20</v>
       </c>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
     </row>
     <row r="48" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B48" s="64"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="88"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="73"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="73"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
+      <c r="J48" s="74"/>
+      <c r="K48" s="74"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
     </row>
     <row r="49" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="64"/>
-      <c r="C49" s="75" t="s">
+      <c r="B49" s="53"/>
+      <c r="C49" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="75" t="s">
+      <c r="E49" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="85" t="s">
+      <c r="F49" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="75" t="s">
+      <c r="G49" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="75" t="s">
+      <c r="I49" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="73"/>
-      <c r="N49" s="73"/>
-      <c r="O49" s="73"/>
-      <c r="P49" s="73"/>
+      <c r="J49" s="74"/>
+      <c r="K49" s="74"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
     </row>
     <row r="50" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="65"/>
-      <c r="C50" s="76"/>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="86"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="76"/>
-      <c r="I50" s="76"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="75"/>
+      <c r="K50" s="75"/>
+      <c r="L50" s="78"/>
+      <c r="M50" s="81"/>
+      <c r="N50" s="81"/>
+      <c r="O50" s="81"/>
+      <c r="P50" s="81"/>
     </row>
     <row r="51" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="59"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="60"/>
     </row>
     <row r="52" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57" t="s">
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="62"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="59"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="65"/>
+      <c r="N52" s="65"/>
+      <c r="O52" s="65"/>
+      <c r="P52" s="66"/>
     </row>
     <row r="53" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -4336,618 +4346,836 @@
       </c>
     </row>
     <row r="54" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="89" t="s">
+      <c r="D54" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="87" t="s">
+      <c r="F54" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="89"/>
+      <c r="G54" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="82"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="66">
+      <c r="J54" s="73">
         <v>2</v>
       </c>
-      <c r="K54" s="66">
-        <v>1</v>
-      </c>
-      <c r="L54" s="69">
+      <c r="K54" s="73">
+        <v>1</v>
+      </c>
+      <c r="L54" s="76">
         <v>20</v>
       </c>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
+      <c r="M54" s="79"/>
+      <c r="N54" s="79"/>
+      <c r="O54" s="79"/>
+      <c r="P54" s="79"/>
     </row>
     <row r="55" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B55" s="64"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="88"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="70"/>
-      <c r="M55" s="73"/>
-      <c r="N55" s="73"/>
-      <c r="O55" s="73"/>
-      <c r="P55" s="73"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="77"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
     </row>
     <row r="56" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B56" s="64"/>
-      <c r="C56" s="81" t="s">
+      <c r="B56" s="53"/>
+      <c r="C56" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="81" t="s">
+      <c r="D56" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="83" t="s">
+      <c r="F56" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="81"/>
+      <c r="G56" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="86"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="70"/>
-      <c r="M56" s="73"/>
-      <c r="N56" s="73"/>
-      <c r="O56" s="73"/>
-      <c r="P56" s="73"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="77"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
     </row>
     <row r="57" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B57" s="64"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="82"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="84"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="70"/>
-      <c r="M57" s="73"/>
-      <c r="N57" s="73"/>
-      <c r="O57" s="73"/>
-      <c r="P57" s="73"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
     </row>
     <row r="58" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B58" s="64"/>
-      <c r="C58" s="75" t="s">
+      <c r="B58" s="53"/>
+      <c r="C58" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="85" t="s">
+      <c r="F58" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="75" t="s">
+      <c r="G58" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="75" t="s">
+      <c r="I58" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="67"/>
-      <c r="K58" s="67"/>
-      <c r="L58" s="70"/>
-      <c r="M58" s="73"/>
-      <c r="N58" s="73"/>
-      <c r="O58" s="73"/>
-      <c r="P58" s="73"/>
+      <c r="J58" s="74"/>
+      <c r="K58" s="74"/>
+      <c r="L58" s="77"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
     </row>
     <row r="59" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B59" s="64"/>
-      <c r="C59" s="76"/>
-      <c r="D59" s="76"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="86"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="76"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="70"/>
-      <c r="M59" s="73"/>
-      <c r="N59" s="73"/>
-      <c r="O59" s="73"/>
-      <c r="P59" s="73"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
+      <c r="J59" s="74"/>
+      <c r="K59" s="74"/>
+      <c r="L59" s="77"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
     </row>
     <row r="60" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B60" s="64"/>
-      <c r="C60" s="77" t="s">
+      <c r="B60" s="53"/>
+      <c r="C60" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="79" t="s">
+      <c r="F60" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="70"/>
-      <c r="M60" s="73"/>
-      <c r="N60" s="73"/>
-      <c r="O60" s="73"/>
-      <c r="P60" s="73"/>
+      <c r="G60" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="77"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
     </row>
     <row r="61" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B61" s="64"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="80"/>
-      <c r="G61" s="78"/>
-      <c r="H61" s="78"/>
-      <c r="I61" s="78"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="70"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="73"/>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="75"/>
+      <c r="K61" s="75"/>
+      <c r="L61" s="77"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
     </row>
     <row r="62" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="89" t="s">
+      <c r="C62" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="89" t="s">
+      <c r="D62" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="87" t="s">
+      <c r="F62" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="89"/>
+      <c r="G62" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="82"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="66">
+      <c r="J62" s="73">
         <v>2</v>
       </c>
-      <c r="K62" s="66">
-        <v>1</v>
-      </c>
-      <c r="L62" s="69">
+      <c r="K62" s="73">
+        <v>1</v>
+      </c>
+      <c r="L62" s="76">
         <v>20</v>
       </c>
-      <c r="M62" s="72"/>
-      <c r="N62" s="72"/>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="79"/>
     </row>
     <row r="63" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B63" s="64"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="88"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="70"/>
-      <c r="M63" s="73"/>
-      <c r="N63" s="73"/>
-      <c r="O63" s="73"/>
-      <c r="P63" s="73"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
     </row>
     <row r="64" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B64" s="64"/>
-      <c r="C64" s="81" t="s">
+      <c r="B64" s="53"/>
+      <c r="C64" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="81" t="s">
+      <c r="D64" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="83" t="s">
+      <c r="F64" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="81"/>
+      <c r="G64" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="86"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="67"/>
-      <c r="K64" s="67"/>
-      <c r="L64" s="70"/>
-      <c r="M64" s="73"/>
-      <c r="N64" s="73"/>
-      <c r="O64" s="73"/>
-      <c r="P64" s="73"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="77"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="80"/>
     </row>
     <row r="65" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B65" s="64"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="82"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="84"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="70"/>
-      <c r="M65" s="73"/>
-      <c r="N65" s="73"/>
-      <c r="O65" s="73"/>
-      <c r="P65" s="73"/>
+      <c r="J65" s="74"/>
+      <c r="K65" s="74"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
     </row>
     <row r="66" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B66" s="64"/>
-      <c r="C66" s="75" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="85" t="s">
+      <c r="F66" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="75" t="s">
+      <c r="G66" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="75" t="s">
+      <c r="I66" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="70"/>
-      <c r="M66" s="73"/>
-      <c r="N66" s="73"/>
-      <c r="O66" s="73"/>
-      <c r="P66" s="73"/>
+      <c r="J66" s="74"/>
+      <c r="K66" s="74"/>
+      <c r="L66" s="77"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
     </row>
     <row r="67" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B67" s="64"/>
-      <c r="C67" s="76"/>
-      <c r="D67" s="76"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="86"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="70"/>
-      <c r="M67" s="73"/>
-      <c r="N67" s="73"/>
-      <c r="O67" s="73"/>
-      <c r="P67" s="73"/>
+      <c r="F67" s="93"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="77"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
     </row>
     <row r="68" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B68" s="64"/>
-      <c r="C68" s="77" t="s">
+      <c r="B68" s="53"/>
+      <c r="C68" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="77" t="s">
+      <c r="D68" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="79" t="s">
+      <c r="F68" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="77"/>
-      <c r="I68" s="77"/>
-      <c r="J68" s="67"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="70"/>
-      <c r="M68" s="73"/>
-      <c r="N68" s="73"/>
-      <c r="O68" s="73"/>
-      <c r="P68" s="73"/>
+      <c r="G68" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="94"/>
+      <c r="I68" s="94"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="77"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
     </row>
     <row r="69" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B69" s="65"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="80"/>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="71"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="74"/>
-      <c r="O69" s="74"/>
-      <c r="P69" s="74"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
+      <c r="J69" s="75"/>
+      <c r="K69" s="75"/>
+      <c r="L69" s="78"/>
+      <c r="M69" s="81"/>
+      <c r="N69" s="81"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="81"/>
     </row>
     <row r="70" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="89" t="s">
+      <c r="C70" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="89" t="s">
+      <c r="D70" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="87" t="s">
+      <c r="F70" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="89"/>
+      <c r="G70" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="82"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="66">
+      <c r="J70" s="73">
         <v>2</v>
       </c>
-      <c r="K70" s="66">
-        <v>1</v>
-      </c>
-      <c r="L70" s="69">
+      <c r="K70" s="73">
+        <v>1</v>
+      </c>
+      <c r="L70" s="76">
         <v>20</v>
       </c>
-      <c r="M70" s="72"/>
-      <c r="N70" s="72"/>
-      <c r="O70" s="72"/>
-      <c r="P70" s="72"/>
+      <c r="M70" s="79"/>
+      <c r="N70" s="79"/>
+      <c r="O70" s="79"/>
+      <c r="P70" s="79"/>
     </row>
     <row r="71" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B71" s="64"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="90"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="88"/>
-      <c r="G71" s="90"/>
-      <c r="H71" s="90"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="67"/>
-      <c r="L71" s="70"/>
-      <c r="M71" s="73"/>
-      <c r="N71" s="73"/>
-      <c r="O71" s="73"/>
-      <c r="P71" s="73"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="77"/>
+      <c r="M71" s="80"/>
+      <c r="N71" s="80"/>
+      <c r="O71" s="80"/>
+      <c r="P71" s="80"/>
     </row>
     <row r="72" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B72" s="64"/>
-      <c r="C72" s="81" t="s">
+      <c r="B72" s="53"/>
+      <c r="C72" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="81" t="s">
+      <c r="D72" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="83" t="s">
+      <c r="F72" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="81"/>
+      <c r="G72" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="86"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="67"/>
-      <c r="K72" s="67"/>
-      <c r="L72" s="70"/>
-      <c r="M72" s="73"/>
-      <c r="N72" s="73"/>
-      <c r="O72" s="73"/>
-      <c r="P72" s="73"/>
+      <c r="J72" s="74"/>
+      <c r="K72" s="74"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="80"/>
+      <c r="N72" s="80"/>
+      <c r="O72" s="80"/>
+      <c r="P72" s="80"/>
     </row>
     <row r="73" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B73" s="64"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="84"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="70"/>
-      <c r="M73" s="73"/>
-      <c r="N73" s="73"/>
-      <c r="O73" s="73"/>
-      <c r="P73" s="73"/>
+      <c r="J73" s="74"/>
+      <c r="K73" s="74"/>
+      <c r="L73" s="77"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="80"/>
     </row>
     <row r="74" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B74" s="64"/>
-      <c r="C74" s="75" t="s">
+      <c r="B74" s="53"/>
+      <c r="C74" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="75" t="s">
+      <c r="D74" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F74" s="85" t="s">
+      <c r="F74" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="75" t="s">
+      <c r="G74" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="75" t="s">
+      <c r="I74" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J74" s="67"/>
-      <c r="K74" s="67"/>
-      <c r="L74" s="70"/>
-      <c r="M74" s="73"/>
-      <c r="N74" s="73"/>
-      <c r="O74" s="73"/>
-      <c r="P74" s="73"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="77"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="80"/>
     </row>
     <row r="75" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B75" s="64"/>
-      <c r="C75" s="76"/>
-      <c r="D75" s="76"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F75" s="86"/>
-      <c r="G75" s="76"/>
-      <c r="H75" s="76"/>
-      <c r="I75" s="76"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="70"/>
-      <c r="M75" s="73"/>
-      <c r="N75" s="73"/>
-      <c r="O75" s="73"/>
-      <c r="P75" s="73"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="77"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="80"/>
     </row>
     <row r="76" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B76" s="64"/>
-      <c r="C76" s="77" t="s">
+      <c r="B76" s="53"/>
+      <c r="C76" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="77" t="s">
+      <c r="D76" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="79" t="s">
+      <c r="F76" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="70"/>
-      <c r="M76" s="73"/>
-      <c r="N76" s="73"/>
-      <c r="O76" s="73"/>
-      <c r="P76" s="73"/>
+      <c r="G76" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="77"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="80"/>
     </row>
     <row r="77" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B77" s="65"/>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="80"/>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="68"/>
-      <c r="L77" s="71"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="74"/>
-      <c r="P77" s="74"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="95"/>
+      <c r="I77" s="95"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="81"/>
+      <c r="N77" s="81"/>
+      <c r="O77" s="81"/>
+      <c r="P77" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="P62:P69"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="J62:J69"/>
+    <mergeCell ref="K62:K69"/>
+    <mergeCell ref="L62:L69"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="M62:M69"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -4972,247 +5200,29 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="P62:P69"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="J62:J69"/>
-    <mergeCell ref="K62:K69"/>
-    <mergeCell ref="L62:L69"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="M62:M69"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5243,44 +5253,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -5330,451 +5340,492 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="83" t="s">
+      <c r="F5" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="81" t="s">
+      <c r="G5" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="64"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
-      <c r="C7" s="75" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="G7" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="64"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="64"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="98" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
+      <c r="G9" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="64"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="F11" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="81" t="s">
+      <c r="G11" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="64"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="84"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="64"/>
-      <c r="C13" s="75" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="75" t="s">
+      <c r="D13" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="G13" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="64"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="86"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="80"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="80"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="64"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="98" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="G15" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="65"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="81"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="81" t="s">
+      <c r="C17" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D17" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="83" t="s">
+      <c r="F17" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="81" t="s">
+      <c r="G17" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="81" t="s">
+      <c r="I17" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="64"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="64"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="75" t="s">
+      <c r="D19" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="G19" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="64"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="86"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="64"/>
-      <c r="C21" s="91" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="98" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="92" t="s">
+      <c r="F21" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
+      <c r="G21" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="80"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="65"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="80"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="75"/>
+      <c r="K22" s="75"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P5:P10"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="K5:K10"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="O5:O10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="P17:P22"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
@@ -5791,59 +5842,18 @@
     <mergeCell ref="M17:M22"/>
     <mergeCell ref="N17:N22"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P5:P10"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="J5:J10"/>
-    <mergeCell ref="K5:K10"/>
-    <mergeCell ref="L5:L10"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="O5:O10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5874,42 +5884,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="66"/>
     </row>
     <row r="4" spans="2:15" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -5956,23 +5966,23 @@
       </c>
     </row>
     <row r="5" spans="2:15" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="62"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="72"/>
     </row>
     <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -5989,24 +5999,24 @@
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
-      <c r="I6" s="66">
+      <c r="I6" s="73">
         <v>6</v>
       </c>
-      <c r="J6" s="66">
+      <c r="J6" s="73">
         <v>2</v>
       </c>
-      <c r="K6" s="69">
+      <c r="K6" s="76">
         <v>40</v>
       </c>
-      <c r="L6" s="72">
+      <c r="L6" s="79">
         <v>50</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
     </row>
     <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
@@ -6025,16 +6035,16 @@
       <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="65"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="34" t="s">
         <v>151</v>
       </c>
@@ -6049,32 +6059,32 @@
       </c>
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
     </row>
     <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="52" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -6091,22 +6101,22 @@
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="66">
+      <c r="I10" s="73">
         <v>4</v>
       </c>
-      <c r="J10" s="66">
+      <c r="J10" s="73">
         <v>4</v>
       </c>
-      <c r="K10" s="69">
+      <c r="K10" s="76">
         <v>50</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
     </row>
     <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="64"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="30" t="s">
         <v>139</v>
       </c>
@@ -6125,16 +6135,16 @@
       <c r="H11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
     </row>
     <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="65"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="34" t="s">
         <v>151</v>
       </c>
@@ -6149,32 +6159,32 @@
       </c>
       <c r="G12" s="35"/>
       <c r="H12" s="35"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
     </row>
     <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="62"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
     </row>
     <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="52" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -6191,22 +6201,22 @@
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
-      <c r="I14" s="66">
+      <c r="I14" s="73">
         <v>4</v>
       </c>
-      <c r="J14" s="66">
+      <c r="J14" s="73">
         <v>4</v>
       </c>
-      <c r="K14" s="69">
+      <c r="K14" s="76">
         <v>50</v>
       </c>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
     </row>
     <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="64"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="30" t="s">
         <v>139</v>
       </c>
@@ -6225,16 +6235,16 @@
       <c r="H15" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
     </row>
     <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="65"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="34" t="s">
         <v>151</v>
       </c>
@@ -6249,96 +6259,124 @@
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="78"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
     </row>
     <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="62"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
     </row>
     <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="63"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="28"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
     </row>
     <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="64"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="30"/>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
     </row>
     <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="64"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="34"/>
       <c r="D20" s="35"/>
       <c r="E20" s="34"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
     </row>
     <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="O10:O12"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:O3"/>
@@ -6351,34 +6389,6 @@
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="O6:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6412,61 +6422,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -6516,7 +6526,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="96" t="s">
+      <c r="B6" s="67" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -6536,16 +6546,16 @@
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="96"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="29" t="s">
         <v>74</v>
       </c>
@@ -6563,16 +6573,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="96"/>
+      <c r="B8" s="67"/>
       <c r="C8" s="35" t="s">
         <v>152</v>
       </c>
@@ -6590,16 +6600,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="93"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="96"/>
+      <c r="B9" s="67"/>
       <c r="C9" s="50" t="s">
         <v>154</v>
       </c>
@@ -6621,16 +6631,16 @@
       <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="96" t="s">
+      <c r="B10" s="67" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -6650,16 +6660,16 @@
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="96"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
@@ -6677,16 +6687,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="94"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="96"/>
+      <c r="B12" s="67"/>
       <c r="C12" s="35" t="s">
         <v>152</v>
       </c>
@@ -6704,16 +6714,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="96"/>
+      <c r="B13" s="67"/>
       <c r="C13" s="50" t="s">
         <v>154</v>
       </c>
@@ -6735,16 +6745,16 @@
       <c r="I13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="95"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="93"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="94"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="67" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -6764,16 +6774,16 @@
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="94"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="96"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
@@ -6791,16 +6801,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="94"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="96"/>
+      <c r="B16" s="67"/>
       <c r="C16" s="35" t="s">
         <v>152</v>
       </c>
@@ -6818,16 +6828,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="93"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="96"/>
+      <c r="B17" s="67"/>
       <c r="C17" s="50" t="s">
         <v>154</v>
       </c>
@@ -6849,16 +6859,28 @@
       <c r="I17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="94"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
     <mergeCell ref="O10:O13"/>
     <mergeCell ref="J14:J17"/>
     <mergeCell ref="K14:K17"/>
@@ -6875,18 +6897,6 @@
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="L6:L9"/>
     <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6920,63 +6930,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="60"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="66"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -7026,595 +7036,673 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="87" t="s">
+      <c r="F6" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="89"/>
+      <c r="G6" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="82"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="66">
+      <c r="J6" s="73">
         <v>2</v>
       </c>
-      <c r="K6" s="66">
-        <v>1</v>
-      </c>
-      <c r="L6" s="69">
+      <c r="K6" s="73">
+        <v>1</v>
+      </c>
+      <c r="L6" s="76">
         <v>20</v>
       </c>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="64"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="64"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="81"/>
+      <c r="G8" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="86"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="64"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="84"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80"/>
+      <c r="O9" s="80"/>
+      <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="64"/>
-      <c r="C10" s="75" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="75" t="s">
+      <c r="D10" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="85" t="s">
+      <c r="F10" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="75" t="s">
+      <c r="G10" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="75" t="s">
+      <c r="I10" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="64"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="80"/>
+      <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="64"/>
-      <c r="C12" s="77" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="F12" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="G12" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="64"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="80"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="89"/>
+      <c r="G14" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="82"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="66">
+      <c r="J14" s="73">
         <v>2</v>
       </c>
-      <c r="K14" s="66">
-        <v>1</v>
-      </c>
-      <c r="L14" s="69">
+      <c r="K14" s="73">
+        <v>1</v>
+      </c>
+      <c r="L14" s="76">
         <v>20</v>
       </c>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="64"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="88"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="80"/>
+      <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="64"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="81" t="s">
+      <c r="D16" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="81"/>
+      <c r="G16" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="86"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="64"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="84"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="64"/>
-      <c r="C18" s="75" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="75" t="s">
+      <c r="D18" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="75" t="s">
+      <c r="G18" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="75" t="s">
+      <c r="I18" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="64"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="86"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="64"/>
-      <c r="C20" s="77" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="79" t="s">
+      <c r="F20" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="67"/>
-      <c r="K20" s="67"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
+      <c r="G20" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="65"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="75"/>
+      <c r="K21" s="75"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="81"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="89" t="s">
+      <c r="C22" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="89" t="s">
+      <c r="D22" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="87" t="s">
+      <c r="F22" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="89"/>
+      <c r="G22" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="82"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="66">
+      <c r="J22" s="73">
         <v>2</v>
       </c>
-      <c r="K22" s="66">
-        <v>1</v>
-      </c>
-      <c r="L22" s="69">
+      <c r="K22" s="73">
+        <v>1</v>
+      </c>
+      <c r="L22" s="76">
         <v>20</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
     </row>
     <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B23" s="64"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="88"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="80"/>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="64"/>
-      <c r="C24" s="81" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="83" t="s">
+      <c r="F24" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="81"/>
+      <c r="G24" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="86"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="67"/>
-      <c r="K24" s="67"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="80"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="64"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="84"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="80"/>
     </row>
     <row r="26" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B26" s="64"/>
-      <c r="C26" s="75" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="75" t="s">
+      <c r="D26" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="85" t="s">
+      <c r="F26" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="75" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="75" t="s">
+      <c r="G26" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="75" t="s">
+      <c r="I26" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="67"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="80"/>
     </row>
     <row r="27" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B27" s="64"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="86"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
-      <c r="I27" s="76"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="64"/>
-      <c r="C28" s="77" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="79" t="s">
+      <c r="F28" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="77" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="73"/>
-      <c r="N28" s="73"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
+      <c r="G28" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="80"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="65"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="80"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="81"/>
+      <c r="N29" s="81"/>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="P22:P29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="O22:O29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="P14:P21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="O14:O21"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="N6:N13"/>
+    <mergeCell ref="O6:O13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="J6:J13"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:I4"/>
@@ -7631,84 +7719,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="O6:O13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="P14:P21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="O14:O21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="P22:P29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="K22:K29"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="M22:M29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="O22:O29"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="206">
   <si>
     <t>IP Address</t>
   </si>
@@ -645,6 +645,15 @@
   </si>
   <si>
     <t>VLAN NAME</t>
+  </si>
+  <si>
+    <t>10.10.11.111</t>
+  </si>
+  <si>
+    <t>10.10.11.112</t>
+  </si>
+  <si>
+    <t>10.10.11.113</t>
   </si>
 </sst>
 </file>
@@ -1034,6 +1043,51 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,51 +1100,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1127,53 +1136,53 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1467,7 +1476,7 @@
   <dimension ref="B2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1486,61 +1495,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="66"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -1590,7 +1599,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="60" t="s">
         <v>180</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -1614,24 +1623,24 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="62">
         <v>2</v>
       </c>
-      <c r="L6" s="68" t="s">
+      <c r="L6" s="63" t="s">
         <v>188</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="67"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="29" t="s">
         <v>177</v>
       </c>
@@ -1649,16 +1658,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
         <v>178</v>
       </c>
@@ -1676,16 +1685,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
     </row>
     <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="67"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="50" t="s">
         <v>179</v>
       </c>
@@ -1696,23 +1705,23 @@
         <v>35</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
     </row>
     <row r="10" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="67" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -1736,22 +1745,22 @@
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="62">
         <v>4</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="29" t="s">
         <v>177</v>
       </c>
@@ -1769,16 +1778,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="35" t="s">
         <v>178</v>
       </c>
@@ -1796,16 +1805,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="50" t="s">
         <v>179</v>
       </c>
@@ -1816,23 +1825,23 @@
         <v>35</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="67" t="s">
         <v>182</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -1856,22 +1865,22 @@
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="62">
         <v>4</v>
       </c>
-      <c r="L14" s="68" t="s">
+      <c r="L14" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="29" t="s">
         <v>177</v>
       </c>
@@ -1889,16 +1898,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="35" t="s">
         <v>178</v>
       </c>
@@ -1916,16 +1925,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="54"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="50" t="s">
         <v>179</v>
       </c>
@@ -1936,23 +1945,39 @@
         <v>35</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:I4"/>
@@ -1965,22 +1990,6 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2012,44 +2021,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -2116,7 +2125,7 @@
       <c r="P5" s="72"/>
     </row>
     <row r="6" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="67" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -2159,7 +2168,7 @@
       <c r="P6" s="79"/>
     </row>
     <row r="7" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -2184,7 +2193,7 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -2209,7 +2218,7 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="54"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -2251,7 +2260,7 @@
       <c r="P10" s="72"/>
     </row>
     <row r="11" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2288,7 +2297,7 @@
       <c r="P11" s="79"/>
     </row>
     <row r="12" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -2313,7 +2322,7 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -2338,7 +2347,7 @@
       <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="54"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -2380,7 +2389,7 @@
       <c r="P15" s="72"/>
     </row>
     <row r="16" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="67" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -2417,7 +2426,7 @@
       <c r="P16" s="79"/>
     </row>
     <row r="17" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="53"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -2442,7 +2451,7 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -2467,7 +2476,7 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="54"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -2509,7 +2518,7 @@
       <c r="P20" s="72"/>
     </row>
     <row r="21" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="67" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -2550,7 +2559,7 @@
       <c r="P21" s="79"/>
     </row>
     <row r="22" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="53"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -2575,7 +2584,7 @@
       <c r="P22" s="80"/>
     </row>
     <row r="23" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -2600,7 +2609,7 @@
       <c r="P23" s="80"/>
     </row>
     <row r="24" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="54"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -2642,7 +2651,7 @@
       <c r="P25" s="72"/>
     </row>
     <row r="26" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="67" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2683,7 +2692,7 @@
       <c r="P26" s="79"/>
     </row>
     <row r="27" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -2708,7 +2717,7 @@
       <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -2733,7 +2742,7 @@
       <c r="P28" s="80"/>
     </row>
     <row r="29" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="54"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -2775,7 +2784,7 @@
       <c r="P30" s="72"/>
     </row>
     <row r="31" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="67" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -2816,7 +2825,7 @@
       <c r="P31" s="79"/>
     </row>
     <row r="32" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="53"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -2841,7 +2850,7 @@
       <c r="P32" s="80"/>
     </row>
     <row r="33" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="53"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -2866,7 +2875,7 @@
       <c r="P33" s="80"/>
     </row>
     <row r="34" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="54"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -2892,6 +2901,51 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -2904,51 +2958,6 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2982,44 +2991,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -3069,25 +3078,25 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="82"/>
+      <c r="G5" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="96"/>
       <c r="I5" s="11"/>
       <c r="J5" s="73">
         <v>2</v>
@@ -3104,15 +3113,15 @@
       <c r="P5" s="79"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="12"/>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
@@ -3123,23 +3132,23 @@
       <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="86"/>
+      <c r="G7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="88"/>
       <c r="I7" s="9"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
@@ -3150,15 +3159,15 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="13"/>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
@@ -3169,11 +3178,11 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="90" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -3182,13 +3191,13 @@
       <c r="F9" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="90" t="s">
+      <c r="G9" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="74"/>
@@ -3200,16 +3209,16 @@
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="93"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="77"/>
@@ -3219,24 +3228,24 @@
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="86" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
+      <c r="G11" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="84"/>
+      <c r="I11" s="84"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="77"/>
@@ -3246,16 +3255,16 @@
       <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
       <c r="J12" s="75"/>
       <c r="K12" s="75"/>
       <c r="L12" s="77"/>
@@ -3265,25 +3274,25 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="82"/>
+      <c r="G13" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="96"/>
       <c r="I13" s="11"/>
       <c r="J13" s="73">
         <v>2</v>
@@ -3300,15 +3309,15 @@
       <c r="P13" s="79"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="53"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
       <c r="I14" s="12"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
@@ -3319,23 +3328,23 @@
       <c r="P14" s="80"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
-      <c r="C15" s="86" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="86"/>
+      <c r="G15" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="88"/>
       <c r="I15" s="9"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
@@ -3346,15 +3355,15 @@
       <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
       <c r="I16" s="13"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
@@ -3365,11 +3374,11 @@
       <c r="P16" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="53"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -3378,13 +3387,13 @@
       <c r="F17" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="90" t="s">
+      <c r="G17" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="90" t="s">
+      <c r="I17" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="74"/>
@@ -3396,16 +3405,16 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="93"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
       <c r="L18" s="77"/>
@@ -3415,24 +3424,24 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
+      <c r="G19" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="77"/>
@@ -3442,16 +3451,16 @@
       <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="54"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
       <c r="J20" s="75"/>
       <c r="K20" s="75"/>
       <c r="L20" s="78"/>
@@ -3461,44 +3470,44 @@
       <c r="P20" s="81"/>
     </row>
     <row r="21" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="60"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="53"/>
     </row>
     <row r="22" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="64" t="s">
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="66"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="59"/>
     </row>
     <row r="23" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
@@ -3548,26 +3557,26 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="G24" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
       <c r="J24" s="73">
         <v>2</v>
       </c>
@@ -3583,16 +3592,16 @@
       <c r="P24" s="79"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="77"/>
@@ -3602,26 +3611,26 @@
       <c r="P25" s="80"/>
     </row>
     <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="53"/>
-      <c r="C26" s="90" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="90" t="s">
+      <c r="E26" s="82" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="90" t="s">
+      <c r="G26" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="74"/>
@@ -3633,16 +3642,16 @@
       <c r="P26" s="80"/>
     </row>
     <row r="27" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91" t="s">
+      <c r="B27" s="68"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="93"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
       <c r="L27" s="77"/>
@@ -3652,26 +3661,26 @@
       <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
+      <c r="G28" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
       <c r="J28" s="73">
         <v>2</v>
       </c>
@@ -3687,16 +3696,16 @@
       <c r="P28" s="79"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="53"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="77"/>
@@ -3706,26 +3715,26 @@
       <c r="P29" s="80"/>
     </row>
     <row r="30" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="53"/>
-      <c r="C30" s="90" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E30" s="82" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="90" t="s">
+      <c r="G30" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="90" t="s">
+      <c r="I30" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="74"/>
@@ -3737,16 +3746,16 @@
       <c r="P30" s="80"/>
     </row>
     <row r="31" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="53"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91" t="s">
+      <c r="B31" s="68"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="93"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
       <c r="L31" s="77"/>
@@ -3756,26 +3765,26 @@
       <c r="P31" s="80"/>
     </row>
     <row r="32" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
+      <c r="G32" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
       <c r="J32" s="73">
         <v>2</v>
       </c>
@@ -3791,16 +3800,16 @@
       <c r="P32" s="79"/>
     </row>
     <row r="33" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B33" s="53"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
       <c r="L33" s="77"/>
@@ -3810,26 +3819,26 @@
       <c r="P33" s="80"/>
     </row>
     <row r="34" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
-      <c r="C34" s="90" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="82" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="90" t="s">
+      <c r="G34" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="74"/>
@@ -3841,16 +3850,16 @@
       <c r="P34" s="80"/>
     </row>
     <row r="35" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="54"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91" t="s">
+      <c r="B35" s="69"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="83"/>
+      <c r="E35" s="83" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="93"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="83"/>
       <c r="J35" s="75"/>
       <c r="K35" s="75"/>
       <c r="L35" s="78"/>
@@ -3860,44 +3869,44 @@
       <c r="P35" s="81"/>
     </row>
     <row r="36" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="59"/>
-      <c r="M36" s="59"/>
-      <c r="N36" s="59"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="60"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="53"/>
     </row>
     <row r="37" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="64" t="s">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="66"/>
+      <c r="K37" s="58"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="58"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
     </row>
     <row r="38" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
@@ -3947,26 +3956,26 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
+      <c r="G39" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
       <c r="J39" s="73">
         <v>2</v>
       </c>
@@ -3982,16 +3991,16 @@
       <c r="P39" s="79"/>
     </row>
     <row r="40" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B40" s="53"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
       <c r="J40" s="74"/>
       <c r="K40" s="74"/>
       <c r="L40" s="77"/>
@@ -4001,26 +4010,26 @@
       <c r="P40" s="80"/>
     </row>
     <row r="41" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="53"/>
-      <c r="C41" s="90" t="s">
+      <c r="B41" s="68"/>
+      <c r="C41" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="90" t="s">
+      <c r="E41" s="82" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="90" t="s">
+      <c r="G41" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="90" t="s">
+      <c r="I41" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="74"/>
@@ -4032,16 +4041,16 @@
       <c r="P41" s="80"/>
     </row>
     <row r="42" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="53"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91" t="s">
+      <c r="B42" s="68"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="93"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
+      <c r="G42" s="83"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="83"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
       <c r="L42" s="77"/>
@@ -4051,26 +4060,26 @@
       <c r="P42" s="80"/>
     </row>
     <row r="43" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="F43" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
+      <c r="G43" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
       <c r="J43" s="73">
         <v>2</v>
       </c>
@@ -4086,16 +4095,16 @@
       <c r="P43" s="79"/>
     </row>
     <row r="44" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B44" s="53"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
       <c r="J44" s="74"/>
       <c r="K44" s="74"/>
       <c r="L44" s="77"/>
@@ -4105,26 +4114,26 @@
       <c r="P44" s="80"/>
     </row>
     <row r="45" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="53"/>
-      <c r="C45" s="90" t="s">
+      <c r="B45" s="68"/>
+      <c r="C45" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="90" t="s">
+      <c r="E45" s="82" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="90" t="s">
+      <c r="G45" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="90" t="s">
+      <c r="I45" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J45" s="74"/>
@@ -4136,16 +4145,16 @@
       <c r="P45" s="80"/>
     </row>
     <row r="46" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="53"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91" t="s">
+      <c r="B46" s="68"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="93"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
+      <c r="G46" s="83"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="77"/>
@@ -4155,26 +4164,26 @@
       <c r="P46" s="80"/>
     </row>
     <row r="47" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
+      <c r="G47" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
       <c r="J47" s="73">
         <v>2</v>
       </c>
@@ -4190,16 +4199,16 @@
       <c r="P47" s="79"/>
     </row>
     <row r="48" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B48" s="53"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
       <c r="J48" s="74"/>
       <c r="K48" s="74"/>
       <c r="L48" s="77"/>
@@ -4209,26 +4218,26 @@
       <c r="P48" s="80"/>
     </row>
     <row r="49" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="53"/>
-      <c r="C49" s="90" t="s">
+      <c r="B49" s="68"/>
+      <c r="C49" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="82" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="90" t="s">
+      <c r="G49" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="90" t="s">
+      <c r="I49" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J49" s="74"/>
@@ -4240,16 +4249,16 @@
       <c r="P49" s="80"/>
     </row>
     <row r="50" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="54"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91" t="s">
+      <c r="B50" s="69"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="83" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="93"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
+      <c r="G50" s="83"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
       <c r="J50" s="75"/>
       <c r="K50" s="75"/>
       <c r="L50" s="78"/>
@@ -4259,44 +4268,44 @@
       <c r="P50" s="81"/>
     </row>
     <row r="51" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="59"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="59"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="59"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="60"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="53"/>
     </row>
     <row r="52" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="61" t="s">
+      <c r="B52" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="64" t="s">
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="65"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="66"/>
+      <c r="K52" s="58"/>
+      <c r="L52" s="58"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="58"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -4346,25 +4355,25 @@
       </c>
     </row>
     <row r="54" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="84" t="s">
+      <c r="F54" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="82"/>
+      <c r="G54" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="96"/>
       <c r="I54" s="11"/>
       <c r="J54" s="73">
         <v>2</v>
@@ -4381,15 +4390,15 @@
       <c r="P54" s="79"/>
     </row>
     <row r="55" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B55" s="53"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
+      <c r="F55" s="95"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
       <c r="I55" s="12"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
@@ -4400,23 +4409,23 @@
       <c r="P55" s="80"/>
     </row>
     <row r="56" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B56" s="53"/>
-      <c r="C56" s="86" t="s">
+      <c r="B56" s="68"/>
+      <c r="C56" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="86" t="s">
+      <c r="D56" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="88" t="s">
+      <c r="F56" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="86"/>
+      <c r="G56" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="88"/>
       <c r="I56" s="9"/>
       <c r="J56" s="74"/>
       <c r="K56" s="74"/>
@@ -4427,15 +4436,15 @@
       <c r="P56" s="80"/>
     </row>
     <row r="57" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B57" s="53"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="89"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="89"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
+      <c r="F57" s="91"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
       <c r="I57" s="13"/>
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
@@ -4446,11 +4455,11 @@
       <c r="P57" s="80"/>
     </row>
     <row r="58" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B58" s="53"/>
-      <c r="C58" s="90" t="s">
+      <c r="B58" s="68"/>
+      <c r="C58" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
@@ -4459,13 +4468,13 @@
       <c r="F58" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="90" t="s">
+      <c r="G58" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="90" t="s">
+      <c r="I58" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="74"/>
@@ -4477,16 +4486,16 @@
       <c r="P58" s="80"/>
     </row>
     <row r="59" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B59" s="53"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="83"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="93"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="83"/>
       <c r="J59" s="74"/>
       <c r="K59" s="74"/>
       <c r="L59" s="77"/>
@@ -4496,24 +4505,24 @@
       <c r="P59" s="80"/>
     </row>
     <row r="60" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B60" s="53"/>
-      <c r="C60" s="94" t="s">
+      <c r="B60" s="68"/>
+      <c r="C60" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="94" t="s">
+      <c r="D60" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="96" t="s">
+      <c r="F60" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
+      <c r="G60" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="84"/>
+      <c r="I60" s="84"/>
       <c r="J60" s="74"/>
       <c r="K60" s="74"/>
       <c r="L60" s="77"/>
@@ -4523,16 +4532,16 @@
       <c r="P60" s="80"/>
     </row>
     <row r="61" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B61" s="53"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="97"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="95"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
       <c r="J61" s="75"/>
       <c r="K61" s="75"/>
       <c r="L61" s="77"/>
@@ -4542,25 +4551,25 @@
       <c r="P61" s="80"/>
     </row>
     <row r="62" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="84" t="s">
+      <c r="F62" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="82"/>
+      <c r="G62" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="96"/>
       <c r="I62" s="11"/>
       <c r="J62" s="73">
         <v>2</v>
@@ -4577,15 +4586,15 @@
       <c r="P62" s="79"/>
     </row>
     <row r="63" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B63" s="53"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="85"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
+      <c r="F63" s="95"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
       <c r="I63" s="12"/>
       <c r="J63" s="74"/>
       <c r="K63" s="74"/>
@@ -4596,23 +4605,23 @@
       <c r="P63" s="80"/>
     </row>
     <row r="64" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B64" s="53"/>
-      <c r="C64" s="86" t="s">
+      <c r="B64" s="68"/>
+      <c r="C64" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="86" t="s">
+      <c r="D64" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="88" t="s">
+      <c r="F64" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="86"/>
+      <c r="G64" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="88"/>
       <c r="I64" s="9"/>
       <c r="J64" s="74"/>
       <c r="K64" s="74"/>
@@ -4623,15 +4632,15 @@
       <c r="P64" s="80"/>
     </row>
     <row r="65" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B65" s="53"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="89"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="89"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
+      <c r="F65" s="91"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
       <c r="I65" s="13"/>
       <c r="J65" s="74"/>
       <c r="K65" s="74"/>
@@ -4642,11 +4651,11 @@
       <c r="P65" s="80"/>
     </row>
     <row r="66" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B66" s="53"/>
-      <c r="C66" s="90" t="s">
+      <c r="B66" s="68"/>
+      <c r="C66" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="90" t="s">
+      <c r="D66" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -4655,13 +4664,13 @@
       <c r="F66" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="90" t="s">
+      <c r="G66" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="90" t="s">
+      <c r="I66" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J66" s="74"/>
@@ -4673,16 +4682,16 @@
       <c r="P66" s="80"/>
     </row>
     <row r="67" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B67" s="53"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="83"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="93"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
+      <c r="I67" s="83"/>
       <c r="J67" s="74"/>
       <c r="K67" s="74"/>
       <c r="L67" s="77"/>
@@ -4692,24 +4701,24 @@
       <c r="P67" s="80"/>
     </row>
     <row r="68" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B68" s="53"/>
-      <c r="C68" s="94" t="s">
+      <c r="B68" s="68"/>
+      <c r="C68" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="D68" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="96" t="s">
+      <c r="F68" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
+      <c r="G68" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="84"/>
+      <c r="I68" s="84"/>
       <c r="J68" s="74"/>
       <c r="K68" s="74"/>
       <c r="L68" s="77"/>
@@ -4719,16 +4728,16 @@
       <c r="P68" s="80"/>
     </row>
     <row r="69" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B69" s="54"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="97"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="95"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
       <c r="J69" s="75"/>
       <c r="K69" s="75"/>
       <c r="L69" s="78"/>
@@ -4738,25 +4747,25 @@
       <c r="P69" s="81"/>
     </row>
     <row r="70" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="82" t="s">
+      <c r="D70" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="84" t="s">
+      <c r="F70" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="82"/>
+      <c r="G70" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="96"/>
       <c r="I70" s="11"/>
       <c r="J70" s="73">
         <v>2</v>
@@ -4773,15 +4782,15 @@
       <c r="P70" s="79"/>
     </row>
     <row r="71" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B71" s="53"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="85"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
       <c r="I71" s="12"/>
       <c r="J71" s="74"/>
       <c r="K71" s="74"/>
@@ -4792,23 +4801,23 @@
       <c r="P71" s="80"/>
     </row>
     <row r="72" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B72" s="53"/>
-      <c r="C72" s="86" t="s">
+      <c r="B72" s="68"/>
+      <c r="C72" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="86" t="s">
+      <c r="D72" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="88" t="s">
+      <c r="F72" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="86"/>
+      <c r="G72" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="88"/>
       <c r="I72" s="9"/>
       <c r="J72" s="74"/>
       <c r="K72" s="74"/>
@@ -4819,15 +4828,15 @@
       <c r="P72" s="80"/>
     </row>
     <row r="73" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B73" s="53"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="89"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
       <c r="I73" s="13"/>
       <c r="J73" s="74"/>
       <c r="K73" s="74"/>
@@ -4838,11 +4847,11 @@
       <c r="P73" s="80"/>
     </row>
     <row r="74" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B74" s="53"/>
-      <c r="C74" s="90" t="s">
+      <c r="B74" s="68"/>
+      <c r="C74" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="90" t="s">
+      <c r="D74" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
@@ -4851,13 +4860,13 @@
       <c r="F74" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="90" t="s">
+      <c r="G74" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="90" t="s">
+      <c r="I74" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J74" s="74"/>
@@ -4869,16 +4878,16 @@
       <c r="P74" s="80"/>
     </row>
     <row r="75" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B75" s="53"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="83"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="93"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
+      <c r="G75" s="83"/>
+      <c r="H75" s="83"/>
+      <c r="I75" s="83"/>
       <c r="J75" s="74"/>
       <c r="K75" s="74"/>
       <c r="L75" s="77"/>
@@ -4888,24 +4897,24 @@
       <c r="P75" s="80"/>
     </row>
     <row r="76" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B76" s="53"/>
-      <c r="C76" s="94" t="s">
+      <c r="B76" s="68"/>
+      <c r="C76" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="94" t="s">
+      <c r="D76" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="96" t="s">
+      <c r="F76" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
+      <c r="G76" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="84"/>
+      <c r="I76" s="84"/>
       <c r="J76" s="74"/>
       <c r="K76" s="74"/>
       <c r="L76" s="77"/>
@@ -4915,16 +4924,16 @@
       <c r="P76" s="80"/>
     </row>
     <row r="77" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B77" s="54"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="95"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="97"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="95"/>
-      <c r="I77" s="95"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
       <c r="J77" s="75"/>
       <c r="K77" s="75"/>
       <c r="L77" s="78"/>
@@ -4935,27 +4944,249 @@
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="P62:P69"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -4980,249 +5211,27 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="M62:M69"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5253,44 +5262,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="66"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -5340,28 +5349,28 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="88" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="86" t="s">
+      <c r="G5" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="88" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="74"/>
@@ -5373,16 +5382,16 @@
       <c r="P5" s="80"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
       <c r="L6" s="77"/>
@@ -5392,11 +5401,11 @@
       <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="82" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -5405,11 +5414,11 @@
       <c r="F7" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
+      <c r="G7" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
       <c r="L7" s="77"/>
@@ -5419,16 +5428,16 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="93"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="L8" s="77"/>
@@ -5438,7 +5447,7 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="98" t="s">
         <v>89</v>
       </c>
@@ -5465,16 +5474,16 @@
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
       <c r="J10" s="75"/>
       <c r="K10" s="75"/>
       <c r="L10" s="77"/>
@@ -5484,28 +5493,28 @@
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="88" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="90" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="86" t="s">
+      <c r="G11" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="88" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="74"/>
@@ -5517,16 +5526,16 @@
       <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="77"/>
@@ -5536,11 +5545,11 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="82" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -5549,11 +5558,11 @@
       <c r="F13" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
+      <c r="G13" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
       <c r="L13" s="77"/>
@@ -5563,16 +5572,16 @@
       <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="53"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="93"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="77"/>
@@ -5582,7 +5591,7 @@
       <c r="P14" s="80"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="98" t="s">
         <v>89</v>
       </c>
@@ -5595,11 +5604,11 @@
       <c r="F15" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
+      <c r="G15" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
       <c r="L15" s="77"/>
@@ -5609,16 +5618,16 @@
       <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="54"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
       <c r="J16" s="75"/>
       <c r="K16" s="75"/>
       <c r="L16" s="78"/>
@@ -5628,28 +5637,28 @@
       <c r="P16" s="81"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="88" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="90" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="86" t="s">
+      <c r="G17" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="86" t="s">
+      <c r="I17" s="88" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="74"/>
@@ -5661,16 +5670,16 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
       <c r="L18" s="77"/>
@@ -5680,11 +5689,11 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="90" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="82" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -5693,11 +5702,11 @@
       <c r="F19" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
+      <c r="G19" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="77"/>
@@ -5707,16 +5716,16 @@
       <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="93"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
       <c r="L20" s="77"/>
@@ -5726,7 +5735,7 @@
       <c r="P20" s="80"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="53"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="98" t="s">
         <v>89</v>
       </c>
@@ -5739,11 +5748,11 @@
       <c r="F21" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
+      <c r="G21" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
       <c r="L21" s="77"/>
@@ -5753,16 +5762,16 @@
       <c r="P21" s="80"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="54"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
       <c r="J22" s="75"/>
       <c r="K22" s="75"/>
       <c r="L22" s="78"/>
@@ -5773,6 +5782,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="P5:P10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -5789,71 +5863,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -5884,42 +5893,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="60"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="53"/>
     </row>
     <row r="3" spans="2:15" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="66"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" spans="2:15" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -5982,7 +5991,7 @@
       <c r="O5" s="72"/>
     </row>
     <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="67" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -6016,7 +6025,7 @@
       <c r="O6" s="79"/>
     </row>
     <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="30" t="s">
         <v>139</v>
       </c>
@@ -6044,7 +6053,7 @@
       <c r="O7" s="80"/>
     </row>
     <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="54"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="34" t="s">
         <v>151</v>
       </c>
@@ -6084,7 +6093,7 @@
       <c r="O9" s="72"/>
     </row>
     <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="67" t="s">
         <v>134</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -6116,7 +6125,7 @@
       <c r="O10" s="79"/>
     </row>
     <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="30" t="s">
         <v>139</v>
       </c>
@@ -6144,7 +6153,7 @@
       <c r="O11" s="80"/>
     </row>
     <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="54"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="34" t="s">
         <v>151</v>
       </c>
@@ -6184,7 +6193,7 @@
       <c r="O13" s="72"/>
     </row>
     <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="67" t="s">
         <v>135</v>
       </c>
       <c r="C14" s="28" t="s">
@@ -6216,7 +6225,7 @@
       <c r="O14" s="79"/>
     </row>
     <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="30" t="s">
         <v>139</v>
       </c>
@@ -6244,7 +6253,7 @@
       <c r="O15" s="80"/>
     </row>
     <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="54"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="34" t="s">
         <v>151</v>
       </c>
@@ -6284,7 +6293,7 @@
       <c r="O17" s="72"/>
     </row>
     <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="52"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="28"/>
@@ -6300,7 +6309,7 @@
       <c r="O18" s="79"/>
     </row>
     <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="30"/>
@@ -6316,7 +6325,7 @@
       <c r="O19" s="80"/>
     </row>
     <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="34"/>
       <c r="D20" s="35"/>
       <c r="E20" s="34"/>
@@ -6349,34 +6358,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="O10:O12"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="I3:O3"/>
@@ -6389,6 +6370,34 @@
     <mergeCell ref="M6:M8"/>
     <mergeCell ref="N6:N8"/>
     <mergeCell ref="O6:O8"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="L14:L16"/>
+    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6422,61 +6431,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="58"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="66"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -6526,7 +6535,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="60" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -6546,16 +6555,16 @@
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="67"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="29" t="s">
         <v>74</v>
       </c>
@@ -6573,16 +6582,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="67"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="35" t="s">
         <v>152</v>
       </c>
@@ -6600,16 +6609,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
     </row>
     <row r="9" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="67"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="50" t="s">
         <v>154</v>
       </c>
@@ -6631,16 +6640,16 @@
       <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
     </row>
     <row r="10" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="60" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -6660,16 +6669,16 @@
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="67"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
@@ -6687,16 +6696,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="67"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="35" t="s">
         <v>152</v>
       </c>
@@ -6714,16 +6723,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="67"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="50" t="s">
         <v>154</v>
       </c>
@@ -6745,16 +6754,16 @@
       <c r="I13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="66"/>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
     </row>
     <row r="14" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="60" t="s">
         <v>174</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -6774,16 +6783,16 @@
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="67"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
@@ -6801,16 +6810,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="67"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="35" t="s">
         <v>152</v>
       </c>
@@ -6828,16 +6837,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="67"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="50" t="s">
         <v>154</v>
       </c>
@@ -6859,32 +6868,16 @@
       <c r="I17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="66"/>
+      <c r="N17" s="66"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="P10:P13"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
@@ -6893,10 +6886,26 @@
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="J6:J9"/>
-    <mergeCell ref="B14:B17"/>
     <mergeCell ref="K6:K9"/>
     <mergeCell ref="L6:L9"/>
     <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6930,63 +6939,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="60"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="53"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="64" t="s">
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="66"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="59"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -7036,25 +7045,25 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="82"/>
+      <c r="G6" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="96"/>
       <c r="I6" s="11"/>
       <c r="J6" s="73">
         <v>2</v>
@@ -7071,15 +7080,15 @@
       <c r="P6" s="79"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="12"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
@@ -7090,23 +7099,23 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="68"/>
+      <c r="C8" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="86"/>
+      <c r="G8" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="88"/>
       <c r="I8" s="9"/>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
@@ -7117,15 +7126,15 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
       <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="13"/>
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
@@ -7136,11 +7145,11 @@
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -7149,13 +7158,13 @@
       <c r="F10" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="90" t="s">
+      <c r="G10" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="74"/>
@@ -7167,16 +7176,16 @@
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
       <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="93"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="77"/>
@@ -7186,24 +7195,24 @@
       <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
+      <c r="G12" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="77"/>
@@ -7213,16 +7222,16 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
       <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
       <c r="J13" s="75"/>
       <c r="K13" s="75"/>
       <c r="L13" s="77"/>
@@ -7232,25 +7241,25 @@
       <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="82"/>
+      <c r="G14" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="96"/>
       <c r="I14" s="11"/>
       <c r="J14" s="73">
         <v>2</v>
@@ -7267,15 +7276,15 @@
       <c r="P14" s="79"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="12"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
@@ -7286,23 +7295,23 @@
       <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
-      <c r="C16" s="86" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="86"/>
+      <c r="G16" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="88"/>
       <c r="I16" s="9"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
@@ -7313,15 +7322,15 @@
       <c r="P16" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="53"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="13"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
@@ -7332,11 +7341,11 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
-      <c r="C18" s="90" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
@@ -7345,13 +7354,13 @@
       <c r="F18" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="90" t="s">
+      <c r="G18" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="90" t="s">
+      <c r="I18" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="74"/>
@@ -7363,16 +7372,16 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
       <c r="E19" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="93"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="77"/>
@@ -7382,24 +7391,24 @@
       <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
-      <c r="C20" s="94" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="86" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
+      <c r="G20" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
       <c r="L20" s="77"/>
@@ -7409,16 +7418,16 @@
       <c r="P20" s="80"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="54"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
       <c r="E21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="75"/>
       <c r="K21" s="75"/>
       <c r="L21" s="78"/>
@@ -7428,25 +7437,25 @@
       <c r="P21" s="81"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="96" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="82"/>
+      <c r="G22" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="96"/>
       <c r="I22" s="11"/>
       <c r="J22" s="73">
         <v>2</v>
@@ -7463,15 +7472,15 @@
       <c r="P22" s="79"/>
     </row>
     <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
       <c r="I23" s="12"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
@@ -7482,23 +7491,23 @@
       <c r="P23" s="80"/>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="53"/>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="86"/>
+      <c r="G24" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="88"/>
       <c r="I24" s="9"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
@@ -7509,15 +7518,15 @@
       <c r="P24" s="80"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
       <c r="I25" s="13"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
@@ -7528,11 +7537,11 @@
       <c r="P25" s="80"/>
     </row>
     <row r="26" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B26" s="53"/>
-      <c r="C26" s="90" t="s">
+      <c r="B26" s="68"/>
+      <c r="C26" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="82" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="36" t="s">
@@ -7541,13 +7550,13 @@
       <c r="F26" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="90" t="s">
+      <c r="G26" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="82" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="74"/>
@@ -7559,16 +7568,16 @@
       <c r="P26" s="80"/>
     </row>
     <row r="27" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="93"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
       <c r="L27" s="77"/>
@@ -7578,24 +7587,24 @@
       <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
-      <c r="C28" s="94" t="s">
+      <c r="B28" s="68"/>
+      <c r="C28" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="84" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
+      <c r="G28" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
       <c r="L28" s="77"/>
@@ -7605,16 +7614,16 @@
       <c r="P28" s="80"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="54"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
       <c r="E29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="97"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
       <c r="J29" s="75"/>
       <c r="K29" s="75"/>
       <c r="L29" s="78"/>
@@ -7625,6 +7634,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="N6:N13"/>
+    <mergeCell ref="O6:O13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="P14:P21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="O14:O21"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="O22:O29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="P22:P29"/>
@@ -7641,84 +7728,6 @@
     <mergeCell ref="K22:K29"/>
     <mergeCell ref="L22:L29"/>
     <mergeCell ref="M22:M29"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="O22:O29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="P14:P21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="O14:O21"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="O6:O13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -12,11 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
-    <sheet name="HA_Qeens_No_HA" sheetId="22" r:id="rId1"/>
-    <sheet name="HCD_NOHA_IP_Planning" sheetId="18" r:id="rId2"/>
-    <sheet name="HCD_IP_Planning" sheetId="15" r:id="rId3"/>
-    <sheet name="HCD_CEPH" sheetId="17" r:id="rId4"/>
-    <sheet name="Queens" sheetId="19" r:id="rId5"/>
+    <sheet name="HA_Qeens_No_HA_PUB_LAB" sheetId="23" r:id="rId1"/>
+    <sheet name="HA_Qeens_No_HA_Local_LAB" sheetId="22" r:id="rId2"/>
+    <sheet name="HCD_NOHA_IP_Planning" sheetId="18" r:id="rId3"/>
+    <sheet name="HCD_IP_Planning" sheetId="15" r:id="rId4"/>
+    <sheet name="HCD_CEPH" sheetId="17" r:id="rId5"/>
     <sheet name="HA_Qeens_No_bond" sheetId="20" r:id="rId6"/>
     <sheet name="HA_Qeens_Bond" sheetId="21" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="222">
   <si>
     <t>IP Address</t>
   </si>
@@ -446,54 +446,6 @@
     <t>compute2</t>
   </si>
   <si>
-    <t>VLAN_DATAVM_10.10.10.0/24</t>
-  </si>
-  <si>
-    <t>ens3</t>
-  </si>
-  <si>
-    <t>10.10.10.211</t>
-  </si>
-  <si>
-    <t>VLAN_MGNT_API_172.16.68.0/24</t>
-  </si>
-  <si>
-    <t>ens4</t>
-  </si>
-  <si>
-    <t>172.16.68.211</t>
-  </si>
-  <si>
-    <t>172.16.68.1</t>
-  </si>
-  <si>
-    <t>ens5</t>
-  </si>
-  <si>
-    <t>192.168.20.211</t>
-  </si>
-  <si>
-    <t>10.10.10.212</t>
-  </si>
-  <si>
-    <t>172.16.68.212</t>
-  </si>
-  <si>
-    <t>192.168.20.212</t>
-  </si>
-  <si>
-    <t>10.10.10.213</t>
-  </si>
-  <si>
-    <t>172.16.68.213</t>
-  </si>
-  <si>
-    <t>192.168.20.213</t>
-  </si>
-  <si>
-    <t>VLAN_PROVIDER_192.168.20.0/24</t>
-  </si>
-  <si>
     <t>VLAN_DATA_VM</t>
   </si>
   <si>
@@ -654,13 +606,109 @@
   </si>
   <si>
     <t>10.10.11.113</t>
+  </si>
+  <si>
+    <t>192.168.70.120</t>
+  </si>
+  <si>
+    <t>192.168.82.120</t>
+  </si>
+  <si>
+    <t>192.168.81.120</t>
+  </si>
+  <si>
+    <t>192.168.84.120</t>
+  </si>
+  <si>
+    <t>192.168.70.1</t>
+  </si>
+  <si>
+    <t>CEPH1</t>
+  </si>
+  <si>
+    <t>VLAN70</t>
+  </si>
+  <si>
+    <t>VLAN82</t>
+  </si>
+  <si>
+    <t>VLAN81</t>
+  </si>
+  <si>
+    <t>VLAN84</t>
+  </si>
+  <si>
+    <t>192.168.70.131</t>
+  </si>
+  <si>
+    <t>192.168.82.131</t>
+  </si>
+  <si>
+    <t>CEPH2</t>
+  </si>
+  <si>
+    <t>192.168.70.132</t>
+  </si>
+  <si>
+    <t>192.168.82.132</t>
+  </si>
+  <si>
+    <t>CEPH3</t>
+  </si>
+  <si>
+    <t>192.168.70.133</t>
+  </si>
+  <si>
+    <t>192.168.82.133</t>
+  </si>
+  <si>
+    <t>+2GB</t>
+  </si>
+  <si>
+    <t>192.168.70.121</t>
+  </si>
+  <si>
+    <t>192.168.82.121</t>
+  </si>
+  <si>
+    <t>192.168.81.121</t>
+  </si>
+  <si>
+    <t>192.168.84.121</t>
+  </si>
+  <si>
+    <t>192.168.70.122</t>
+  </si>
+  <si>
+    <t>192.168.82.122</t>
+  </si>
+  <si>
+    <t>192.168.81.122</t>
+  </si>
+  <si>
+    <t>192.168.84.122</t>
+  </si>
+  <si>
+    <t>192.168.83.131</t>
+  </si>
+  <si>
+    <t>VLAN83</t>
+  </si>
+  <si>
+    <t>192.168.83.133</t>
+  </si>
+  <si>
+    <t>192.168.83.132</t>
+  </si>
+  <si>
+    <t>CEPH REPLICATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -692,6 +740,13 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -893,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1043,6 +1098,30 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,33 +1152,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,12 +1191,42 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1154,41 +1239,27 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,9 +1544,862 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B2:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.08984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.1796875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.08984375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="11.54296875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="11.26953125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="11.1796875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+    </row>
+    <row r="3" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="102"/>
+      <c r="K3" s="102"/>
+      <c r="L3" s="102"/>
+      <c r="M3" s="102"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="102"/>
+      <c r="P3" s="102"/>
+    </row>
+    <row r="4" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="105" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
+      <c r="N4" s="105"/>
+      <c r="O4" s="105"/>
+      <c r="P4" s="105"/>
+    </row>
+    <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="100" t="s">
+        <v>190</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="56">
+        <v>2</v>
+      </c>
+      <c r="L6" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+    </row>
+    <row r="7" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="68"/>
+      <c r="C7" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+    </row>
+    <row r="8" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="68"/>
+      <c r="C8" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="G8" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+    </row>
+    <row r="9" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="68"/>
+      <c r="C9" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+    </row>
+    <row r="10" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="68" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="56">
+        <v>4</v>
+      </c>
+      <c r="L10" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+    </row>
+    <row r="11" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="68"/>
+      <c r="C11" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+    </row>
+    <row r="12" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="68"/>
+      <c r="C12" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+    </row>
+    <row r="13" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="68"/>
+      <c r="C13" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+    </row>
+    <row r="14" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="100" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="56">
+        <v>4</v>
+      </c>
+      <c r="L14" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+    </row>
+    <row r="15" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="68"/>
+      <c r="C15" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>214</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+    </row>
+    <row r="16" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="68"/>
+      <c r="C16" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+    </row>
+    <row r="17" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="68"/>
+      <c r="C17" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K18" s="56">
+        <v>2</v>
+      </c>
+      <c r="L18" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="N18" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="68"/>
+      <c r="C19" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+    </row>
+    <row r="20" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="68"/>
+      <c r="C20" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="47" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+    </row>
+    <row r="21" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="100" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="56">
+        <v>2</v>
+      </c>
+      <c r="L21" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="N21" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="O21" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="P21" s="51"/>
+    </row>
+    <row r="22" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="68"/>
+      <c r="C22" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+    </row>
+    <row r="23" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="68"/>
+      <c r="C23" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="47" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+    </row>
+    <row r="24" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" s="56">
+        <v>2</v>
+      </c>
+      <c r="L24" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M24" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="N24" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="51"/>
+    </row>
+    <row r="25" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="68"/>
+      <c r="C25" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+    </row>
+    <row r="26" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="68"/>
+      <c r="C26" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+    </row>
+    <row r="27" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="52">
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="M24:M26"/>
+    <mergeCell ref="N24:N26"/>
+    <mergeCell ref="O24:O26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -1495,71 +2419,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>28</v>
@@ -1599,369 +2523,381 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
-        <v>180</v>
+      <c r="B6" s="68" t="s">
+        <v>164</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="61" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6" s="62">
+      <c r="J6" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="K6" s="56">
         <v>2</v>
       </c>
-      <c r="L6" s="63" t="s">
-        <v>188</v>
-      </c>
-      <c r="M6" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="L6" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="60"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="29" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="60"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="35" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="60"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="50" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="G9" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="67" t="s">
-        <v>181</v>
+      <c r="B10" s="52" t="s">
+        <v>165</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E10" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G10" s="44" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10" s="62">
+      <c r="J10" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K10" s="56">
         <v>4</v>
       </c>
-      <c r="L10" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
+      <c r="L10" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="29" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="35" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="68"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="50" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="49" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="G13" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
-        <v>182</v>
+      <c r="B14" s="52" t="s">
+        <v>166</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="E14" s="44" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G14" s="44" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="61" t="s">
-        <v>200</v>
-      </c>
-      <c r="K14" s="62">
+      <c r="J14" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="56">
         <v>4</v>
       </c>
-      <c r="L14" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="L14" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="68"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="29" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="68"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="35" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="69"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="50" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E17" s="48" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G17" s="48" t="s">
         <v>1</v>
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
     <mergeCell ref="O10:O13"/>
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="O14:O17"/>
@@ -1978,29 +2914,17 @@
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M10:M13"/>
     <mergeCell ref="N10:N13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -2021,44 +2945,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -2125,7 +3049,7 @@
       <c r="P5" s="72"/>
     </row>
     <row r="6" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -2168,7 +3092,7 @@
       <c r="P6" s="79"/>
     </row>
     <row r="7" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -2193,7 +3117,7 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
+      <c r="B8" s="53"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -2218,7 +3142,7 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="69"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -2260,7 +3184,7 @@
       <c r="P10" s="72"/>
     </row>
     <row r="11" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="52" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -2297,7 +3221,7 @@
       <c r="P11" s="79"/>
     </row>
     <row r="12" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -2322,7 +3246,7 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="68"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -2347,7 +3271,7 @@
       <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="69"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -2389,7 +3313,7 @@
       <c r="P15" s="72"/>
     </row>
     <row r="16" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="52" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -2426,7 +3350,7 @@
       <c r="P16" s="79"/>
     </row>
     <row r="17" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="68"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -2451,7 +3375,7 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="68"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -2476,7 +3400,7 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="69"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -2518,7 +3442,7 @@
       <c r="P20" s="72"/>
     </row>
     <row r="21" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -2559,7 +3483,7 @@
       <c r="P21" s="79"/>
     </row>
     <row r="22" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="68"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -2584,7 +3508,7 @@
       <c r="P22" s="80"/>
     </row>
     <row r="23" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="68"/>
+      <c r="B23" s="53"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -2609,7 +3533,7 @@
       <c r="P23" s="80"/>
     </row>
     <row r="24" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="69"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -2651,7 +3575,7 @@
       <c r="P25" s="72"/>
     </row>
     <row r="26" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="52" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -2692,7 +3616,7 @@
       <c r="P26" s="79"/>
     </row>
     <row r="27" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="68"/>
+      <c r="B27" s="53"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -2717,7 +3641,7 @@
       <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="68"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -2742,7 +3666,7 @@
       <c r="P28" s="80"/>
     </row>
     <row r="29" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="69"/>
+      <c r="B29" s="54"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -2784,7 +3708,7 @@
       <c r="P30" s="72"/>
     </row>
     <row r="31" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="52" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -2825,7 +3749,7 @@
       <c r="P31" s="79"/>
     </row>
     <row r="32" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="68"/>
+      <c r="B32" s="53"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -2850,7 +3774,7 @@
       <c r="P32" s="80"/>
     </row>
     <row r="33" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="68"/>
+      <c r="B33" s="53"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -2875,7 +3799,7 @@
       <c r="P33" s="80"/>
     </row>
     <row r="34" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="69"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -2901,51 +3825,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -2958,13 +3837,58 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2991,44 +3915,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -3078,25 +4002,25 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="96"/>
+      <c r="G5" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="82"/>
       <c r="I5" s="11"/>
       <c r="J5" s="73">
         <v>2</v>
@@ -3113,15 +4037,15 @@
       <c r="P5" s="79"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="68"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="12"/>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
@@ -3132,23 +4056,23 @@
       <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
-      <c r="C7" s="88" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="88" t="s">
+      <c r="D7" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="88"/>
+      <c r="G7" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="86"/>
       <c r="I7" s="9"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
@@ -3159,15 +4083,15 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="13"/>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
@@ -3178,11 +4102,11 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="68"/>
-      <c r="C9" s="82" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
@@ -3191,13 +4115,13 @@
       <c r="F9" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="82" t="s">
+      <c r="G9" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="82" t="s">
+      <c r="I9" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J9" s="74"/>
@@ -3209,16 +4133,16 @@
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="68"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="93"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
       <c r="J10" s="74"/>
       <c r="K10" s="74"/>
       <c r="L10" s="77"/>
@@ -3228,24 +4152,24 @@
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
+      <c r="G11" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="77"/>
@@ -3255,16 +4179,16 @@
       <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="68"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="75"/>
       <c r="K12" s="75"/>
       <c r="L12" s="77"/>
@@ -3274,25 +4198,25 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="96" t="s">
+      <c r="C13" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="96" t="s">
+      <c r="D13" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="96"/>
+      <c r="G13" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="82"/>
       <c r="I13" s="11"/>
       <c r="J13" s="73">
         <v>2</v>
@@ -3309,15 +4233,15 @@
       <c r="P13" s="79"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="68"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="12"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
@@ -3328,23 +4252,23 @@
       <c r="P14" s="80"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="68"/>
-      <c r="C15" s="88" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="90" t="s">
+      <c r="F15" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="88"/>
+      <c r="G15" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="86"/>
       <c r="I15" s="9"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
@@ -3355,15 +4279,15 @@
       <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="68"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="89"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
       <c r="I16" s="13"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
@@ -3374,11 +4298,11 @@
       <c r="P16" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="68"/>
-      <c r="C17" s="82" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
@@ -3387,13 +4311,13 @@
       <c r="F17" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="82" t="s">
+      <c r="G17" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="74"/>
@@ -3405,16 +4329,16 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="68"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F18" s="93"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
       <c r="L18" s="77"/>
@@ -3424,24 +4348,24 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="68"/>
-      <c r="C19" s="84" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
+      <c r="G19" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="94"/>
+      <c r="I19" s="94"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="77"/>
@@ -3451,16 +4375,16 @@
       <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="69"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
       <c r="J20" s="75"/>
       <c r="K20" s="75"/>
       <c r="L20" s="78"/>
@@ -3470,44 +4394,44 @@
       <c r="P20" s="81"/>
     </row>
     <row r="21" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="53"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="60"/>
+      <c r="O21" s="60"/>
+      <c r="P21" s="61"/>
     </row>
     <row r="22" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="57" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="59"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="67"/>
     </row>
     <row r="23" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
@@ -3557,26 +4481,26 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="94" t="s">
+      <c r="F24" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="96"/>
-      <c r="I24" s="96"/>
+      <c r="G24" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="73">
         <v>2</v>
       </c>
@@ -3592,16 +4516,16 @@
       <c r="P24" s="79"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="68"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="95"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
       <c r="L25" s="77"/>
@@ -3611,26 +4535,26 @@
       <c r="P25" s="80"/>
     </row>
     <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="68"/>
-      <c r="C26" s="82" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F26" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="82" t="s">
+      <c r="G26" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="74"/>
@@ -3642,16 +4566,16 @@
       <c r="P26" s="80"/>
     </row>
     <row r="27" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="68"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F27" s="93"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
       <c r="L27" s="77"/>
@@ -3661,26 +4585,26 @@
       <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="94" t="s">
+      <c r="F28" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
+      <c r="G28" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="82"/>
+      <c r="I28" s="82"/>
       <c r="J28" s="73">
         <v>2</v>
       </c>
@@ -3696,16 +4620,16 @@
       <c r="P28" s="79"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="68"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
       <c r="J29" s="74"/>
       <c r="K29" s="74"/>
       <c r="L29" s="77"/>
@@ -3715,26 +4639,26 @@
       <c r="P29" s="80"/>
     </row>
     <row r="30" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="68"/>
-      <c r="C30" s="82" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="82" t="s">
+      <c r="D30" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="82" t="s">
+      <c r="G30" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="82" t="s">
+      <c r="I30" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J30" s="74"/>
@@ -3746,16 +4670,16 @@
       <c r="P30" s="80"/>
     </row>
     <row r="31" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="68"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F31" s="93"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="74"/>
       <c r="K31" s="74"/>
       <c r="L31" s="77"/>
@@ -3765,26 +4689,26 @@
       <c r="P31" s="80"/>
     </row>
     <row r="32" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="96" t="s">
+      <c r="C32" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
+      <c r="G32" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
       <c r="J32" s="73">
         <v>2</v>
       </c>
@@ -3800,16 +4724,16 @@
       <c r="P32" s="79"/>
     </row>
     <row r="33" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B33" s="68"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="95"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="83"/>
       <c r="J33" s="74"/>
       <c r="K33" s="74"/>
       <c r="L33" s="77"/>
@@ -3819,26 +4743,26 @@
       <c r="P33" s="80"/>
     </row>
     <row r="34" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="68"/>
-      <c r="C34" s="82" t="s">
+      <c r="B34" s="53"/>
+      <c r="C34" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="82" t="s">
+      <c r="D34" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="82" t="s">
+      <c r="E34" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F34" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="82" t="s">
+      <c r="G34" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J34" s="74"/>
@@ -3850,16 +4774,16 @@
       <c r="P34" s="80"/>
     </row>
     <row r="35" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="69"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83" t="s">
+      <c r="B35" s="54"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F35" s="93"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="75"/>
       <c r="K35" s="75"/>
       <c r="L35" s="78"/>
@@ -3869,44 +4793,44 @@
       <c r="P35" s="81"/>
     </row>
     <row r="36" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B36" s="51" t="s">
+      <c r="B36" s="59" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="53"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="61"/>
     </row>
     <row r="37" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="58"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="59"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="67"/>
     </row>
     <row r="38" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
@@ -3956,26 +4880,26 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B39" s="67" t="s">
+      <c r="B39" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="96" t="s">
+      <c r="C39" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="96" t="s">
+      <c r="D39" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="94" t="s">
+      <c r="F39" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="96"/>
-      <c r="I39" s="96"/>
+      <c r="G39" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="82"/>
+      <c r="I39" s="82"/>
       <c r="J39" s="73">
         <v>2</v>
       </c>
@@ -3991,16 +4915,16 @@
       <c r="P39" s="79"/>
     </row>
     <row r="40" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B40" s="68"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="83"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="95"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="74"/>
       <c r="K40" s="74"/>
       <c r="L40" s="77"/>
@@ -4010,26 +4934,26 @@
       <c r="P40" s="80"/>
     </row>
     <row r="41" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="68"/>
-      <c r="C41" s="82" t="s">
+      <c r="B41" s="53"/>
+      <c r="C41" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="82" t="s">
+      <c r="E41" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="82" t="s">
+      <c r="G41" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="82" t="s">
+      <c r="I41" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J41" s="74"/>
@@ -4041,16 +4965,16 @@
       <c r="P41" s="80"/>
     </row>
     <row r="42" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="68"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83" t="s">
+      <c r="B42" s="53"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="91"/>
+      <c r="E42" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F42" s="93"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="91"/>
       <c r="J42" s="74"/>
       <c r="K42" s="74"/>
       <c r="L42" s="77"/>
@@ -4060,26 +4984,26 @@
       <c r="P42" s="80"/>
     </row>
     <row r="43" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="96" t="s">
+      <c r="C43" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="96" t="s">
+      <c r="D43" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="94" t="s">
+      <c r="F43" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
+      <c r="G43" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
       <c r="J43" s="73">
         <v>2</v>
       </c>
@@ -4095,16 +5019,16 @@
       <c r="P43" s="79"/>
     </row>
     <row r="44" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B44" s="68"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="95"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="83"/>
       <c r="J44" s="74"/>
       <c r="K44" s="74"/>
       <c r="L44" s="77"/>
@@ -4114,26 +5038,26 @@
       <c r="P44" s="80"/>
     </row>
     <row r="45" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="68"/>
-      <c r="C45" s="82" t="s">
+      <c r="B45" s="53"/>
+      <c r="C45" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="82" t="s">
+      <c r="E45" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F45" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="82" t="s">
+      <c r="G45" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="82" t="s">
+      <c r="I45" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J45" s="74"/>
@@ -4145,16 +5069,16 @@
       <c r="P45" s="80"/>
     </row>
     <row r="46" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="68"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83" t="s">
+      <c r="B46" s="53"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="91"/>
+      <c r="E46" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F46" s="93"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
+      <c r="G46" s="91"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="77"/>
@@ -4164,26 +5088,26 @@
       <c r="P46" s="80"/>
     </row>
     <row r="47" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B47" s="67" t="s">
+      <c r="B47" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="96" t="s">
+      <c r="C47" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="96" t="s">
+      <c r="D47" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="94" t="s">
+      <c r="F47" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="96"/>
-      <c r="I47" s="96"/>
+      <c r="G47" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
       <c r="J47" s="73">
         <v>2</v>
       </c>
@@ -4199,16 +5123,16 @@
       <c r="P47" s="79"/>
     </row>
     <row r="48" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B48" s="68"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="83"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="95"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="83"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
       <c r="J48" s="74"/>
       <c r="K48" s="74"/>
       <c r="L48" s="77"/>
@@ -4218,26 +5142,26 @@
       <c r="P48" s="80"/>
     </row>
     <row r="49" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="68"/>
-      <c r="C49" s="82" t="s">
+      <c r="B49" s="53"/>
+      <c r="C49" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="82" t="s">
+      <c r="D49" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="82" t="s">
+      <c r="E49" s="90" t="s">
         <v>34</v>
       </c>
       <c r="F49" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="82" t="s">
+      <c r="G49" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="82" t="s">
+      <c r="I49" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J49" s="74"/>
@@ -4249,16 +5173,16 @@
       <c r="P49" s="80"/>
     </row>
     <row r="50" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="69"/>
-      <c r="C50" s="83"/>
-      <c r="D50" s="83"/>
-      <c r="E50" s="83" t="s">
+      <c r="B50" s="54"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="91" t="s">
         <v>35</v>
       </c>
       <c r="F50" s="93"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="G50" s="91"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
       <c r="J50" s="75"/>
       <c r="K50" s="75"/>
       <c r="L50" s="78"/>
@@ -4268,44 +5192,44 @@
       <c r="P50" s="81"/>
     </row>
     <row r="51" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B51" s="51" t="s">
+      <c r="B51" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="52"/>
-      <c r="K51" s="52"/>
-      <c r="L51" s="52"/>
-      <c r="M51" s="52"/>
-      <c r="N51" s="52"/>
-      <c r="O51" s="52"/>
-      <c r="P51" s="53"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="61"/>
     </row>
     <row r="52" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="55"/>
-      <c r="H52" s="55"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="57" t="s">
+      <c r="C52" s="63"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="59"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="66"/>
+      <c r="P52" s="67"/>
     </row>
     <row r="53" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -4355,25 +5279,25 @@
       </c>
     </row>
     <row r="54" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B54" s="67" t="s">
+      <c r="B54" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="96" t="s">
+      <c r="C54" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="96" t="s">
+      <c r="D54" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="94" t="s">
+      <c r="F54" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="96"/>
+      <c r="G54" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="82"/>
       <c r="I54" s="11"/>
       <c r="J54" s="73">
         <v>2</v>
@@ -4390,15 +5314,15 @@
       <c r="P54" s="79"/>
     </row>
     <row r="55" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B55" s="68"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="95"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="83"/>
+      <c r="H55" s="83"/>
       <c r="I55" s="12"/>
       <c r="J55" s="74"/>
       <c r="K55" s="74"/>
@@ -4409,23 +5333,23 @@
       <c r="P55" s="80"/>
     </row>
     <row r="56" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B56" s="68"/>
-      <c r="C56" s="88" t="s">
+      <c r="B56" s="53"/>
+      <c r="C56" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="88" t="s">
+      <c r="D56" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="90" t="s">
+      <c r="F56" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="88"/>
+      <c r="G56" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="86"/>
       <c r="I56" s="9"/>
       <c r="J56" s="74"/>
       <c r="K56" s="74"/>
@@ -4436,15 +5360,15 @@
       <c r="P56" s="80"/>
     </row>
     <row r="57" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B57" s="68"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="91"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
       <c r="I57" s="13"/>
       <c r="J57" s="74"/>
       <c r="K57" s="74"/>
@@ -4455,11 +5379,11 @@
       <c r="P57" s="80"/>
     </row>
     <row r="58" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B58" s="68"/>
-      <c r="C58" s="82" t="s">
+      <c r="B58" s="53"/>
+      <c r="C58" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="82" t="s">
+      <c r="D58" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
@@ -4468,13 +5392,13 @@
       <c r="F58" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="82" t="s">
+      <c r="G58" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="82" t="s">
+      <c r="I58" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J58" s="74"/>
@@ -4486,16 +5410,16 @@
       <c r="P58" s="80"/>
     </row>
     <row r="59" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B59" s="68"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="91"/>
+      <c r="D59" s="91"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F59" s="93"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
       <c r="J59" s="74"/>
       <c r="K59" s="74"/>
       <c r="L59" s="77"/>
@@ -4505,24 +5429,24 @@
       <c r="P59" s="80"/>
     </row>
     <row r="60" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B60" s="68"/>
-      <c r="C60" s="84" t="s">
+      <c r="B60" s="53"/>
+      <c r="C60" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="86" t="s">
+      <c r="F60" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
+      <c r="G60" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="94"/>
+      <c r="I60" s="94"/>
       <c r="J60" s="74"/>
       <c r="K60" s="74"/>
       <c r="L60" s="77"/>
@@ -4532,16 +5456,16 @@
       <c r="P60" s="80"/>
     </row>
     <row r="61" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B61" s="68"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="95"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
       <c r="J61" s="75"/>
       <c r="K61" s="75"/>
       <c r="L61" s="77"/>
@@ -4551,25 +5475,25 @@
       <c r="P61" s="80"/>
     </row>
     <row r="62" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B62" s="67" t="s">
+      <c r="B62" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="96" t="s">
+      <c r="C62" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="96" t="s">
+      <c r="D62" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="94" t="s">
+      <c r="F62" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="96"/>
+      <c r="G62" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="82"/>
       <c r="I62" s="11"/>
       <c r="J62" s="73">
         <v>2</v>
@@ -4586,15 +5510,15 @@
       <c r="P62" s="79"/>
     </row>
     <row r="63" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B63" s="68"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="83"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="95"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="83"/>
+      <c r="H63" s="83"/>
       <c r="I63" s="12"/>
       <c r="J63" s="74"/>
       <c r="K63" s="74"/>
@@ -4605,23 +5529,23 @@
       <c r="P63" s="80"/>
     </row>
     <row r="64" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B64" s="68"/>
-      <c r="C64" s="88" t="s">
+      <c r="B64" s="53"/>
+      <c r="C64" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="88" t="s">
+      <c r="D64" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="90" t="s">
+      <c r="F64" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="88"/>
+      <c r="G64" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="86"/>
       <c r="I64" s="9"/>
       <c r="J64" s="74"/>
       <c r="K64" s="74"/>
@@ -4632,15 +5556,15 @@
       <c r="P64" s="80"/>
     </row>
     <row r="65" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B65" s="68"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="89"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="91"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87"/>
       <c r="I65" s="13"/>
       <c r="J65" s="74"/>
       <c r="K65" s="74"/>
@@ -4651,11 +5575,11 @@
       <c r="P65" s="80"/>
     </row>
     <row r="66" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B66" s="68"/>
-      <c r="C66" s="82" t="s">
+      <c r="B66" s="53"/>
+      <c r="C66" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="82" t="s">
+      <c r="D66" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -4664,13 +5588,13 @@
       <c r="F66" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="82" t="s">
+      <c r="G66" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="82" t="s">
+      <c r="I66" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J66" s="74"/>
@@ -4682,16 +5606,16 @@
       <c r="P66" s="80"/>
     </row>
     <row r="67" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B67" s="68"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="91"/>
+      <c r="D67" s="91"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F67" s="93"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
+      <c r="G67" s="91"/>
+      <c r="H67" s="91"/>
+      <c r="I67" s="91"/>
       <c r="J67" s="74"/>
       <c r="K67" s="74"/>
       <c r="L67" s="77"/>
@@ -4701,24 +5625,24 @@
       <c r="P67" s="80"/>
     </row>
     <row r="68" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B68" s="68"/>
-      <c r="C68" s="84" t="s">
+      <c r="B68" s="53"/>
+      <c r="C68" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="84" t="s">
+      <c r="D68" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="86" t="s">
+      <c r="F68" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
+      <c r="G68" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="94"/>
+      <c r="I68" s="94"/>
       <c r="J68" s="74"/>
       <c r="K68" s="74"/>
       <c r="L68" s="77"/>
@@ -4728,16 +5652,16 @@
       <c r="P68" s="80"/>
     </row>
     <row r="69" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B69" s="69"/>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="95"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="95"/>
+      <c r="H69" s="95"/>
+      <c r="I69" s="95"/>
       <c r="J69" s="75"/>
       <c r="K69" s="75"/>
       <c r="L69" s="78"/>
@@ -4747,25 +5671,25 @@
       <c r="P69" s="81"/>
     </row>
     <row r="70" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B70" s="67" t="s">
+      <c r="B70" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="96" t="s">
+      <c r="C70" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="94" t="s">
+      <c r="F70" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="96"/>
+      <c r="G70" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="82"/>
       <c r="I70" s="11"/>
       <c r="J70" s="73">
         <v>2</v>
@@ -4782,15 +5706,15 @@
       <c r="P70" s="79"/>
     </row>
     <row r="71" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B71" s="68"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="95"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="12"/>
       <c r="J71" s="74"/>
       <c r="K71" s="74"/>
@@ -4801,23 +5725,23 @@
       <c r="P71" s="80"/>
     </row>
     <row r="72" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B72" s="68"/>
-      <c r="C72" s="88" t="s">
+      <c r="B72" s="53"/>
+      <c r="C72" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="88" t="s">
+      <c r="D72" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="90" t="s">
+      <c r="F72" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="88"/>
+      <c r="G72" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="86"/>
       <c r="I72" s="9"/>
       <c r="J72" s="74"/>
       <c r="K72" s="74"/>
@@ -4828,15 +5752,15 @@
       <c r="P72" s="80"/>
     </row>
     <row r="73" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B73" s="68"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="91"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
       <c r="I73" s="13"/>
       <c r="J73" s="74"/>
       <c r="K73" s="74"/>
@@ -4847,11 +5771,11 @@
       <c r="P73" s="80"/>
     </row>
     <row r="74" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B74" s="68"/>
-      <c r="C74" s="82" t="s">
+      <c r="B74" s="53"/>
+      <c r="C74" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="82" t="s">
+      <c r="D74" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
@@ -4860,13 +5784,13 @@
       <c r="F74" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="82" t="s">
+      <c r="G74" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="82" t="s">
+      <c r="I74" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J74" s="74"/>
@@ -4878,16 +5802,16 @@
       <c r="P74" s="80"/>
     </row>
     <row r="75" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B75" s="68"/>
-      <c r="C75" s="83"/>
-      <c r="D75" s="83"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
       <c r="F75" s="93"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="83"/>
-      <c r="I75" s="83"/>
+      <c r="G75" s="91"/>
+      <c r="H75" s="91"/>
+      <c r="I75" s="91"/>
       <c r="J75" s="74"/>
       <c r="K75" s="74"/>
       <c r="L75" s="77"/>
@@ -4897,24 +5821,24 @@
       <c r="P75" s="80"/>
     </row>
     <row r="76" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B76" s="68"/>
-      <c r="C76" s="84" t="s">
+      <c r="B76" s="53"/>
+      <c r="C76" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="84" t="s">
+      <c r="D76" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="86" t="s">
+      <c r="F76" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
+      <c r="G76" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
       <c r="J76" s="74"/>
       <c r="K76" s="74"/>
       <c r="L76" s="77"/>
@@ -4924,16 +5848,16 @@
       <c r="P76" s="80"/>
     </row>
     <row r="77" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B77" s="69"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="95"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="87"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="95"/>
+      <c r="H77" s="95"/>
+      <c r="I77" s="95"/>
       <c r="J77" s="75"/>
       <c r="K77" s="75"/>
       <c r="L77" s="78"/>
@@ -4944,29 +5868,247 @@
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="P62:P69"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="J62:J69"/>
+    <mergeCell ref="K62:K69"/>
+    <mergeCell ref="L62:L69"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="M62:M69"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
     <mergeCell ref="B13:B20"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="D13:D14"/>
@@ -4991,254 +6133,36 @@
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="P62:P69"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="J62:J69"/>
-    <mergeCell ref="K62:K69"/>
-    <mergeCell ref="L62:L69"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="M62:M69"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P22"/>
   <sheetViews>
@@ -5262,44 +6186,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="57" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -5349,28 +6273,28 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="90" t="s">
+      <c r="F5" s="88" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="88" t="s">
+      <c r="G5" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="88" t="s">
+      <c r="I5" s="86" t="s">
         <v>7</v>
       </c>
       <c r="J5" s="74"/>
@@ -5382,16 +6306,16 @@
       <c r="P5" s="80"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="68"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="74"/>
       <c r="K6" s="74"/>
       <c r="L6" s="77"/>
@@ -5401,11 +6325,11 @@
       <c r="P6" s="80"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="53"/>
+      <c r="C7" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
@@ -5414,11 +6338,11 @@
       <c r="F7" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
+      <c r="G7" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
       <c r="L7" s="77"/>
@@ -5428,16 +6352,16 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="93"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
       <c r="L8" s="77"/>
@@ -5447,7 +6371,7 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="68"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="98" t="s">
         <v>89</v>
       </c>
@@ -5474,16 +6398,16 @@
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="68"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="75"/>
       <c r="K10" s="75"/>
       <c r="L10" s="77"/>
@@ -5493,28 +6417,28 @@
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="90" t="s">
+      <c r="F11" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="88" t="s">
+      <c r="G11" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="88" t="s">
+      <c r="I11" s="86" t="s">
         <v>7</v>
       </c>
       <c r="J11" s="74"/>
@@ -5526,16 +6450,16 @@
       <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="68"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="77"/>
@@ -5545,11 +6469,11 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="68"/>
-      <c r="C13" s="82" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
@@ -5558,11 +6482,11 @@
       <c r="F13" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
+      <c r="G13" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
       <c r="J13" s="74"/>
       <c r="K13" s="74"/>
       <c r="L13" s="77"/>
@@ -5572,16 +6496,16 @@
       <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="68"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="93"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
       <c r="J14" s="74"/>
       <c r="K14" s="74"/>
       <c r="L14" s="77"/>
@@ -5591,7 +6515,7 @@
       <c r="P14" s="80"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="68"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="98" t="s">
         <v>89</v>
       </c>
@@ -5604,11 +6528,11 @@
       <c r="F15" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
+      <c r="G15" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
       <c r="L15" s="77"/>
@@ -5618,16 +6542,16 @@
       <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="69"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="87"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="75"/>
       <c r="K16" s="75"/>
       <c r="L16" s="78"/>
@@ -5637,28 +6561,28 @@
       <c r="P16" s="81"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="88" t="s">
+      <c r="D17" s="86" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="90" t="s">
+      <c r="F17" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="88" t="s">
+      <c r="G17" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="88" t="s">
+      <c r="I17" s="86" t="s">
         <v>7</v>
       </c>
       <c r="J17" s="74"/>
@@ -5670,16 +6594,16 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="68"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="89"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="91"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
       <c r="J18" s="74"/>
       <c r="K18" s="74"/>
       <c r="L18" s="77"/>
@@ -5689,11 +6613,11 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="68"/>
-      <c r="C19" s="82" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="82" t="s">
+      <c r="D19" s="90" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
@@ -5702,11 +6626,11 @@
       <c r="F19" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
+      <c r="G19" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="77"/>
@@ -5716,16 +6640,16 @@
       <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="68"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F20" s="93"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
       <c r="L20" s="77"/>
@@ -5735,7 +6659,7 @@
       <c r="P20" s="80"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="68"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="98" t="s">
         <v>89</v>
       </c>
@@ -5748,11 +6672,11 @@
       <c r="F21" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="G21" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="74"/>
       <c r="K21" s="74"/>
       <c r="L21" s="77"/>
@@ -5762,16 +6686,16 @@
       <c r="P21" s="80"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="69"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="75"/>
       <c r="K22" s="75"/>
       <c r="L22" s="78"/>
@@ -5782,18 +6706,59 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P5:P10"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="J5:J10"/>
+    <mergeCell ref="K5:K10"/>
+    <mergeCell ref="L5:L10"/>
+    <mergeCell ref="M5:M10"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="O5:O10"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="P17:P22"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
@@ -5810,597 +6775,21 @@
     <mergeCell ref="M17:M22"/>
     <mergeCell ref="N17:N22"/>
     <mergeCell ref="C21:C22"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P5:P10"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="J5:J10"/>
-    <mergeCell ref="K5:K10"/>
-    <mergeCell ref="L5:L10"/>
-    <mergeCell ref="M5:M10"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="O5:O10"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O21"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.1796875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="53"/>
-    </row>
-    <row r="3" spans="2:15" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-    </row>
-    <row r="4" spans="2:15" ht="32" x14ac:dyDescent="0.35">
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="72"/>
-    </row>
-    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="67" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="73">
-        <v>6</v>
-      </c>
-      <c r="J6" s="73">
-        <v>2</v>
-      </c>
-      <c r="K6" s="76">
-        <v>40</v>
-      </c>
-      <c r="L6" s="79">
-        <v>50</v>
-      </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-    </row>
-    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
-      <c r="C7" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-    </row>
-    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="69"/>
-      <c r="C8" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-    </row>
-    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="72"/>
-    </row>
-    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="67" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="73">
-        <v>4</v>
-      </c>
-      <c r="J10" s="73">
-        <v>4</v>
-      </c>
-      <c r="K10" s="76">
-        <v>50</v>
-      </c>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-    </row>
-    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
-      <c r="C11" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-    </row>
-    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="69"/>
-      <c r="C12" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-    </row>
-    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="72"/>
-    </row>
-    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="73">
-        <v>4</v>
-      </c>
-      <c r="J14" s="73">
-        <v>4</v>
-      </c>
-      <c r="K14" s="76">
-        <v>50</v>
-      </c>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-    </row>
-    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="68"/>
-      <c r="C15" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-    </row>
-    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="69"/>
-      <c r="C16" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="F16" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="81"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-    </row>
-    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="72"/>
-    </row>
-    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="67"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-    </row>
-    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="68"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-    </row>
-    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="68"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-    </row>
-    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="72"/>
-    </row>
-  </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K14:K16"/>
-    <mergeCell ref="L14:L16"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6431,61 +6820,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -6495,7 +6884,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>28</v>
@@ -6535,98 +6924,98 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="68" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E6" s="44" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F6" s="45" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>1</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="60"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="60"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="35" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="G8" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
     </row>
     <row r="9" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="60"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="50" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E9" s="48" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F9" s="49" t="s">
         <v>62</v>
@@ -6635,112 +7024,112 @@
         <v>1</v>
       </c>
       <c r="H9" s="48" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
     </row>
     <row r="10" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="60" t="s">
-        <v>173</v>
+      <c r="B10" s="68" t="s">
+        <v>157</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E10" s="44" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="G10" s="44" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="60"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="60"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="35" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G12" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="60"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="50" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F13" s="49" t="s">
         <v>64</v>
@@ -6749,112 +7138,112 @@
         <v>1</v>
       </c>
       <c r="H13" s="48" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="I13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
     </row>
     <row r="14" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="60" t="s">
-        <v>174</v>
+      <c r="B14" s="68" t="s">
+        <v>158</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G14" s="44" t="s">
         <v>1</v>
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="60"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="E15" s="29" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>1</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="60"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="47" t="s">
         <v>152</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="47" t="s">
-        <v>168</v>
       </c>
       <c r="G16" s="35" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="60"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="50" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="D17" s="48" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="E17" s="48" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F17" s="49" t="s">
         <v>66</v>
@@ -6863,21 +7252,37 @@
         <v>1</v>
       </c>
       <c r="H17" s="48" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="I17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
@@ -6890,22 +7295,6 @@
     <mergeCell ref="L6:L9"/>
     <mergeCell ref="M6:M9"/>
     <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6939,63 +7328,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="61"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="53"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="60"/>
+      <c r="O3" s="60"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="58"/>
-      <c r="O4" s="58"/>
-      <c r="P4" s="59"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -7045,25 +7434,25 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="96" t="s">
+      <c r="D6" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="96"/>
+      <c r="G6" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="82"/>
       <c r="I6" s="11"/>
       <c r="J6" s="73">
         <v>2</v>
@@ -7080,15 +7469,15 @@
       <c r="P6" s="79"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
       <c r="E7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="12"/>
       <c r="J7" s="74"/>
       <c r="K7" s="74"/>
@@ -7099,23 +7488,23 @@
       <c r="P7" s="80"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
-      <c r="C8" s="88" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="90" t="s">
+      <c r="F8" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="88"/>
+      <c r="G8" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="86"/>
       <c r="I8" s="9"/>
       <c r="J8" s="74"/>
       <c r="K8" s="74"/>
@@ -7126,15 +7515,15 @@
       <c r="P8" s="80"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="68"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="13"/>
       <c r="J9" s="74"/>
       <c r="K9" s="74"/>
@@ -7145,11 +7534,11 @@
       <c r="P9" s="80"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="68"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="36" t="s">
@@ -7158,13 +7547,13 @@
       <c r="F10" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="82" t="s">
+      <c r="G10" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J10" s="74"/>
@@ -7176,16 +7565,16 @@
       <c r="P10" s="80"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="91"/>
       <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="93"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
       <c r="J11" s="74"/>
       <c r="K11" s="74"/>
       <c r="L11" s="77"/>
@@ -7195,24 +7584,24 @@
       <c r="P11" s="80"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="68"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="86" t="s">
+      <c r="F12" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
+      <c r="G12" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="74"/>
       <c r="K12" s="74"/>
       <c r="L12" s="77"/>
@@ -7222,16 +7611,16 @@
       <c r="P12" s="80"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="68"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="75"/>
       <c r="K13" s="75"/>
       <c r="L13" s="77"/>
@@ -7241,25 +7630,25 @@
       <c r="P13" s="80"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="96" t="s">
+      <c r="D14" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="94" t="s">
+      <c r="F14" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="96"/>
+      <c r="G14" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="82"/>
       <c r="I14" s="11"/>
       <c r="J14" s="73">
         <v>2</v>
@@ -7276,15 +7665,15 @@
       <c r="P14" s="79"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="68"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
       <c r="E15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="I15" s="12"/>
       <c r="J15" s="74"/>
       <c r="K15" s="74"/>
@@ -7295,23 +7684,23 @@
       <c r="P15" s="80"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="68"/>
-      <c r="C16" s="88" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="88" t="s">
+      <c r="D16" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="88"/>
+      <c r="G16" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="86"/>
       <c r="I16" s="9"/>
       <c r="J16" s="74"/>
       <c r="K16" s="74"/>
@@ -7322,15 +7711,15 @@
       <c r="P16" s="80"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="68"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="89"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="91"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
       <c r="I17" s="13"/>
       <c r="J17" s="74"/>
       <c r="K17" s="74"/>
@@ -7341,11 +7730,11 @@
       <c r="P17" s="80"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="68"/>
-      <c r="C18" s="82" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
@@ -7354,13 +7743,13 @@
       <c r="F18" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="82" t="s">
+      <c r="G18" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="82" t="s">
+      <c r="I18" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J18" s="74"/>
@@ -7372,16 +7761,16 @@
       <c r="P18" s="80"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="68"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="83"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="93"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
       <c r="J19" s="74"/>
       <c r="K19" s="74"/>
       <c r="L19" s="77"/>
@@ -7391,24 +7780,24 @@
       <c r="P19" s="80"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="68"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="F20" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
+      <c r="G20" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
       <c r="J20" s="74"/>
       <c r="K20" s="74"/>
       <c r="L20" s="77"/>
@@ -7418,16 +7807,16 @@
       <c r="P20" s="80"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="69"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
       <c r="J21" s="75"/>
       <c r="K21" s="75"/>
       <c r="L21" s="78"/>
@@ -7437,25 +7826,25 @@
       <c r="P21" s="81"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="82" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="94" t="s">
+      <c r="F22" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="96" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="96"/>
+      <c r="G22" s="82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="82"/>
       <c r="I22" s="11"/>
       <c r="J22" s="73">
         <v>2</v>
@@ -7472,15 +7861,15 @@
       <c r="P22" s="79"/>
     </row>
     <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B23" s="68"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
       <c r="E23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
       <c r="I23" s="12"/>
       <c r="J23" s="74"/>
       <c r="K23" s="74"/>
@@ -7491,23 +7880,23 @@
       <c r="P23" s="80"/>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="68"/>
-      <c r="C24" s="88" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="88" t="s">
+      <c r="D24" s="86" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="90" t="s">
+      <c r="F24" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="88"/>
+      <c r="G24" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="86"/>
       <c r="I24" s="9"/>
       <c r="J24" s="74"/>
       <c r="K24" s="74"/>
@@ -7518,15 +7907,15 @@
       <c r="P24" s="80"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="68"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="91"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="13"/>
       <c r="J25" s="74"/>
       <c r="K25" s="74"/>
@@ -7537,11 +7926,11 @@
       <c r="P25" s="80"/>
     </row>
     <row r="26" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B26" s="68"/>
-      <c r="C26" s="82" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="90" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="36" t="s">
@@ -7550,13 +7939,13 @@
       <c r="F26" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="82" t="s">
+      <c r="G26" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="82" t="s">
+      <c r="I26" s="90" t="s">
         <v>7</v>
       </c>
       <c r="J26" s="74"/>
@@ -7568,16 +7957,16 @@
       <c r="P26" s="80"/>
     </row>
     <row r="27" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B27" s="68"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
       <c r="E27" s="37" t="s">
         <v>40</v>
       </c>
       <c r="F27" s="93"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="74"/>
       <c r="K27" s="74"/>
       <c r="L27" s="77"/>
@@ -7587,24 +7976,24 @@
       <c r="P27" s="80"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="68"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="94" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="86" t="s">
+      <c r="F28" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
+      <c r="G28" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
       <c r="J28" s="74"/>
       <c r="K28" s="74"/>
       <c r="L28" s="77"/>
@@ -7614,16 +8003,16 @@
       <c r="P28" s="80"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="69"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
       <c r="E29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="87"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
       <c r="J29" s="75"/>
       <c r="K29" s="75"/>
       <c r="L29" s="78"/>
@@ -7634,6 +8023,84 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="P22:P29"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="J22:J29"/>
+    <mergeCell ref="K22:K29"/>
+    <mergeCell ref="L22:L29"/>
+    <mergeCell ref="M22:M29"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="O22:O29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="P14:P21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="O14:O21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="O6:O13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="N6:N13"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="J6:J13"/>
     <mergeCell ref="B2:P2"/>
@@ -7650,84 +8117,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="O6:O13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="P14:P21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="O14:O21"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="O22:O29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="P22:P29"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="J22:J29"/>
-    <mergeCell ref="K22:K29"/>
-    <mergeCell ref="L22:L29"/>
-    <mergeCell ref="M22:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="224">
   <si>
     <t>IP Address</t>
   </si>
@@ -702,13 +702,19 @@
   </si>
   <si>
     <t>CEPH REPLICATE</t>
+  </si>
+  <si>
+    <t>CEPH PUBLIC</t>
+  </si>
+  <si>
+    <t>/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +751,12 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -948,7 +960,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1098,9 +1110,70 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1110,51 +1183,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,75 +1219,62 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1547,83 +1562,82 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1796875" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7265625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" style="2" customWidth="1"/>
-    <col min="13" max="14" width="11.54296875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.26953125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="11.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
     </row>
     <row r="3" spans="2:16" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102"/>
-      <c r="P3" s="102"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="105" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -1672,8 +1686,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="68" t="s">
+    <row r="6" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="55" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -1685,11 +1699,11 @@
       <c r="E6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="100" t="s">
+      <c r="F6" s="106" t="s">
         <v>190</v>
       </c>
       <c r="G6" s="44" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H6" s="44" t="s">
         <v>194</v>
@@ -1697,78 +1711,78 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="57">
         <v>2</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-    </row>
-    <row r="7" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+    </row>
+    <row r="7" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="55"/>
       <c r="C7" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E7" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="46" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>1</v>
+        <v>192</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-    </row>
-    <row r="8" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+    </row>
+    <row r="8" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="55"/>
       <c r="C8" s="35" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>1</v>
+        <v>191</v>
+      </c>
+      <c r="G8" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-    </row>
-    <row r="9" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="68"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+    </row>
+    <row r="9" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="55"/>
       <c r="C9" s="50" t="s">
         <v>163</v>
       </c>
@@ -1781,21 +1795,21 @@
       <c r="F9" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="G9" s="48" t="s">
-        <v>1</v>
+      <c r="G9" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-    </row>
-    <row r="10" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="68" t="s">
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+    </row>
+    <row r="10" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="55" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -1807,11 +1821,11 @@
       <c r="E10" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="51" t="s">
         <v>209</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H10" s="44" t="s">
         <v>194</v>
@@ -1819,76 +1833,76 @@
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="57">
         <v>4</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-    </row>
-    <row r="11" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+    </row>
+    <row r="11" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="55"/>
       <c r="C11" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E11" s="29" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="29" t="s">
-        <v>1</v>
+        <v>211</v>
+      </c>
+      <c r="G11" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-    </row>
-    <row r="12" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+    </row>
+    <row r="12" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="55"/>
       <c r="C12" s="35" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>34</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>1</v>
+        <v>210</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-    </row>
-    <row r="13" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="68"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+    </row>
+    <row r="13" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="55"/>
       <c r="C13" s="50" t="s">
         <v>163</v>
       </c>
@@ -1901,21 +1915,21 @@
       <c r="F13" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="G13" s="48" t="s">
-        <v>1</v>
+      <c r="G13" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-    </row>
-    <row r="14" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="68" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="55" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -1927,11 +1941,11 @@
       <c r="E14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="51" t="s">
         <v>213</v>
       </c>
       <c r="G14" s="44" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>194</v>
@@ -1939,27 +1953,27 @@
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="57">
         <v>4</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-    </row>
-    <row r="15" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="68"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="55"/>
       <c r="C15" s="29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E15" s="29" t="s">
         <v>26</v>
@@ -1967,26 +1981,26 @@
       <c r="F15" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>1</v>
+      <c r="G15" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-    </row>
-    <row r="16" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="68"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+    </row>
+    <row r="16" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="55"/>
       <c r="C16" s="35" t="s">
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>34</v>
@@ -1994,21 +2008,21 @@
       <c r="F16" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>1</v>
+      <c r="G16" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-    </row>
-    <row r="17" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="68"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+    </row>
+    <row r="17" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="55"/>
       <c r="C17" s="50" t="s">
         <v>163</v>
       </c>
@@ -2021,21 +2035,21 @@
       <c r="F17" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="G17" s="48" t="s">
-        <v>1</v>
+      <c r="G17" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-    </row>
-    <row r="18" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="68" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+    </row>
+    <row r="18" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="55" t="s">
         <v>195</v>
       </c>
       <c r="C18" s="44" t="s">
@@ -2047,11 +2061,11 @@
       <c r="E18" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="51" t="s">
         <v>200</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H18" s="44" t="s">
         <v>194</v>
@@ -2059,28 +2073,28 @@
       <c r="I18" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="55" t="s">
+      <c r="J18" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="57">
         <v>2</v>
       </c>
-      <c r="L18" s="57" t="s">
+      <c r="L18" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M18" s="69" t="s">
+      <c r="M18" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="N18" s="69" t="s">
+      <c r="N18" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="O18" s="69" t="s">
+      <c r="O18" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="P18" s="51"/>
-    </row>
-    <row r="19" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="68"/>
+      <c r="P18" s="54"/>
+    </row>
+    <row r="19" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="55"/>
       <c r="C19" s="29" t="s">
         <v>161</v>
       </c>
@@ -2093,21 +2107,21 @@
       <c r="F19" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>1</v>
+      <c r="G19" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-    </row>
-    <row r="20" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="68"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+    </row>
+    <row r="20" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="55"/>
       <c r="C20" s="35" t="s">
         <v>221</v>
       </c>
@@ -2120,21 +2134,21 @@
       <c r="F20" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="G20" s="35" t="s">
-        <v>1</v>
+      <c r="G20" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="51"/>
-      <c r="N20" s="51"/>
-      <c r="O20" s="51"/>
-      <c r="P20" s="51"/>
-    </row>
-    <row r="21" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="68" t="s">
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+    </row>
+    <row r="21" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="55" t="s">
         <v>202</v>
       </c>
       <c r="C21" s="44" t="s">
@@ -2146,11 +2160,11 @@
       <c r="E21" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="100" t="s">
+      <c r="F21" s="51" t="s">
         <v>203</v>
       </c>
       <c r="G21" s="44" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H21" s="44" t="s">
         <v>194</v>
@@ -2158,28 +2172,28 @@
       <c r="I21" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="55" t="s">
+      <c r="J21" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="57">
         <v>2</v>
       </c>
-      <c r="L21" s="57" t="s">
+      <c r="L21" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M21" s="69" t="s">
+      <c r="M21" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="N21" s="69" t="s">
+      <c r="N21" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="O21" s="69" t="s">
+      <c r="O21" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="P21" s="51"/>
-    </row>
-    <row r="22" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="68"/>
+      <c r="P21" s="54"/>
+    </row>
+    <row r="22" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="55"/>
       <c r="C22" s="29" t="s">
         <v>161</v>
       </c>
@@ -2192,21 +2206,21 @@
       <c r="F22" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>1</v>
+      <c r="G22" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-    </row>
-    <row r="23" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="68"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+    </row>
+    <row r="23" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="55"/>
       <c r="C23" s="35" t="s">
         <v>221</v>
       </c>
@@ -2219,21 +2233,21 @@
       <c r="F23" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>1</v>
+      <c r="G23" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="51"/>
-      <c r="N23" s="51"/>
-      <c r="O23" s="51"/>
-      <c r="P23" s="51"/>
-    </row>
-    <row r="24" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="68" t="s">
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+    </row>
+    <row r="24" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="55" t="s">
         <v>205</v>
       </c>
       <c r="C24" s="44" t="s">
@@ -2245,11 +2259,11 @@
       <c r="E24" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="100" t="s">
+      <c r="F24" s="51" t="s">
         <v>206</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>1</v>
+        <v>223</v>
       </c>
       <c r="H24" s="44" t="s">
         <v>194</v>
@@ -2257,28 +2271,28 @@
       <c r="I24" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="55" t="s">
+      <c r="J24" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K24" s="57">
         <v>2</v>
       </c>
-      <c r="L24" s="57" t="s">
+      <c r="L24" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M24" s="69" t="s">
+      <c r="M24" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="N24" s="69" t="s">
+      <c r="N24" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="O24" s="69" t="s">
+      <c r="O24" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="P24" s="51"/>
-    </row>
-    <row r="25" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="68"/>
+      <c r="P24" s="54"/>
+    </row>
+    <row r="25" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="55"/>
       <c r="C25" s="29" t="s">
         <v>161</v>
       </c>
@@ -2291,21 +2305,21 @@
       <c r="F25" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="29" t="s">
-        <v>1</v>
+      <c r="G25" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-    </row>
-    <row r="26" spans="2:16" s="101" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="68"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+    </row>
+    <row r="26" spans="2:16" s="52" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="55"/>
       <c r="C26" s="35" t="s">
         <v>221</v>
       </c>
@@ -2318,22 +2332,58 @@
       <c r="F26" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="G26" s="35" t="s">
-        <v>1</v>
+      <c r="G26" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
     </row>
     <row r="27" spans="2:16" ht="20" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="P21:P23"/>
     <mergeCell ref="B24:B26"/>
@@ -2350,42 +2400,6 @@
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2419,61 +2433,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -2523,7 +2537,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -2547,24 +2561,24 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="55" t="s">
+      <c r="J6" s="56" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="56">
+      <c r="K6" s="57">
         <v>2</v>
       </c>
-      <c r="L6" s="57" t="s">
+      <c r="L6" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="M6" s="69" t="s">
+      <c r="M6" s="53" t="s">
         <v>185</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="29" t="s">
         <v>161</v>
       </c>
@@ -2582,16 +2596,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="35" t="s">
         <v>162</v>
       </c>
@@ -2609,16 +2623,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="68"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="50" t="s">
         <v>163</v>
       </c>
@@ -2636,16 +2650,16 @@
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="73" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -2669,22 +2683,22 @@
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="55" t="s">
+      <c r="J10" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="56">
+      <c r="K10" s="57">
         <v>4</v>
       </c>
-      <c r="L10" s="57" t="s">
+      <c r="L10" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="29" t="s">
         <v>161</v>
       </c>
@@ -2702,16 +2716,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="35" t="s">
         <v>162</v>
       </c>
@@ -2729,16 +2743,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="50" t="s">
         <v>163</v>
       </c>
@@ -2756,16 +2770,16 @@
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="2:16" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="73" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -2789,22 +2803,22 @@
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="55" t="s">
+      <c r="J14" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="57">
         <v>4</v>
       </c>
-      <c r="L14" s="57" t="s">
+      <c r="L14" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="29" t="s">
         <v>161</v>
       </c>
@@ -2822,16 +2836,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
       </c>
@@ -2849,16 +2863,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="54"/>
+      <c r="B17" s="75"/>
       <c r="C17" s="50" t="s">
         <v>163</v>
       </c>
@@ -2876,28 +2890,16 @@
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
     <mergeCell ref="O10:O13"/>
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="O14:O17"/>
@@ -2914,6 +2916,18 @@
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M10:M13"/>
     <mergeCell ref="N10:N13"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2945,44 +2959,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="67"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -3032,24 +3046,24 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
-      <c r="O5" s="71"/>
-      <c r="P5" s="72"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
     </row>
     <row r="6" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="73" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -3071,28 +3085,28 @@
       <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="79">
         <v>6</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="79">
         <v>2</v>
       </c>
-      <c r="L6" s="76">
+      <c r="L6" s="82">
         <v>40</v>
       </c>
-      <c r="M6" s="79">
+      <c r="M6" s="85">
         <v>50</v>
       </c>
-      <c r="N6" s="79">
+      <c r="N6" s="85">
         <v>60</v>
       </c>
-      <c r="O6" s="79">
+      <c r="O6" s="85">
         <v>60</v>
       </c>
-      <c r="P6" s="79"/>
+      <c r="P6" s="85"/>
     </row>
     <row r="7" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -3108,16 +3122,16 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -3133,16 +3147,16 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="54"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -3158,33 +3172,33 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="78"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
     </row>
     <row r="10" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="70"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="72"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="78"/>
     </row>
     <row r="11" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="73" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -3206,22 +3220,22 @@
       <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="79">
         <v>4</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="79">
         <v>4</v>
       </c>
-      <c r="L11" s="76">
+      <c r="L11" s="82">
         <v>50</v>
       </c>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85"/>
+      <c r="O11" s="85"/>
+      <c r="P11" s="85"/>
     </row>
     <row r="12" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
+      <c r="B12" s="74"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -3237,16 +3251,16 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
     </row>
     <row r="13" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -3262,16 +3276,16 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
     </row>
     <row r="14" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="54"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -3287,33 +3301,33 @@
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="81"/>
-      <c r="N14" s="81"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
     </row>
     <row r="15" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
     </row>
     <row r="16" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="73" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -3335,22 +3349,22 @@
       <c r="I16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="73">
+      <c r="J16" s="79">
         <v>4</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="79">
         <v>4</v>
       </c>
-      <c r="L16" s="76">
+      <c r="L16" s="82">
         <v>50</v>
       </c>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
+      <c r="M16" s="85"/>
+      <c r="N16" s="85"/>
+      <c r="O16" s="85"/>
+      <c r="P16" s="85"/>
     </row>
     <row r="17" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="53"/>
+      <c r="B17" s="74"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -3366,16 +3380,16 @@
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
     </row>
     <row r="18" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
+      <c r="B18" s="74"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -3391,16 +3405,16 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
     </row>
     <row r="19" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="54"/>
+      <c r="B19" s="75"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -3416,33 +3430,33 @@
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="78"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
     </row>
     <row r="20" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="70"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="72"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="78"/>
     </row>
     <row r="21" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="73" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -3464,26 +3478,26 @@
       <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="73">
+      <c r="J21" s="79">
         <v>4</v>
       </c>
-      <c r="K21" s="73">
+      <c r="K21" s="79">
         <v>4</v>
       </c>
-      <c r="L21" s="76">
+      <c r="L21" s="82">
         <v>40</v>
       </c>
-      <c r="M21" s="79">
+      <c r="M21" s="85">
         <v>50</v>
       </c>
-      <c r="N21" s="79">
+      <c r="N21" s="85">
         <v>60</v>
       </c>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="85"/>
     </row>
     <row r="22" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="53"/>
+      <c r="B22" s="74"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -3499,16 +3513,16 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
-      <c r="P22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="86"/>
     </row>
     <row r="23" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
+      <c r="B23" s="74"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -3524,16 +3538,16 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
     </row>
     <row r="24" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="54"/>
+      <c r="B24" s="75"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -3549,33 +3563,33 @@
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="81"/>
-      <c r="O24" s="81"/>
-      <c r="P24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
     </row>
     <row r="25" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="70"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="78"/>
     </row>
     <row r="26" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="73" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -3597,26 +3611,26 @@
       <c r="I26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="73">
+      <c r="J26" s="79">
         <v>4</v>
       </c>
-      <c r="K26" s="73">
+      <c r="K26" s="79">
         <v>4</v>
       </c>
-      <c r="L26" s="76">
+      <c r="L26" s="82">
         <v>40</v>
       </c>
-      <c r="M26" s="79">
+      <c r="M26" s="85">
         <v>50</v>
       </c>
-      <c r="N26" s="79">
+      <c r="N26" s="85">
         <v>50</v>
       </c>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
+      <c r="O26" s="85"/>
+      <c r="P26" s="85"/>
     </row>
     <row r="27" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -3632,16 +3646,16 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
     </row>
     <row r="28" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -3657,16 +3671,16 @@
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
     </row>
     <row r="29" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="54"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -3682,33 +3696,33 @@
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
     </row>
     <row r="30" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="70"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="72"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="77"/>
+      <c r="N30" s="77"/>
+      <c r="O30" s="77"/>
+      <c r="P30" s="78"/>
     </row>
     <row r="31" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="73" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -3730,26 +3744,26 @@
       <c r="I31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="73">
+      <c r="J31" s="79">
         <v>4</v>
       </c>
-      <c r="K31" s="73">
+      <c r="K31" s="79">
         <v>4</v>
       </c>
-      <c r="L31" s="76">
+      <c r="L31" s="82">
         <v>40</v>
       </c>
-      <c r="M31" s="79">
+      <c r="M31" s="85">
         <v>50</v>
       </c>
-      <c r="N31" s="79">
+      <c r="N31" s="85">
         <v>50</v>
       </c>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
     </row>
     <row r="32" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="53"/>
+      <c r="B32" s="74"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -3765,16 +3779,16 @@
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="74"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="83"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
     </row>
     <row r="33" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="53"/>
+      <c r="B33" s="74"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -3790,16 +3804,16 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
     </row>
     <row r="34" spans="2:16" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="54"/>
+      <c r="B34" s="75"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -3815,16 +3829,61 @@
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -3837,51 +3896,6 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3915,44 +3929,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="67"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -4002,436 +4016,436 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="82"/>
+      <c r="G5" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="102"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="73">
+      <c r="J5" s="79">
         <v>2</v>
       </c>
-      <c r="K5" s="73">
-        <v>1</v>
-      </c>
-      <c r="L5" s="76">
+      <c r="K5" s="79">
+        <v>1</v>
+      </c>
+      <c r="L5" s="82">
         <v>20</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="86"/>
+      <c r="G7" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="94"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="89"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="90" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="92" t="s">
+      <c r="F9" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="90" t="s">
+      <c r="G9" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="93"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
-      <c r="C11" s="94" t="s">
+      <c r="B11" s="74"/>
+      <c r="C11" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="94" t="s">
+      <c r="D11" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
+      <c r="G11" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="84" t="s">
+      <c r="F13" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="82"/>
+      <c r="G13" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="102"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="73">
+      <c r="J13" s="79">
         <v>2</v>
       </c>
-      <c r="K13" s="73">
-        <v>1</v>
-      </c>
-      <c r="L13" s="76">
+      <c r="K13" s="79">
+        <v>1</v>
+      </c>
+      <c r="L13" s="82">
         <v>20</v>
       </c>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="79"/>
-      <c r="P13" s="79"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="53"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
-      <c r="C15" s="86" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="86"/>
+      <c r="G15" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="94"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="89"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="53"/>
-      <c r="C17" s="90" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="92" t="s">
+      <c r="F17" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="90" t="s">
+      <c r="G17" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="90" t="s">
+      <c r="I17" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="96" t="s">
+      <c r="F19" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="94"/>
-      <c r="I19" s="94"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
+      <c r="G19" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="54"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="97"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
     </row>
     <row r="21" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="66"/>
     </row>
     <row r="22" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="65" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="67"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="72"/>
     </row>
     <row r="23" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
@@ -4481,356 +4495,356 @@
       </c>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="82" t="s">
+      <c r="D24" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="73">
+      <c r="G24" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="79">
         <v>2</v>
       </c>
-      <c r="K24" s="73">
-        <v>1</v>
-      </c>
-      <c r="L24" s="76">
+      <c r="K24" s="79">
+        <v>1</v>
+      </c>
+      <c r="L24" s="82">
         <v>20</v>
       </c>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
+      <c r="M24" s="85"/>
+      <c r="N24" s="85"/>
+      <c r="O24" s="85"/>
+      <c r="P24" s="85"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="85"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
     </row>
     <row r="26" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="53"/>
-      <c r="C26" s="90" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="90" t="s">
+      <c r="E26" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="90" t="s">
+      <c r="G26" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
     </row>
     <row r="27" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91" t="s">
+      <c r="B27" s="74"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="73">
+      <c r="G28" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="102"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="79">
         <v>2</v>
       </c>
-      <c r="K28" s="73">
-        <v>1</v>
-      </c>
-      <c r="L28" s="76">
+      <c r="K28" s="79">
+        <v>1</v>
+      </c>
+      <c r="L28" s="82">
         <v>20</v>
       </c>
-      <c r="M28" s="79"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="79"/>
-      <c r="P28" s="79"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="85"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="53"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="83"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="85"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
     </row>
     <row r="30" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="53"/>
-      <c r="C30" s="90" t="s">
+      <c r="B30" s="74"/>
+      <c r="C30" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="90" t="s">
+      <c r="E30" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="92" t="s">
+      <c r="F30" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="90" t="s">
+      <c r="G30" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="90" t="s">
+      <c r="I30" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="83"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="86"/>
     </row>
     <row r="31" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="53"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91" t="s">
+      <c r="B31" s="74"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="93"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
+      <c r="F31" s="99"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
     </row>
     <row r="32" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="73">
+      <c r="G32" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="79">
         <v>2</v>
       </c>
-      <c r="K32" s="73">
-        <v>1</v>
-      </c>
-      <c r="L32" s="76">
+      <c r="K32" s="79">
+        <v>1</v>
+      </c>
+      <c r="L32" s="82">
         <v>20</v>
       </c>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79"/>
-      <c r="P32" s="79"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
     </row>
     <row r="33" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B33" s="53"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="77"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="83"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
     </row>
     <row r="34" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B34" s="53"/>
-      <c r="C34" s="90" t="s">
+      <c r="B34" s="74"/>
+      <c r="C34" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="90" t="s">
+      <c r="G34" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="90" t="s">
+      <c r="I34" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="77"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="83"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
     </row>
     <row r="35" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B35" s="54"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91" t="s">
+      <c r="B35" s="75"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
     </row>
     <row r="36" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="60"/>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
-      <c r="K36" s="60"/>
-      <c r="L36" s="60"/>
-      <c r="M36" s="60"/>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="61"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="66"/>
     </row>
     <row r="37" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="63"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
-      <c r="F37" s="63"/>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="64"/>
-      <c r="J37" s="65" t="s">
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="67"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="72"/>
     </row>
     <row r="38" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
@@ -4880,356 +4894,356 @@
       </c>
     </row>
     <row r="39" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="84" t="s">
+      <c r="F39" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="82"/>
-      <c r="I39" s="82"/>
-      <c r="J39" s="73">
+      <c r="G39" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="79">
         <v>2</v>
       </c>
-      <c r="K39" s="73">
-        <v>1</v>
-      </c>
-      <c r="L39" s="76">
+      <c r="K39" s="79">
+        <v>1</v>
+      </c>
+      <c r="L39" s="82">
         <v>20</v>
       </c>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
-      <c r="P39" s="79"/>
+      <c r="M39" s="85"/>
+      <c r="N39" s="85"/>
+      <c r="O39" s="85"/>
+      <c r="P39" s="85"/>
     </row>
     <row r="40" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B40" s="53"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="103"/>
+      <c r="D40" s="103"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="85"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="77"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="83"/>
+      <c r="M40" s="86"/>
+      <c r="N40" s="86"/>
+      <c r="O40" s="86"/>
+      <c r="P40" s="86"/>
     </row>
     <row r="41" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B41" s="53"/>
-      <c r="C41" s="90" t="s">
+      <c r="B41" s="74"/>
+      <c r="C41" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="90" t="s">
+      <c r="D41" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="90" t="s">
+      <c r="E41" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="92" t="s">
+      <c r="F41" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="90" t="s">
+      <c r="G41" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="90" t="s">
+      <c r="I41" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="77"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="86"/>
+      <c r="O41" s="86"/>
+      <c r="P41" s="86"/>
     </row>
     <row r="42" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B42" s="53"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91" t="s">
+      <c r="B42" s="74"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="83"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="86"/>
+      <c r="O42" s="86"/>
+      <c r="P42" s="86"/>
     </row>
     <row r="43" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B43" s="52" t="s">
+      <c r="B43" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="82" t="s">
+      <c r="C43" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="84" t="s">
+      <c r="F43" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="82"/>
-      <c r="I43" s="82"/>
-      <c r="J43" s="73">
+      <c r="G43" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="102"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="79">
         <v>2</v>
       </c>
-      <c r="K43" s="73">
-        <v>1</v>
-      </c>
-      <c r="L43" s="76">
+      <c r="K43" s="79">
+        <v>1</v>
+      </c>
+      <c r="L43" s="82">
         <v>20</v>
       </c>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-      <c r="P43" s="79"/>
+      <c r="M43" s="85"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="85"/>
+      <c r="P43" s="85"/>
     </row>
     <row r="44" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B44" s="53"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="77"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="83"/>
+      <c r="M44" s="86"/>
+      <c r="N44" s="86"/>
+      <c r="O44" s="86"/>
+      <c r="P44" s="86"/>
     </row>
     <row r="45" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B45" s="53"/>
-      <c r="C45" s="90" t="s">
+      <c r="B45" s="74"/>
+      <c r="C45" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="90" t="s">
+      <c r="E45" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="92" t="s">
+      <c r="F45" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="90" t="s">
+      <c r="G45" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="90" t="s">
+      <c r="I45" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="77"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="83"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="86"/>
+      <c r="O45" s="86"/>
+      <c r="P45" s="86"/>
     </row>
     <row r="46" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B46" s="53"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91" t="s">
+      <c r="B46" s="74"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="83"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="86"/>
+      <c r="O46" s="86"/>
+      <c r="P46" s="86"/>
     </row>
     <row r="47" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="82" t="s">
+      <c r="D47" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="84" t="s">
+      <c r="F47" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="73">
+      <c r="G47" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="102"/>
+      <c r="I47" s="102"/>
+      <c r="J47" s="79">
         <v>2</v>
       </c>
-      <c r="K47" s="73">
-        <v>1</v>
-      </c>
-      <c r="L47" s="76">
+      <c r="K47" s="79">
+        <v>1</v>
+      </c>
+      <c r="L47" s="82">
         <v>20</v>
       </c>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="M47" s="85"/>
+      <c r="N47" s="85"/>
+      <c r="O47" s="85"/>
+      <c r="P47" s="85"/>
     </row>
     <row r="48" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B48" s="53"/>
-      <c r="C48" s="83"/>
-      <c r="D48" s="83"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="85"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="74"/>
-      <c r="L48" s="77"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="86"/>
+      <c r="O48" s="86"/>
+      <c r="P48" s="86"/>
     </row>
     <row r="49" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B49" s="53"/>
-      <c r="C49" s="90" t="s">
+      <c r="B49" s="74"/>
+      <c r="C49" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="90" t="s">
+      <c r="E49" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="92" t="s">
+      <c r="F49" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="90" t="s">
+      <c r="G49" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="90" t="s">
+      <c r="I49" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J49" s="74"/>
-      <c r="K49" s="74"/>
-      <c r="L49" s="77"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="86"/>
+      <c r="O49" s="86"/>
+      <c r="P49" s="86"/>
     </row>
     <row r="50" spans="2:16" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B50" s="54"/>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91" t="s">
+      <c r="B50" s="75"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="93"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="78"/>
-      <c r="M50" s="81"/>
-      <c r="N50" s="81"/>
-      <c r="O50" s="81"/>
-      <c r="P50" s="81"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
     </row>
     <row r="51" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="60"/>
-      <c r="K51" s="60"/>
-      <c r="L51" s="60"/>
-      <c r="M51" s="60"/>
-      <c r="N51" s="60"/>
-      <c r="O51" s="60"/>
-      <c r="P51" s="61"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+      <c r="M51" s="65"/>
+      <c r="N51" s="65"/>
+      <c r="O51" s="65"/>
+      <c r="P51" s="66"/>
     </row>
     <row r="52" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B52" s="62" t="s">
+      <c r="B52" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="63"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="63"/>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="64"/>
-      <c r="J52" s="65" t="s">
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="69"/>
+      <c r="J52" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
-      <c r="M52" s="66"/>
-      <c r="N52" s="66"/>
-      <c r="O52" s="66"/>
-      <c r="P52" s="67"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="72"/>
     </row>
     <row r="53" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
@@ -5279,616 +5293,838 @@
       </c>
     </row>
     <row r="54" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B54" s="52" t="s">
+      <c r="B54" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="82" t="s">
+      <c r="C54" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="84" t="s">
+      <c r="F54" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="82"/>
+      <c r="G54" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="102"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="73">
+      <c r="J54" s="79">
         <v>2</v>
       </c>
-      <c r="K54" s="73">
-        <v>1</v>
-      </c>
-      <c r="L54" s="76">
+      <c r="K54" s="79">
+        <v>1</v>
+      </c>
+      <c r="L54" s="82">
         <v>20</v>
       </c>
-      <c r="M54" s="79"/>
-      <c r="N54" s="79"/>
-      <c r="O54" s="79"/>
-      <c r="P54" s="79"/>
+      <c r="M54" s="85"/>
+      <c r="N54" s="85"/>
+      <c r="O54" s="85"/>
+      <c r="P54" s="85"/>
     </row>
     <row r="55" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B55" s="53"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="103"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="103"/>
+      <c r="H55" s="103"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="77"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="80"/>
+      <c r="J55" s="80"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="83"/>
+      <c r="M55" s="86"/>
+      <c r="N55" s="86"/>
+      <c r="O55" s="86"/>
+      <c r="P55" s="86"/>
     </row>
     <row r="56" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B56" s="53"/>
-      <c r="C56" s="86" t="s">
+      <c r="B56" s="74"/>
+      <c r="C56" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="86" t="s">
+      <c r="D56" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="88" t="s">
+      <c r="F56" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="86"/>
+      <c r="G56" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="94"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
+      <c r="J56" s="80"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="83"/>
+      <c r="M56" s="86"/>
+      <c r="N56" s="86"/>
+      <c r="O56" s="86"/>
+      <c r="P56" s="86"/>
     </row>
     <row r="57" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B57" s="53"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="95"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="89"/>
-      <c r="G57" s="87"/>
-      <c r="H57" s="87"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="83"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="86"/>
+      <c r="O57" s="86"/>
+      <c r="P57" s="86"/>
     </row>
     <row r="58" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B58" s="53"/>
-      <c r="C58" s="90" t="s">
+      <c r="B58" s="74"/>
+      <c r="C58" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="90" t="s">
+      <c r="D58" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="92" t="s">
+      <c r="F58" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="90" t="s">
+      <c r="G58" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="90" t="s">
+      <c r="I58" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="74"/>
-      <c r="K58" s="74"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
+      <c r="J58" s="80"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="83"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="86"/>
+      <c r="O58" s="86"/>
+      <c r="P58" s="86"/>
     </row>
     <row r="59" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B59" s="53"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="93"/>
-      <c r="G59" s="91"/>
-      <c r="H59" s="91"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="74"/>
-      <c r="K59" s="74"/>
-      <c r="L59" s="77"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="80"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="83"/>
+      <c r="M59" s="86"/>
+      <c r="N59" s="86"/>
+      <c r="O59" s="86"/>
+      <c r="P59" s="86"/>
     </row>
     <row r="60" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B60" s="53"/>
-      <c r="C60" s="94" t="s">
+      <c r="B60" s="74"/>
+      <c r="C60" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="94" t="s">
+      <c r="D60" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="96" t="s">
+      <c r="F60" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="94"/>
-      <c r="I60" s="94"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="77"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="80"/>
+      <c r="G60" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="80"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="83"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="86"/>
+      <c r="O60" s="86"/>
+      <c r="P60" s="86"/>
     </row>
     <row r="61" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B61" s="53"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="95"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="97"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="77"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
+      <c r="F61" s="93"/>
+      <c r="G61" s="91"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="81"/>
+      <c r="K61" s="81"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="86"/>
+      <c r="O61" s="86"/>
+      <c r="P61" s="86"/>
     </row>
     <row r="62" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="82" t="s">
+      <c r="D62" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="84" t="s">
+      <c r="F62" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="82"/>
+      <c r="G62" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="102"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="73">
+      <c r="J62" s="79">
         <v>2</v>
       </c>
-      <c r="K62" s="73">
-        <v>1</v>
-      </c>
-      <c r="L62" s="76">
+      <c r="K62" s="79">
+        <v>1</v>
+      </c>
+      <c r="L62" s="82">
         <v>20</v>
       </c>
-      <c r="M62" s="79"/>
-      <c r="N62" s="79"/>
-      <c r="O62" s="79"/>
-      <c r="P62" s="79"/>
+      <c r="M62" s="85"/>
+      <c r="N62" s="85"/>
+      <c r="O62" s="85"/>
+      <c r="P62" s="85"/>
     </row>
     <row r="63" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B63" s="53"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="103"/>
+      <c r="D63" s="103"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="85"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="103"/>
+      <c r="H63" s="103"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="80"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="80"/>
-      <c r="P63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="83"/>
+      <c r="M63" s="86"/>
+      <c r="N63" s="86"/>
+      <c r="O63" s="86"/>
+      <c r="P63" s="86"/>
     </row>
     <row r="64" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B64" s="53"/>
-      <c r="C64" s="86" t="s">
+      <c r="B64" s="74"/>
+      <c r="C64" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="86" t="s">
+      <c r="D64" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="88" t="s">
+      <c r="F64" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="86"/>
+      <c r="G64" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="94"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="80"/>
-      <c r="N64" s="80"/>
-      <c r="O64" s="80"/>
-      <c r="P64" s="80"/>
+      <c r="J64" s="80"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="83"/>
+      <c r="M64" s="86"/>
+      <c r="N64" s="86"/>
+      <c r="O64" s="86"/>
+      <c r="P64" s="86"/>
     </row>
     <row r="65" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B65" s="53"/>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="95"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="89"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="95"/>
+      <c r="H65" s="95"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="74"/>
-      <c r="K65" s="74"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="80"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="80"/>
-      <c r="P65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="83"/>
+      <c r="M65" s="86"/>
+      <c r="N65" s="86"/>
+      <c r="O65" s="86"/>
+      <c r="P65" s="86"/>
     </row>
     <row r="66" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B66" s="53"/>
-      <c r="C66" s="90" t="s">
+      <c r="B66" s="74"/>
+      <c r="C66" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="90" t="s">
+      <c r="D66" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="92" t="s">
+      <c r="F66" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="90" t="s">
+      <c r="G66" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="90" t="s">
+      <c r="I66" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="74"/>
-      <c r="K66" s="74"/>
-      <c r="L66" s="77"/>
-      <c r="M66" s="80"/>
-      <c r="N66" s="80"/>
-      <c r="O66" s="80"/>
-      <c r="P66" s="80"/>
+      <c r="J66" s="80"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="83"/>
+      <c r="M66" s="86"/>
+      <c r="N66" s="86"/>
+      <c r="O66" s="86"/>
+      <c r="P66" s="86"/>
     </row>
     <row r="67" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B67" s="53"/>
-      <c r="C67" s="91"/>
-      <c r="D67" s="91"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="93"/>
-      <c r="G67" s="91"/>
-      <c r="H67" s="91"/>
-      <c r="I67" s="91"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
-      <c r="L67" s="77"/>
-      <c r="M67" s="80"/>
-      <c r="N67" s="80"/>
-      <c r="O67" s="80"/>
-      <c r="P67" s="80"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="80"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="83"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="86"/>
+      <c r="O67" s="86"/>
+      <c r="P67" s="86"/>
     </row>
     <row r="68" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B68" s="53"/>
-      <c r="C68" s="94" t="s">
+      <c r="B68" s="74"/>
+      <c r="C68" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="94" t="s">
+      <c r="D68" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="96" t="s">
+      <c r="F68" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="77"/>
-      <c r="M68" s="80"/>
-      <c r="N68" s="80"/>
-      <c r="O68" s="80"/>
-      <c r="P68" s="80"/>
+      <c r="G68" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="80"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="83"/>
+      <c r="M68" s="86"/>
+      <c r="N68" s="86"/>
+      <c r="O68" s="86"/>
+      <c r="P68" s="86"/>
     </row>
     <row r="69" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B69" s="54"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="95"/>
+      <c r="B69" s="75"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="97"/>
-      <c r="G69" s="95"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="95"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="78"/>
-      <c r="M69" s="81"/>
-      <c r="N69" s="81"/>
-      <c r="O69" s="81"/>
-      <c r="P69" s="81"/>
+      <c r="F69" s="93"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="81"/>
+      <c r="K69" s="81"/>
+      <c r="L69" s="84"/>
+      <c r="M69" s="87"/>
+      <c r="N69" s="87"/>
+      <c r="O69" s="87"/>
+      <c r="P69" s="87"/>
     </row>
     <row r="70" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="82" t="s">
+      <c r="C70" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="82" t="s">
+      <c r="D70" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="84" t="s">
+      <c r="F70" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="82"/>
+      <c r="G70" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="102"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="73">
+      <c r="J70" s="79">
         <v>2</v>
       </c>
-      <c r="K70" s="73">
-        <v>1</v>
-      </c>
-      <c r="L70" s="76">
+      <c r="K70" s="79">
+        <v>1</v>
+      </c>
+      <c r="L70" s="82">
         <v>20</v>
       </c>
-      <c r="M70" s="79"/>
-      <c r="N70" s="79"/>
-      <c r="O70" s="79"/>
-      <c r="P70" s="79"/>
+      <c r="M70" s="85"/>
+      <c r="N70" s="85"/>
+      <c r="O70" s="85"/>
+      <c r="P70" s="85"/>
     </row>
     <row r="71" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B71" s="53"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="85"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="103"/>
+      <c r="H71" s="103"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="77"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="80"/>
+      <c r="J71" s="80"/>
+      <c r="K71" s="80"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="86"/>
+      <c r="O71" s="86"/>
+      <c r="P71" s="86"/>
     </row>
     <row r="72" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B72" s="53"/>
-      <c r="C72" s="86" t="s">
+      <c r="B72" s="74"/>
+      <c r="C72" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="86" t="s">
+      <c r="D72" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="88" t="s">
+      <c r="F72" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="86"/>
+      <c r="G72" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="94"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
-      <c r="L72" s="77"/>
-      <c r="M72" s="80"/>
-      <c r="N72" s="80"/>
-      <c r="O72" s="80"/>
-      <c r="P72" s="80"/>
+      <c r="J72" s="80"/>
+      <c r="K72" s="80"/>
+      <c r="L72" s="83"/>
+      <c r="M72" s="86"/>
+      <c r="N72" s="86"/>
+      <c r="O72" s="86"/>
+      <c r="P72" s="86"/>
     </row>
     <row r="73" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B73" s="53"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="95"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="89"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="95"/>
+      <c r="H73" s="95"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="77"/>
-      <c r="M73" s="80"/>
-      <c r="N73" s="80"/>
-      <c r="O73" s="80"/>
-      <c r="P73" s="80"/>
+      <c r="J73" s="80"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="83"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="86"/>
+      <c r="O73" s="86"/>
+      <c r="P73" s="86"/>
     </row>
     <row r="74" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B74" s="53"/>
-      <c r="C74" s="90" t="s">
+      <c r="B74" s="74"/>
+      <c r="C74" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="90" t="s">
+      <c r="D74" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F74" s="92" t="s">
+      <c r="F74" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="90" t="s">
+      <c r="G74" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="90" t="s">
+      <c r="I74" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="77"/>
-      <c r="M74" s="80"/>
-      <c r="N74" s="80"/>
-      <c r="O74" s="80"/>
-      <c r="P74" s="80"/>
+      <c r="J74" s="80"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="83"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="86"/>
+      <c r="O74" s="86"/>
+      <c r="P74" s="86"/>
     </row>
     <row r="75" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B75" s="53"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F75" s="93"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="91"/>
-      <c r="I75" s="91"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="77"/>
-      <c r="M75" s="80"/>
-      <c r="N75" s="80"/>
-      <c r="O75" s="80"/>
-      <c r="P75" s="80"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="80"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="83"/>
+      <c r="M75" s="86"/>
+      <c r="N75" s="86"/>
+      <c r="O75" s="86"/>
+      <c r="P75" s="86"/>
     </row>
     <row r="76" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B76" s="53"/>
-      <c r="C76" s="94" t="s">
+      <c r="B76" s="74"/>
+      <c r="C76" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="94" t="s">
+      <c r="D76" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="96" t="s">
+      <c r="F76" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="94"/>
-      <c r="I76" s="94"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="77"/>
-      <c r="M76" s="80"/>
-      <c r="N76" s="80"/>
-      <c r="O76" s="80"/>
-      <c r="P76" s="80"/>
+      <c r="G76" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="90"/>
+      <c r="I76" s="90"/>
+      <c r="J76" s="80"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="83"/>
+      <c r="M76" s="86"/>
+      <c r="N76" s="86"/>
+      <c r="O76" s="86"/>
+      <c r="P76" s="86"/>
     </row>
     <row r="77" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B77" s="54"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="95"/>
+      <c r="B77" s="75"/>
+      <c r="C77" s="91"/>
+      <c r="D77" s="91"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="97"/>
-      <c r="G77" s="95"/>
-      <c r="H77" s="95"/>
-      <c r="I77" s="95"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="81"/>
-      <c r="N77" s="81"/>
-      <c r="O77" s="81"/>
-      <c r="P77" s="81"/>
+      <c r="F77" s="93"/>
+      <c r="G77" s="91"/>
+      <c r="H77" s="91"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="84"/>
+      <c r="M77" s="87"/>
+      <c r="N77" s="87"/>
+      <c r="O77" s="87"/>
+      <c r="P77" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="P62:P69"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -5913,249 +6149,27 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="M62:M69"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6186,44 +6200,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="65" t="s">
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="67"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="72"/>
     </row>
     <row r="4" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B4" s="4" t="s">
@@ -6273,439 +6287,504 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="94" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="86" t="s">
+      <c r="G5" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="86" t="s">
+      <c r="I5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="89"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="74"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="74"/>
+      <c r="C7" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="92" t="s">
+      <c r="F7" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
+      <c r="G7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="93"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="98" t="s">
+      <c r="B9" s="74"/>
+      <c r="C9" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="104" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="99" t="s">
+      <c r="F9" s="105" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
+      <c r="G9" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="94" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="86" t="s">
+      <c r="G11" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="86" t="s">
+      <c r="I11" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="89"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="74"/>
+      <c r="C13" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="92" t="s">
+      <c r="F13" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
+      <c r="G13" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="53"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="91"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="80"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="83"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="86"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
-      <c r="C15" s="98" t="s">
+      <c r="B15" s="74"/>
+      <c r="C15" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="98" t="s">
+      <c r="D15" s="104" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
+      <c r="G15" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="54"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="97"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="81"/>
-      <c r="N16" s="81"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="94" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="86" t="s">
+      <c r="G17" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="86" t="s">
+      <c r="I17" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="89"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="90" t="s">
+      <c r="B19" s="74"/>
+      <c r="C19" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="88" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="92" t="s">
+      <c r="F19" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="90"/>
-      <c r="I19" s="90"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
+      <c r="G19" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="53"/>
-      <c r="C21" s="98" t="s">
+      <c r="B21" s="74"/>
+      <c r="C21" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="98" t="s">
+      <c r="D21" s="104" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="105" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="94"/>
-      <c r="I21" s="94"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
+      <c r="G21" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="83"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="86"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="54"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="97"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="81"/>
-      <c r="N22" s="81"/>
-      <c r="O22" s="81"/>
-      <c r="P22" s="81"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="P5:P10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -6722,71 +6801,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6820,61 +6834,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -6924,7 +6938,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="55" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -6944,16 +6958,16 @@
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="68"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="29" t="s">
         <v>74</v>
       </c>
@@ -6971,16 +6985,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="68"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="35" t="s">
         <v>136</v>
       </c>
@@ -6998,16 +7012,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="68"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="50" t="s">
         <v>138</v>
       </c>
@@ -7029,16 +7043,16 @@
       <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="55" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -7058,16 +7072,16 @@
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="68"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
@@ -7085,16 +7099,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="68"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="35" t="s">
         <v>136</v>
       </c>
@@ -7112,16 +7126,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="68"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="50" t="s">
         <v>138</v>
       </c>
@@ -7143,16 +7157,16 @@
       <c r="I13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="55" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -7172,16 +7186,16 @@
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="68"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
@@ -7199,16 +7213,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="16" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="68"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="35" t="s">
         <v>136</v>
       </c>
@@ -7226,16 +7240,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="2:16" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="68"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="50" t="s">
         <v>138</v>
       </c>
@@ -7257,16 +7271,28 @@
       <c r="I17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
     <mergeCell ref="P14:P17"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="L14:L17"/>
@@ -7283,18 +7309,6 @@
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7328,63 +7342,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="60"/>
-      <c r="L2" s="60"/>
-      <c r="M2" s="60"/>
-      <c r="N2" s="60"/>
-      <c r="O2" s="60"/>
-      <c r="P2" s="61"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:16" ht="22" x14ac:dyDescent="0.35">
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
-      <c r="P3" s="61"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="2:16" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="65" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="67"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
     </row>
     <row r="5" spans="2:16" ht="32" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
@@ -7434,595 +7448,673 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="84" t="s">
+      <c r="F6" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="82"/>
+      <c r="G6" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="102"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="73">
+      <c r="J6" s="79">
         <v>2</v>
       </c>
-      <c r="K6" s="73">
-        <v>1</v>
-      </c>
-      <c r="L6" s="76">
+      <c r="K6" s="79">
+        <v>1</v>
+      </c>
+      <c r="L6" s="82">
         <v>20</v>
       </c>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
     </row>
     <row r="7" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B7" s="53"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
       <c r="E7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B8" s="53"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="74"/>
+      <c r="C8" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="86"/>
+      <c r="G8" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="94"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="86"/>
+      <c r="P8" s="86"/>
     </row>
     <row r="9" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B9" s="53"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="80"/>
-      <c r="P9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="86"/>
     </row>
     <row r="10" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B10" s="53"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="74"/>
+      <c r="C10" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="92" t="s">
+      <c r="F10" s="98" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="90" t="s">
+      <c r="G10" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="90" t="s">
+      <c r="I10" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
     </row>
     <row r="11" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B11" s="53"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="91"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
       <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="93"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="86"/>
     </row>
     <row r="12" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B12" s="53"/>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="74"/>
+      <c r="C12" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="80"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="80"/>
+      <c r="G12" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="86"/>
     </row>
     <row r="13" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B13" s="53"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
       <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
     </row>
     <row r="14" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="82"/>
+      <c r="G14" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="102"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="73">
+      <c r="J14" s="79">
         <v>2</v>
       </c>
-      <c r="K14" s="73">
-        <v>1</v>
-      </c>
-      <c r="L14" s="76">
+      <c r="K14" s="79">
+        <v>1</v>
+      </c>
+      <c r="L14" s="82">
         <v>20</v>
       </c>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="79"/>
-      <c r="P14" s="79"/>
+      <c r="M14" s="85"/>
+      <c r="N14" s="85"/>
+      <c r="O14" s="85"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B15" s="53"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
       <c r="E15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="85"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="80"/>
-      <c r="P15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="83"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="86"/>
     </row>
     <row r="16" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B16" s="53"/>
-      <c r="C16" s="86" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="86"/>
+      <c r="G16" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="94"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="86"/>
     </row>
     <row r="17" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B17" s="53"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="89"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="86"/>
     </row>
     <row r="18" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B18" s="53"/>
-      <c r="C18" s="90" t="s">
+      <c r="B18" s="74"/>
+      <c r="C18" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="92" t="s">
+      <c r="F18" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="90" t="s">
+      <c r="G18" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="90" t="s">
+      <c r="I18" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="86"/>
     </row>
     <row r="19" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B19" s="53"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="86"/>
     </row>
     <row r="20" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B20" s="53"/>
-      <c r="C20" s="94" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="96" t="s">
+      <c r="F20" s="92" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="94"/>
-      <c r="I20" s="94"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
+      <c r="G20" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="86"/>
     </row>
     <row r="21" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B21" s="54"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
       <c r="E21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="97"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="81"/>
-      <c r="N21" s="81"/>
-      <c r="O21" s="81"/>
-      <c r="P21" s="81"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="81"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
     </row>
     <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="82" t="s">
+      <c r="D22" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="84" t="s">
+      <c r="F22" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="82"/>
+      <c r="G22" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="102"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="73">
+      <c r="J22" s="79">
         <v>2</v>
       </c>
-      <c r="K22" s="73">
-        <v>1</v>
-      </c>
-      <c r="L22" s="76">
+      <c r="K22" s="79">
+        <v>1</v>
+      </c>
+      <c r="L22" s="82">
         <v>20</v>
       </c>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
     </row>
     <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B23" s="53"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="85"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="86"/>
     </row>
     <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B24" s="53"/>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="74"/>
+      <c r="C24" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="94" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="88" t="s">
+      <c r="F24" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="86"/>
+      <c r="G24" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="94"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="80"/>
-      <c r="O24" s="80"/>
-      <c r="P24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="86"/>
     </row>
     <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B25" s="53"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
       <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="89"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="95"/>
+      <c r="H25" s="95"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
+      <c r="J25" s="80"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="83"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="86"/>
     </row>
     <row r="26" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B26" s="53"/>
-      <c r="C26" s="90" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D26" s="88" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="90" t="s">
+      <c r="G26" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="90" t="s">
+      <c r="I26" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="80"/>
-      <c r="P26" s="80"/>
+      <c r="J26" s="80"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="83"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
     </row>
     <row r="27" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B27" s="53"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
       <c r="E27" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="80"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
     </row>
     <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B28" s="53"/>
-      <c r="C28" s="94" t="s">
+      <c r="B28" s="74"/>
+      <c r="C28" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="94" t="s">
+      <c r="D28" s="90" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="96" t="s">
+      <c r="F28" s="92" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="94"/>
-      <c r="I28" s="94"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="80"/>
+      <c r="G28" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="90"/>
+      <c r="I28" s="90"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="83"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
     </row>
     <row r="29" spans="2:16" ht="16" x14ac:dyDescent="0.35">
-      <c r="B29" s="54"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="91"/>
+      <c r="D29" s="91"/>
       <c r="E29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="97"/>
-      <c r="G29" s="95"/>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="78"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="O6:O13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="N6:N13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="P14:P21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="O14:O21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="O22:O29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="P22:P29"/>
@@ -8039,84 +8131,6 @@
     <mergeCell ref="K22:K29"/>
     <mergeCell ref="L22:L29"/>
     <mergeCell ref="M22:M29"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="O22:O29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="P14:P21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="O14:O21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="O6:O13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -714,7 +714,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -751,12 +751,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
@@ -960,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1271,9 +1265,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,7 +1553,7 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1699,7 +1690,7 @@
       <c r="E6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="51" t="s">
         <v>190</v>
       </c>
       <c r="G6" s="44" t="s">
@@ -1979,7 +1970,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>223</v>
@@ -2006,7 +1997,7 @@
         <v>34</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G16" s="44" t="s">
         <v>223</v>
@@ -2370,11 +2361,6 @@
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="O14:O17"/>
     <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
     <mergeCell ref="N18:N20"/>
     <mergeCell ref="O18:O20"/>
     <mergeCell ref="P18:P20"/>
@@ -2384,6 +2370,11 @@
     <mergeCell ref="L14:L17"/>
     <mergeCell ref="M14:M17"/>
     <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="P21:P23"/>
     <mergeCell ref="B24:B26"/>

--- a/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
+++ b/tools/HCD_IP-Planning-Hardware-Requirements.xlsx
@@ -620,9 +620,6 @@
     <t>CEPH1</t>
   </si>
   <si>
-    <t>VLAN70</t>
-  </si>
-  <si>
     <t>VLAN82</t>
   </si>
   <si>
@@ -711,13 +708,16 @@
   </si>
   <si>
     <t>IP PLANNING - OpenStack  - CEPH</t>
+  </si>
+  <si>
+    <t>VLAN80</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,13 +749,6 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1132,6 +1125,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1144,25 +1185,31 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1174,33 +1221,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,11 +1257,41 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1249,41 +1299,11 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,34 +1312,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1606,8 +1599,8 @@
   </sheetPr>
   <dimension ref="B2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1628,61 +1621,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="2:16" ht="28.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
-        <v>224</v>
-      </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
+      <c r="B3" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="4" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="55" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
     </row>
     <row r="5" spans="2:16" ht="50.4" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -1732,37 +1725,37 @@
       </c>
     </row>
     <row r="6" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D6" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E6" s="105" t="s">
+      <c r="D6" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E6" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="113" t="s">
+      <c r="F6" s="114" t="s">
+        <v>216</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H6" s="52" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H6" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="I6" s="105" t="s">
+      <c r="I6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="65">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="66" t="s">
         <v>172</v>
       </c>
       <c r="M6" s="61" t="s">
@@ -1773,118 +1766,118 @@
       <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
-      <c r="C7" s="106" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D7" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="106" t="s">
+      <c r="D7" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="G7" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="60"/>
+      <c r="G7" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
       <c r="O7" s="62"/>
       <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
-      <c r="C8" s="108" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D8" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="109" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="60"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
     </row>
     <row r="9" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
-      <c r="C9" s="114" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="60" t="s">
         <v>163</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F9" s="110" t="s">
+      <c r="F9" s="57" t="s">
         <v>192</v>
       </c>
       <c r="G9" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="60"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
     </row>
     <row r="10" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D10" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E10" s="105" t="s">
+      <c r="D10" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F10" s="113" t="s">
-        <v>219</v>
-      </c>
-      <c r="G10" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H10" s="105" t="s">
+      <c r="F10" s="114" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="G10" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="I10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="65">
         <v>4</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="66" t="s">
         <v>173</v>
       </c>
       <c r="M10" s="62"/>
@@ -1893,118 +1886,118 @@
       <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
-      <c r="C11" s="106" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="106" t="s">
+      <c r="D11" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F11" s="107" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="60"/>
+      <c r="F11" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
-      <c r="C12" s="108" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D12" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="E12" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="60"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
     </row>
     <row r="13" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
-      <c r="C13" s="114" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="60" t="s">
         <v>163</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F13" s="110" t="s">
-        <v>206</v>
+      <c r="F13" s="57" t="s">
+        <v>205</v>
       </c>
       <c r="G13" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="60"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="63" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D14" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E14" s="105" t="s">
+      <c r="D14" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F14" s="113" t="s">
-        <v>220</v>
-      </c>
-      <c r="G14" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H14" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="105" t="s">
+      <c r="F14" s="114" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="I14" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="65">
         <v>4</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="66" t="s">
         <v>173</v>
       </c>
       <c r="M14" s="62"/>
@@ -2013,118 +2006,118 @@
       <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
-      <c r="C15" s="106" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="53" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="106" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="106" t="s">
+      <c r="D15" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="F15" s="107" t="s">
-        <v>208</v>
-      </c>
-      <c r="G15" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="60"/>
+      <c r="F15" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
       <c r="P15" s="62"/>
     </row>
     <row r="16" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
-      <c r="C16" s="108" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="55" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="D16" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="108" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="109" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="60"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
     </row>
     <row r="17" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
-      <c r="C17" s="114" t="s">
+      <c r="B17" s="63"/>
+      <c r="C17" s="60" t="s">
         <v>163</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="F17" s="110" t="s">
-        <v>209</v>
+      <c r="F17" s="57" t="s">
+        <v>208</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="60"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
       <c r="P17" s="62"/>
     </row>
     <row r="18" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D18" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E18" s="105" t="s">
+      <c r="D18" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F18" s="113" t="s">
-        <v>221</v>
-      </c>
-      <c r="G18" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H18" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" s="105" t="s">
+      <c r="F18" s="114" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="I18" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K18" s="58">
+      <c r="J18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" s="65">
         <v>2</v>
       </c>
-      <c r="L18" s="59" t="s">
+      <c r="L18" s="66" t="s">
         <v>173</v>
       </c>
       <c r="M18" s="61" t="s">
@@ -2139,91 +2132,91 @@
       <c r="P18" s="62"/>
     </row>
     <row r="19" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="108" t="s">
+      <c r="B19" s="63"/>
+      <c r="C19" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D19" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="108" t="s">
+      <c r="D19" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="109" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="108"/>
-      <c r="I19" s="108"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="60"/>
+      <c r="F19" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="67"/>
       <c r="M19" s="62"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
       <c r="P19" s="62"/>
     </row>
     <row r="20" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="56"/>
-      <c r="C20" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="111" t="s">
-        <v>211</v>
-      </c>
-      <c r="E20" s="111" t="s">
+      <c r="B20" s="63"/>
+      <c r="C20" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="F20" s="112" t="s">
-        <v>210</v>
-      </c>
-      <c r="G20" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="60"/>
+      <c r="F20" s="59" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="67"/>
       <c r="M20" s="62"/>
       <c r="N20" s="62"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
     </row>
     <row r="21" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="C21" s="105" t="s">
+      <c r="B21" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="C21" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E21" s="105" t="s">
+      <c r="D21" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F21" s="113" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="I21" s="105" t="s">
+      <c r="F21" s="114" t="s">
+        <v>221</v>
+      </c>
+      <c r="G21" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="I21" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K21" s="58">
+      <c r="J21" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="65">
         <v>2</v>
       </c>
-      <c r="L21" s="59" t="s">
+      <c r="L21" s="66" t="s">
         <v>173</v>
       </c>
       <c r="M21" s="61" t="s">
@@ -2238,91 +2231,91 @@
       <c r="P21" s="62"/>
     </row>
     <row r="22" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="56"/>
-      <c r="C22" s="108" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D22" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="108" t="s">
+      <c r="D22" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="109" t="s">
-        <v>200</v>
-      </c>
-      <c r="G22" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="60"/>
+      <c r="F22" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="G22" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="67"/>
       <c r="M22" s="62"/>
       <c r="N22" s="62"/>
       <c r="O22" s="62"/>
       <c r="P22" s="62"/>
     </row>
     <row r="23" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56"/>
-      <c r="C23" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="111" t="s">
-        <v>211</v>
-      </c>
-      <c r="E23" s="111" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="F23" s="112" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="60"/>
+      <c r="F23" s="59" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="67"/>
       <c r="M23" s="62"/>
       <c r="N23" s="62"/>
       <c r="O23" s="62"/>
       <c r="P23" s="62"/>
     </row>
     <row r="24" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="C24" s="105" t="s">
+      <c r="B24" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="105" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="105" t="s">
+      <c r="D24" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="F24" s="113" t="s">
-        <v>223</v>
-      </c>
-      <c r="G24" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="H24" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="I24" s="105" t="s">
+      <c r="F24" s="114" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="I24" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="J24" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="K24" s="58">
+      <c r="J24" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="65">
         <v>2</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="66" t="s">
         <v>173</v>
       </c>
       <c r="M24" s="61" t="s">
@@ -2337,54 +2330,54 @@
       <c r="P24" s="62"/>
     </row>
     <row r="25" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="108" t="s">
+      <c r="B25" s="63"/>
+      <c r="C25" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="E25" s="108" t="s">
+      <c r="D25" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="F25" s="109" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="108" t="s">
-        <v>216</v>
-      </c>
-      <c r="H25" s="108"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="60"/>
+      <c r="F25" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" s="55" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="62"/>
       <c r="N25" s="62"/>
       <c r="O25" s="62"/>
       <c r="P25" s="62"/>
     </row>
     <row r="26" spans="2:16" s="51" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="111" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="111" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="D26" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="E26" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="111" t="s">
-        <v>149</v>
-      </c>
-      <c r="F26" s="112" t="s">
-        <v>212</v>
-      </c>
-      <c r="G26" s="111" t="s">
-        <v>216</v>
-      </c>
-      <c r="H26" s="111"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="60"/>
+      <c r="G26" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="67"/>
       <c r="M26" s="62"/>
       <c r="N26" s="62"/>
       <c r="O26" s="62"/>
@@ -2393,6 +2386,42 @@
     <row r="27" spans="2:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="O10:O13"/>
+    <mergeCell ref="P10:P13"/>
+    <mergeCell ref="O14:O17"/>
+    <mergeCell ref="P14:P17"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="M14:M17"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="M18:M20"/>
     <mergeCell ref="O21:O23"/>
     <mergeCell ref="P21:P23"/>
     <mergeCell ref="B24:B26"/>
@@ -2409,42 +2438,6 @@
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="M21:M23"/>
     <mergeCell ref="N21:N23"/>
-    <mergeCell ref="N18:N20"/>
-    <mergeCell ref="O18:O20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="M18:M20"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="O10:O13"/>
-    <mergeCell ref="P10:P13"/>
-    <mergeCell ref="O14:O17"/>
-    <mergeCell ref="P14:P17"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2478,61 +2471,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -2582,7 +2575,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>164</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -2606,13 +2599,13 @@
       <c r="I6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="64" t="s">
         <v>171</v>
       </c>
-      <c r="K6" s="58">
+      <c r="K6" s="65">
         <v>2</v>
       </c>
-      <c r="L6" s="59" t="s">
+      <c r="L6" s="66" t="s">
         <v>172</v>
       </c>
       <c r="M6" s="61" t="s">
@@ -2623,7 +2616,7 @@
       <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="29" t="s">
         <v>161</v>
       </c>
@@ -2641,16 +2634,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="60"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
       <c r="O7" s="62"/>
       <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="35" t="s">
         <v>162</v>
       </c>
@@ -2668,16 +2661,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="60"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
     </row>
     <row r="9" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="50" t="s">
         <v>163</v>
       </c>
@@ -2695,16 +2688,16 @@
       </c>
       <c r="H9" s="48"/>
       <c r="I9" s="48"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="60"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
     </row>
     <row r="10" spans="2:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="81" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -2728,13 +2721,13 @@
       <c r="I10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="57" t="s">
+      <c r="J10" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="58">
+      <c r="K10" s="65">
         <v>4</v>
       </c>
-      <c r="L10" s="59" t="s">
+      <c r="L10" s="66" t="s">
         <v>173</v>
       </c>
       <c r="M10" s="62"/>
@@ -2743,7 +2736,7 @@
       <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="29" t="s">
         <v>161</v>
       </c>
@@ -2761,16 +2754,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="60"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="35" t="s">
         <v>162</v>
       </c>
@@ -2788,16 +2781,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="60"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
     </row>
     <row r="13" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="50" t="s">
         <v>163</v>
       </c>
@@ -2815,16 +2808,16 @@
       </c>
       <c r="H13" s="48"/>
       <c r="I13" s="48"/>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="60"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="81" t="s">
         <v>166</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -2848,13 +2841,13 @@
       <c r="I14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="57" t="s">
+      <c r="J14" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="58">
+      <c r="K14" s="65">
         <v>4</v>
       </c>
-      <c r="L14" s="59" t="s">
+      <c r="L14" s="66" t="s">
         <v>173</v>
       </c>
       <c r="M14" s="62"/>
@@ -2863,7 +2856,7 @@
       <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="29" t="s">
         <v>161</v>
       </c>
@@ -2881,16 +2874,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="60"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
       <c r="P15" s="62"/>
     </row>
     <row r="16" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="35" t="s">
         <v>162</v>
       </c>
@@ -2908,16 +2901,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="60"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
     </row>
     <row r="17" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="65"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="50" t="s">
         <v>163</v>
       </c>
@@ -2935,9 +2928,9 @@
       </c>
       <c r="H17" s="48"/>
       <c r="I17" s="48"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="60"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -2945,18 +2938,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
     <mergeCell ref="O10:O13"/>
     <mergeCell ref="P10:P13"/>
     <mergeCell ref="O14:O17"/>
@@ -2973,6 +2954,18 @@
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M10:M13"/>
     <mergeCell ref="N10:N13"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3004,44 +2997,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="74"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -3091,24 +3084,24 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="86"/>
     </row>
     <row r="6" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="81" t="s">
         <v>133</v>
       </c>
       <c r="C6" s="28" t="s">
@@ -3130,28 +3123,28 @@
       <c r="I6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="78">
+      <c r="J6" s="87">
         <v>6</v>
       </c>
-      <c r="K6" s="78">
+      <c r="K6" s="87">
         <v>2</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="90">
         <v>40</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="93">
         <v>50</v>
       </c>
-      <c r="N6" s="84">
+      <c r="N6" s="93">
         <v>60</v>
       </c>
-      <c r="O6" s="84">
+      <c r="O6" s="93">
         <v>60</v>
       </c>
-      <c r="P6" s="84"/>
+      <c r="P6" s="93"/>
     </row>
     <row r="7" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="30" t="s">
         <v>100</v>
       </c>
@@ -3167,16 +3160,16 @@
       </c>
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
     </row>
     <row r="8" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="32" t="s">
         <v>102</v>
       </c>
@@ -3192,16 +3185,16 @@
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
     </row>
     <row r="9" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="65"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="34" t="s">
         <v>116</v>
       </c>
@@ -3217,33 +3210,33 @@
       </c>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="95"/>
     </row>
     <row r="10" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="77"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="86"/>
     </row>
     <row r="11" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="81" t="s">
         <v>134</v>
       </c>
       <c r="C11" s="28" t="s">
@@ -3265,22 +3258,22 @@
       <c r="I11" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="78">
+      <c r="J11" s="87">
         <v>4</v>
       </c>
-      <c r="K11" s="78">
+      <c r="K11" s="87">
         <v>4</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="90">
         <v>50</v>
       </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="84"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
     </row>
     <row r="12" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="30" t="s">
         <v>100</v>
       </c>
@@ -3296,16 +3289,16 @@
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="32" t="s">
         <v>102</v>
       </c>
@@ -3321,16 +3314,16 @@
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="65"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="34" t="s">
         <v>116</v>
       </c>
@@ -3346,33 +3339,33 @@
       </c>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="J14" s="80"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
     </row>
     <row r="15" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="75"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="77"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="86"/>
     </row>
     <row r="16" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="81" t="s">
         <v>135</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -3394,22 +3387,22 @@
       <c r="I16" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="78">
+      <c r="J16" s="87">
         <v>4</v>
       </c>
-      <c r="K16" s="78">
+      <c r="K16" s="87">
         <v>4</v>
       </c>
-      <c r="L16" s="81">
+      <c r="L16" s="90">
         <v>50</v>
       </c>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="93"/>
+      <c r="P16" s="93"/>
     </row>
     <row r="17" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="30" t="s">
         <v>100</v>
       </c>
@@ -3425,16 +3418,16 @@
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
     </row>
     <row r="18" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="32" t="s">
         <v>102</v>
       </c>
@@ -3450,16 +3443,16 @@
       </c>
       <c r="H18" s="33"/>
       <c r="I18" s="33"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
     </row>
     <row r="19" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="65"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="34" t="s">
         <v>116</v>
       </c>
@@ -3475,33 +3468,33 @@
       </c>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="83"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
     </row>
     <row r="20" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="77"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="85"/>
+      <c r="O20" s="85"/>
+      <c r="P20" s="86"/>
     </row>
     <row r="21" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="81" t="s">
         <v>117</v>
       </c>
       <c r="C21" s="28" t="s">
@@ -3523,26 +3516,26 @@
       <c r="I21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="78">
+      <c r="J21" s="87">
         <v>4</v>
       </c>
-      <c r="K21" s="78">
+      <c r="K21" s="87">
         <v>4</v>
       </c>
-      <c r="L21" s="81">
+      <c r="L21" s="90">
         <v>40</v>
       </c>
-      <c r="M21" s="84">
+      <c r="M21" s="93">
         <v>50</v>
       </c>
-      <c r="N21" s="84">
+      <c r="N21" s="93">
         <v>60</v>
       </c>
-      <c r="O21" s="84"/>
-      <c r="P21" s="84"/>
+      <c r="O21" s="93"/>
+      <c r="P21" s="93"/>
     </row>
     <row r="22" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="64"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="30" t="s">
         <v>100</v>
       </c>
@@ -3558,16 +3551,16 @@
       </c>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="85"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="91"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
     </row>
     <row r="23" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="32" t="s">
         <v>102</v>
       </c>
@@ -3583,16 +3576,16 @@
       </c>
       <c r="H23" s="33"/>
       <c r="I23" s="33"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
     </row>
     <row r="24" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="65"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="34" t="s">
         <v>116</v>
       </c>
@@ -3608,33 +3601,33 @@
       </c>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="95"/>
     </row>
     <row r="25" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="76"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="77"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="86"/>
     </row>
     <row r="26" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="81" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="28" t="s">
@@ -3656,26 +3649,26 @@
       <c r="I26" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="78">
+      <c r="J26" s="87">
         <v>4</v>
       </c>
-      <c r="K26" s="78">
+      <c r="K26" s="87">
         <v>4</v>
       </c>
-      <c r="L26" s="81">
+      <c r="L26" s="90">
         <v>40</v>
       </c>
-      <c r="M26" s="84">
+      <c r="M26" s="93">
         <v>50</v>
       </c>
-      <c r="N26" s="84">
+      <c r="N26" s="93">
         <v>50</v>
       </c>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
+      <c r="O26" s="93"/>
+      <c r="P26" s="93"/>
     </row>
     <row r="27" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="30" t="s">
         <v>100</v>
       </c>
@@ -3691,16 +3684,16 @@
       </c>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
     </row>
     <row r="28" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="32" t="s">
         <v>102</v>
       </c>
@@ -3716,16 +3709,16 @@
       </c>
       <c r="H28" s="33"/>
       <c r="I28" s="33"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
     </row>
     <row r="29" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="65"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="34" t="s">
         <v>116</v>
       </c>
@@ -3741,33 +3734,33 @@
       </c>
       <c r="H29" s="35"/>
       <c r="I29" s="35"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
     </row>
     <row r="30" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="75"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="77"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="86"/>
     </row>
     <row r="31" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="81" t="s">
         <v>123</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -3789,26 +3782,26 @@
       <c r="I31" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="78">
+      <c r="J31" s="87">
         <v>4</v>
       </c>
-      <c r="K31" s="78">
+      <c r="K31" s="87">
         <v>4</v>
       </c>
-      <c r="L31" s="81">
+      <c r="L31" s="90">
         <v>40</v>
       </c>
-      <c r="M31" s="84">
+      <c r="M31" s="93">
         <v>50</v>
       </c>
-      <c r="N31" s="84">
+      <c r="N31" s="93">
         <v>50</v>
       </c>
-      <c r="O31" s="84"/>
-      <c r="P31" s="84"/>
+      <c r="O31" s="93"/>
+      <c r="P31" s="93"/>
     </row>
     <row r="32" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="64"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="30" t="s">
         <v>100</v>
       </c>
@@ -3824,16 +3817,16 @@
       </c>
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="91"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="94"/>
+      <c r="P32" s="94"/>
     </row>
     <row r="33" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
+      <c r="B33" s="82"/>
       <c r="C33" s="32" t="s">
         <v>102</v>
       </c>
@@ -3849,16 +3842,16 @@
       </c>
       <c r="H33" s="33"/>
       <c r="I33" s="33"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
     </row>
     <row r="34" spans="2:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="65"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="34" t="s">
         <v>116</v>
       </c>
@@ -3874,16 +3867,61 @@
       </c>
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="92"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="B30:P30"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="L31:L34"/>
+    <mergeCell ref="M31:M34"/>
+    <mergeCell ref="N31:N34"/>
+    <mergeCell ref="O31:O34"/>
+    <mergeCell ref="P31:P34"/>
+    <mergeCell ref="B25:P25"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="J26:J29"/>
+    <mergeCell ref="K26:K29"/>
+    <mergeCell ref="L26:L29"/>
+    <mergeCell ref="M26:M29"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="O26:O29"/>
+    <mergeCell ref="P26:P29"/>
+    <mergeCell ref="B20:P20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="J21:J24"/>
+    <mergeCell ref="K21:K24"/>
+    <mergeCell ref="L21:L24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="B15:P15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
+    <mergeCell ref="P16:P19"/>
+    <mergeCell ref="B10:P10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="J3:P3"/>
@@ -3896,51 +3934,6 @@
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="O6:O9"/>
     <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B10:P10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="B15:P15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
-    <mergeCell ref="P16:P19"/>
-    <mergeCell ref="B20:P20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="J21:J24"/>
-    <mergeCell ref="K21:K24"/>
-    <mergeCell ref="L21:L24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="B25:P25"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="J26:J29"/>
-    <mergeCell ref="K26:K29"/>
-    <mergeCell ref="L26:L29"/>
-    <mergeCell ref="M26:M29"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="O26:O29"/>
-    <mergeCell ref="P26:P29"/>
-    <mergeCell ref="B30:P30"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="L31:L34"/>
-    <mergeCell ref="M31:M34"/>
-    <mergeCell ref="N31:N34"/>
-    <mergeCell ref="O31:O34"/>
-    <mergeCell ref="P31:P34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3974,44 +3967,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="74"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -4061,436 +4054,436 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="89" t="s">
+      <c r="F5" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="87"/>
+      <c r="G5" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="110"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="78">
+      <c r="J5" s="87">
         <v>2</v>
       </c>
-      <c r="K5" s="78">
-        <v>1</v>
-      </c>
-      <c r="L5" s="81">
+      <c r="K5" s="87">
+        <v>1</v>
+      </c>
+      <c r="L5" s="90">
         <v>20</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="93"/>
+      <c r="P5" s="93"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
       <c r="E6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="91" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="91"/>
+      <c r="G7" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="102"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="95" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="95" t="s">
+      <c r="G9" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="96"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="98"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+      <c r="F10" s="107"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="101" t="s">
+      <c r="F11" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
+      <c r="G11" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
       <c r="E12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="102"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="80"/>
-      <c r="K12" s="80"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="89" t="s">
+      <c r="F13" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="87"/>
+      <c r="G13" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="110"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="78">
+      <c r="J13" s="87">
         <v>2</v>
       </c>
-      <c r="K13" s="78">
-        <v>1</v>
-      </c>
-      <c r="L13" s="81">
+      <c r="K13" s="87">
+        <v>1</v>
+      </c>
+      <c r="L13" s="90">
         <v>20</v>
       </c>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
+      <c r="M13" s="93"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="93"/>
+      <c r="P13" s="93"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="91" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="D15" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="93" t="s">
+      <c r="F15" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="91"/>
+      <c r="G15" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="102"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="103"/>
+      <c r="D16" s="103"/>
       <c r="E16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="95" t="s">
+      <c r="B17" s="82"/>
+      <c r="C17" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="97" t="s">
+      <c r="F17" s="106" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="95" t="s">
+      <c r="G17" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="95" t="s">
+      <c r="I17" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="98"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="99" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
+      <c r="G19" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="65"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="102"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="95"/>
     </row>
     <row r="21" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="68"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
     </row>
     <row r="22" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72" t="s">
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="80"/>
     </row>
     <row r="23" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
@@ -4540,356 +4533,356 @@
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="87" t="s">
+      <c r="C24" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="87" t="s">
+      <c r="D24" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="89" t="s">
+      <c r="F24" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="78">
+      <c r="G24" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="87">
         <v>2</v>
       </c>
-      <c r="K24" s="78">
-        <v>1</v>
-      </c>
-      <c r="L24" s="81">
+      <c r="K24" s="87">
+        <v>1</v>
+      </c>
+      <c r="L24" s="90">
         <v>20</v>
       </c>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="84"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="93"/>
+      <c r="P24" s="93"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
       <c r="E25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="90"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
     </row>
     <row r="26" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="95" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="97" t="s">
+      <c r="F26" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="95" t="s">
+      <c r="G26" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="95" t="s">
+      <c r="I26" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
     </row>
     <row r="27" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96" t="s">
+      <c r="B27" s="82"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="98"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="87" t="s">
+      <c r="C28" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="89" t="s">
+      <c r="F28" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="78">
+      <c r="G28" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="87">
         <v>2</v>
       </c>
-      <c r="K28" s="78">
-        <v>1</v>
-      </c>
-      <c r="L28" s="81">
+      <c r="K28" s="87">
+        <v>1</v>
+      </c>
+      <c r="L28" s="90">
         <v>20</v>
       </c>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="84"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="93"/>
+      <c r="O28" s="93"/>
+      <c r="P28" s="93"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="64"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="90"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
+      <c r="P29" s="94"/>
     </row>
     <row r="30" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B30" s="64"/>
-      <c r="C30" s="95" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="95" t="s">
+      <c r="D30" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="95" t="s">
+      <c r="E30" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F30" s="97" t="s">
+      <c r="F30" s="106" t="s">
         <v>55</v>
       </c>
-      <c r="G30" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H30" s="95" t="s">
+      <c r="G30" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="95" t="s">
+      <c r="I30" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="94"/>
     </row>
     <row r="31" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B31" s="64"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96" t="s">
+      <c r="B31" s="82"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="98"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="94"/>
+      <c r="P31" s="94"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="C32" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="D32" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="89" t="s">
+      <c r="F32" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="G32" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="78">
+      <c r="G32" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="87">
         <v>2</v>
       </c>
-      <c r="K32" s="78">
-        <v>1</v>
-      </c>
-      <c r="L32" s="81">
+      <c r="K32" s="87">
+        <v>1</v>
+      </c>
+      <c r="L32" s="90">
         <v>20</v>
       </c>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="84"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="93"/>
+      <c r="P32" s="93"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="64"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
       <c r="E33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="90"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="94"/>
+      <c r="P33" s="94"/>
     </row>
     <row r="34" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B34" s="64"/>
-      <c r="C34" s="95" t="s">
+      <c r="B34" s="82"/>
+      <c r="C34" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="95" t="s">
+      <c r="D34" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="95" t="s">
+      <c r="E34" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="97" t="s">
+      <c r="F34" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="G34" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="95" t="s">
+      <c r="G34" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I34" s="95" t="s">
+      <c r="I34" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="85"/>
-      <c r="N34" s="85"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="85"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="94"/>
+      <c r="P34" s="94"/>
     </row>
     <row r="35" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B35" s="65"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96" t="s">
+      <c r="B35" s="83"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="98"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
     </row>
     <row r="36" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="66" t="s">
+      <c r="B36" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
-      <c r="I36" s="67"/>
-      <c r="J36" s="67"/>
-      <c r="K36" s="67"/>
-      <c r="L36" s="67"/>
-      <c r="M36" s="67"/>
-      <c r="N36" s="67"/>
-      <c r="O36" s="67"/>
-      <c r="P36" s="68"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="74"/>
     </row>
     <row r="37" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="70"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="73"/>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="74"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
+      <c r="P37" s="80"/>
     </row>
     <row r="38" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
@@ -4939,356 +4932,356 @@
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="63" t="s">
+      <c r="B39" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="C39" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="87" t="s">
+      <c r="D39" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="89" t="s">
+      <c r="F39" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="G39" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
-      <c r="J39" s="78">
+      <c r="G39" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="87">
         <v>2</v>
       </c>
-      <c r="K39" s="78">
-        <v>1</v>
-      </c>
-      <c r="L39" s="81">
+      <c r="K39" s="87">
+        <v>1</v>
+      </c>
+      <c r="L39" s="90">
         <v>20</v>
       </c>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="84"/>
+      <c r="M39" s="93"/>
+      <c r="N39" s="93"/>
+      <c r="O39" s="93"/>
+      <c r="P39" s="93"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="64"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
       <c r="E40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="90"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="82"/>
-      <c r="M40" s="85"/>
-      <c r="N40" s="85"/>
-      <c r="O40" s="85"/>
-      <c r="P40" s="85"/>
+      <c r="F40" s="109"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="91"/>
+      <c r="M40" s="94"/>
+      <c r="N40" s="94"/>
+      <c r="O40" s="94"/>
+      <c r="P40" s="94"/>
     </row>
     <row r="41" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B41" s="64"/>
-      <c r="C41" s="95" t="s">
+      <c r="B41" s="82"/>
+      <c r="C41" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="95" t="s">
+      <c r="D41" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="95" t="s">
+      <c r="E41" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="97" t="s">
+      <c r="F41" s="106" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H41" s="95" t="s">
+      <c r="G41" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I41" s="95" t="s">
+      <c r="I41" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="82"/>
-      <c r="M41" s="85"/>
-      <c r="N41" s="85"/>
-      <c r="O41" s="85"/>
-      <c r="P41" s="85"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="91"/>
+      <c r="M41" s="94"/>
+      <c r="N41" s="94"/>
+      <c r="O41" s="94"/>
+      <c r="P41" s="94"/>
     </row>
     <row r="42" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B42" s="64"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="98"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="82"/>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="85"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="94"/>
+      <c r="N42" s="94"/>
+      <c r="O42" s="94"/>
+      <c r="P42" s="94"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="63" t="s">
+      <c r="B43" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="87" t="s">
+      <c r="D43" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="89" t="s">
+      <c r="F43" s="108" t="s">
         <v>63</v>
       </c>
-      <c r="G43" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
-      <c r="J43" s="78">
+      <c r="G43" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="87">
         <v>2</v>
       </c>
-      <c r="K43" s="78">
-        <v>1</v>
-      </c>
-      <c r="L43" s="81">
+      <c r="K43" s="87">
+        <v>1</v>
+      </c>
+      <c r="L43" s="90">
         <v>20</v>
       </c>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="84"/>
+      <c r="M43" s="93"/>
+      <c r="N43" s="93"/>
+      <c r="O43" s="93"/>
+      <c r="P43" s="93"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="64"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
       <c r="E44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="90"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="85"/>
-      <c r="N44" s="85"/>
-      <c r="O44" s="85"/>
-      <c r="P44" s="85"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="88"/>
+      <c r="K44" s="88"/>
+      <c r="L44" s="91"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="94"/>
+      <c r="O44" s="94"/>
+      <c r="P44" s="94"/>
     </row>
     <row r="45" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B45" s="64"/>
-      <c r="C45" s="95" t="s">
+      <c r="B45" s="82"/>
+      <c r="C45" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="95" t="s">
+      <c r="D45" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="95" t="s">
+      <c r="E45" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="97" t="s">
+      <c r="F45" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="G45" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H45" s="95" t="s">
+      <c r="G45" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H45" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I45" s="95" t="s">
+      <c r="I45" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="85"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="94"/>
+      <c r="O45" s="94"/>
+      <c r="P45" s="94"/>
     </row>
     <row r="46" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B46" s="64"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96" t="s">
+      <c r="B46" s="82"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="98"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="85"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="88"/>
+      <c r="K46" s="88"/>
+      <c r="L46" s="91"/>
+      <c r="M46" s="94"/>
+      <c r="N46" s="94"/>
+      <c r="O46" s="94"/>
+      <c r="P46" s="94"/>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="63" t="s">
+      <c r="B47" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="87" t="s">
+      <c r="C47" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="87" t="s">
+      <c r="D47" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="G47" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="78">
+      <c r="G47" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="87">
         <v>2</v>
       </c>
-      <c r="K47" s="78">
-        <v>1</v>
-      </c>
-      <c r="L47" s="81">
+      <c r="K47" s="87">
+        <v>1</v>
+      </c>
+      <c r="L47" s="90">
         <v>20</v>
       </c>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="93"/>
+      <c r="P47" s="93"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="64"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
       <c r="E48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="90"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="85"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="88"/>
+      <c r="K48" s="88"/>
+      <c r="L48" s="91"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="94"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="94"/>
     </row>
     <row r="49" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B49" s="64"/>
-      <c r="C49" s="95" t="s">
+      <c r="B49" s="82"/>
+      <c r="C49" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="95" t="s">
+      <c r="D49" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="95" t="s">
+      <c r="E49" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="97" t="s">
+      <c r="F49" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H49" s="95" t="s">
+      <c r="G49" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I49" s="95" t="s">
+      <c r="I49" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J49" s="79"/>
-      <c r="K49" s="79"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="85"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="88"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="94"/>
+      <c r="N49" s="94"/>
+      <c r="O49" s="94"/>
+      <c r="P49" s="94"/>
     </row>
     <row r="50" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B50" s="65"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96" t="s">
+      <c r="B50" s="83"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="F50" s="98"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
+      <c r="P50" s="95"/>
     </row>
     <row r="51" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B51" s="66" t="s">
+      <c r="B51" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="68"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="73"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="74"/>
     </row>
     <row r="52" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="72" t="s">
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K52" s="73"/>
-      <c r="L52" s="73"/>
-      <c r="M52" s="73"/>
-      <c r="N52" s="73"/>
-      <c r="O52" s="73"/>
-      <c r="P52" s="74"/>
+      <c r="K52" s="79"/>
+      <c r="L52" s="79"/>
+      <c r="M52" s="79"/>
+      <c r="N52" s="79"/>
+      <c r="O52" s="79"/>
+      <c r="P52" s="80"/>
     </row>
     <row r="53" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
@@ -5338,616 +5331,838 @@
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D54" s="87" t="s">
+      <c r="D54" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="89" t="s">
+      <c r="F54" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="G54" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="87"/>
+      <c r="G54" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H54" s="110"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="78">
+      <c r="J54" s="87">
         <v>2</v>
       </c>
-      <c r="K54" s="78">
-        <v>1</v>
-      </c>
-      <c r="L54" s="81">
+      <c r="K54" s="87">
+        <v>1</v>
+      </c>
+      <c r="L54" s="90">
         <v>20</v>
       </c>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
+      <c r="M54" s="93"/>
+      <c r="N54" s="93"/>
+      <c r="O54" s="93"/>
+      <c r="P54" s="93"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="64"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
       <c r="E55" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="90"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="88"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
       <c r="I55" s="12"/>
-      <c r="J55" s="79"/>
-      <c r="K55" s="79"/>
-      <c r="L55" s="82"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="85"/>
+      <c r="J55" s="88"/>
+      <c r="K55" s="88"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="94"/>
+      <c r="O55" s="94"/>
+      <c r="P55" s="94"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="64"/>
-      <c r="C56" s="91" t="s">
+      <c r="B56" s="82"/>
+      <c r="C56" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="91" t="s">
+      <c r="D56" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E56" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="93" t="s">
+      <c r="F56" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="91"/>
+      <c r="G56" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H56" s="102"/>
       <c r="I56" s="9"/>
-      <c r="J56" s="79"/>
-      <c r="K56" s="79"/>
-      <c r="L56" s="82"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="85"/>
+      <c r="J56" s="88"/>
+      <c r="K56" s="88"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="94"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="64"/>
-      <c r="C57" s="92"/>
-      <c r="D57" s="92"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
       <c r="E57" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F57" s="94"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="79"/>
-      <c r="K57" s="79"/>
-      <c r="L57" s="82"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="85"/>
+      <c r="J57" s="88"/>
+      <c r="K57" s="88"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="94"/>
+      <c r="N57" s="94"/>
+      <c r="O57" s="94"/>
+      <c r="P57" s="94"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="64"/>
-      <c r="C58" s="95" t="s">
+      <c r="B58" s="82"/>
+      <c r="C58" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="95" t="s">
+      <c r="D58" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E58" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="97" t="s">
+      <c r="F58" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G58" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H58" s="95" t="s">
+      <c r="G58" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H58" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="95" t="s">
+      <c r="I58" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J58" s="79"/>
-      <c r="K58" s="79"/>
-      <c r="L58" s="82"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="85"/>
+      <c r="J58" s="88"/>
+      <c r="K58" s="88"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="94"/>
+      <c r="N58" s="94"/>
+      <c r="O58" s="94"/>
+      <c r="P58" s="94"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="64"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="96"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="98"/>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="79"/>
-      <c r="K59" s="79"/>
-      <c r="L59" s="82"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="85"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="88"/>
+      <c r="K59" s="88"/>
+      <c r="L59" s="91"/>
+      <c r="M59" s="94"/>
+      <c r="N59" s="94"/>
+      <c r="O59" s="94"/>
+      <c r="P59" s="94"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="64"/>
-      <c r="C60" s="99" t="s">
+      <c r="B60" s="82"/>
+      <c r="C60" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="99" t="s">
+      <c r="D60" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F60" s="101" t="s">
+      <c r="F60" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H60" s="99"/>
-      <c r="I60" s="99"/>
-      <c r="J60" s="79"/>
-      <c r="K60" s="79"/>
-      <c r="L60" s="82"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="85"/>
+      <c r="G60" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H60" s="98"/>
+      <c r="I60" s="98"/>
+      <c r="J60" s="88"/>
+      <c r="K60" s="88"/>
+      <c r="L60" s="91"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="94"/>
+      <c r="O60" s="94"/>
+      <c r="P60" s="94"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="64"/>
-      <c r="C61" s="100"/>
-      <c r="D61" s="100"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
       <c r="E61" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F61" s="102"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="82"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="85"/>
+      <c r="F61" s="101"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="99"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="94"/>
+      <c r="O61" s="94"/>
+      <c r="P61" s="94"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="63" t="s">
+      <c r="B62" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="87" t="s">
+      <c r="C62" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D62" s="87" t="s">
+      <c r="D62" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F62" s="89" t="s">
+      <c r="F62" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="G62" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H62" s="87"/>
+      <c r="G62" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H62" s="110"/>
       <c r="I62" s="11"/>
-      <c r="J62" s="78">
+      <c r="J62" s="87">
         <v>2</v>
       </c>
-      <c r="K62" s="78">
-        <v>1</v>
-      </c>
-      <c r="L62" s="81">
+      <c r="K62" s="87">
+        <v>1</v>
+      </c>
+      <c r="L62" s="90">
         <v>20</v>
       </c>
-      <c r="M62" s="84"/>
-      <c r="N62" s="84"/>
-      <c r="O62" s="84"/>
-      <c r="P62" s="84"/>
+      <c r="M62" s="93"/>
+      <c r="N62" s="93"/>
+      <c r="O62" s="93"/>
+      <c r="P62" s="93"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="64"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="88"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="111"/>
+      <c r="D63" s="111"/>
       <c r="E63" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F63" s="90"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="88"/>
+      <c r="F63" s="109"/>
+      <c r="G63" s="111"/>
+      <c r="H63" s="111"/>
       <c r="I63" s="12"/>
-      <c r="J63" s="79"/>
-      <c r="K63" s="79"/>
-      <c r="L63" s="82"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
-      <c r="O63" s="85"/>
-      <c r="P63" s="85"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="91"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="94"/>
+      <c r="O63" s="94"/>
+      <c r="P63" s="94"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="64"/>
-      <c r="C64" s="91" t="s">
+      <c r="B64" s="82"/>
+      <c r="C64" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="91" t="s">
+      <c r="D64" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="93" t="s">
+      <c r="F64" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="91"/>
+      <c r="G64" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H64" s="102"/>
       <c r="I64" s="9"/>
-      <c r="J64" s="79"/>
-      <c r="K64" s="79"/>
-      <c r="L64" s="82"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="85"/>
+      <c r="J64" s="88"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="91"/>
+      <c r="M64" s="94"/>
+      <c r="N64" s="94"/>
+      <c r="O64" s="94"/>
+      <c r="P64" s="94"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="64"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="92"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
       <c r="E65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F65" s="94"/>
-      <c r="G65" s="92"/>
-      <c r="H65" s="92"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="79"/>
-      <c r="K65" s="79"/>
-      <c r="L65" s="82"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="85"/>
-      <c r="O65" s="85"/>
-      <c r="P65" s="85"/>
+      <c r="J65" s="88"/>
+      <c r="K65" s="88"/>
+      <c r="L65" s="91"/>
+      <c r="M65" s="94"/>
+      <c r="N65" s="94"/>
+      <c r="O65" s="94"/>
+      <c r="P65" s="94"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="64"/>
-      <c r="C66" s="95" t="s">
+      <c r="B66" s="82"/>
+      <c r="C66" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D66" s="95" t="s">
+      <c r="D66" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="97" t="s">
+      <c r="F66" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="G66" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H66" s="95" t="s">
+      <c r="G66" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I66" s="95" t="s">
+      <c r="I66" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="79"/>
-      <c r="K66" s="79"/>
-      <c r="L66" s="82"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="85"/>
+      <c r="J66" s="88"/>
+      <c r="K66" s="88"/>
+      <c r="L66" s="91"/>
+      <c r="M66" s="94"/>
+      <c r="N66" s="94"/>
+      <c r="O66" s="94"/>
+      <c r="P66" s="94"/>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B67" s="64"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="96"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
       <c r="E67" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F67" s="98"/>
-      <c r="G67" s="96"/>
-      <c r="H67" s="96"/>
-      <c r="I67" s="96"/>
-      <c r="J67" s="79"/>
-      <c r="K67" s="79"/>
-      <c r="L67" s="82"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="85"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="88"/>
+      <c r="K67" s="88"/>
+      <c r="L67" s="91"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="94"/>
+      <c r="O67" s="94"/>
+      <c r="P67" s="94"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B68" s="64"/>
-      <c r="C68" s="99" t="s">
+      <c r="B68" s="82"/>
+      <c r="C68" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="99" t="s">
+      <c r="D68" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F68" s="101" t="s">
+      <c r="F68" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H68" s="99"/>
-      <c r="I68" s="99"/>
-      <c r="J68" s="79"/>
-      <c r="K68" s="79"/>
-      <c r="L68" s="82"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="85"/>
+      <c r="G68" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="88"/>
+      <c r="K68" s="88"/>
+      <c r="L68" s="91"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="94"/>
+      <c r="O68" s="94"/>
+      <c r="P68" s="94"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B69" s="65"/>
-      <c r="C69" s="100"/>
-      <c r="D69" s="100"/>
+      <c r="B69" s="83"/>
+      <c r="C69" s="99"/>
+      <c r="D69" s="99"/>
       <c r="E69" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F69" s="102"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="86"/>
-      <c r="N69" s="86"/>
-      <c r="O69" s="86"/>
-      <c r="P69" s="86"/>
+      <c r="F69" s="101"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="99"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="92"/>
+      <c r="M69" s="95"/>
+      <c r="N69" s="95"/>
+      <c r="O69" s="95"/>
+      <c r="P69" s="95"/>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B70" s="63" t="s">
+      <c r="B70" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C70" s="87" t="s">
+      <c r="C70" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D70" s="87" t="s">
+      <c r="D70" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F70" s="89" t="s">
+      <c r="F70" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H70" s="87"/>
+      <c r="G70" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H70" s="110"/>
       <c r="I70" s="11"/>
-      <c r="J70" s="78">
+      <c r="J70" s="87">
         <v>2</v>
       </c>
-      <c r="K70" s="78">
-        <v>1</v>
-      </c>
-      <c r="L70" s="81">
+      <c r="K70" s="87">
+        <v>1</v>
+      </c>
+      <c r="L70" s="90">
         <v>20</v>
       </c>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
+      <c r="M70" s="93"/>
+      <c r="N70" s="93"/>
+      <c r="O70" s="93"/>
+      <c r="P70" s="93"/>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B71" s="64"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="88"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="111"/>
       <c r="E71" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F71" s="90"/>
-      <c r="G71" s="88"/>
-      <c r="H71" s="88"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="111"/>
+      <c r="H71" s="111"/>
       <c r="I71" s="12"/>
-      <c r="J71" s="79"/>
-      <c r="K71" s="79"/>
-      <c r="L71" s="82"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="85"/>
+      <c r="J71" s="88"/>
+      <c r="K71" s="88"/>
+      <c r="L71" s="91"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B72" s="64"/>
-      <c r="C72" s="91" t="s">
+      <c r="B72" s="82"/>
+      <c r="C72" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D72" s="91" t="s">
+      <c r="D72" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F72" s="93" t="s">
+      <c r="F72" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="G72" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H72" s="91"/>
+      <c r="G72" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="102"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="79"/>
-      <c r="K72" s="79"/>
-      <c r="L72" s="82"/>
-      <c r="M72" s="85"/>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="85"/>
+      <c r="J72" s="88"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B73" s="64"/>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="103"/>
+      <c r="D73" s="103"/>
       <c r="E73" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="92"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="103"/>
+      <c r="H73" s="103"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="79"/>
-      <c r="K73" s="79"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="85"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="91"/>
+      <c r="M73" s="94"/>
+      <c r="N73" s="94"/>
+      <c r="O73" s="94"/>
+      <c r="P73" s="94"/>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B74" s="64"/>
-      <c r="C74" s="95" t="s">
+      <c r="B74" s="82"/>
+      <c r="C74" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D74" s="95" t="s">
+      <c r="D74" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F74" s="97" t="s">
+      <c r="F74" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="G74" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H74" s="95" t="s">
+      <c r="G74" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H74" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I74" s="95" t="s">
+      <c r="I74" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J74" s="79"/>
-      <c r="K74" s="79"/>
-      <c r="L74" s="82"/>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="85"/>
+      <c r="J74" s="88"/>
+      <c r="K74" s="88"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="94"/>
+      <c r="N74" s="94"/>
+      <c r="O74" s="94"/>
+      <c r="P74" s="94"/>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B75" s="64"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="96"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
       <c r="E75" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F75" s="98"/>
-      <c r="G75" s="96"/>
-      <c r="H75" s="96"/>
-      <c r="I75" s="96"/>
-      <c r="J75" s="79"/>
-      <c r="K75" s="79"/>
-      <c r="L75" s="82"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="85"/>
+      <c r="F75" s="107"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="88"/>
+      <c r="K75" s="88"/>
+      <c r="L75" s="91"/>
+      <c r="M75" s="94"/>
+      <c r="N75" s="94"/>
+      <c r="O75" s="94"/>
+      <c r="P75" s="94"/>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B76" s="64"/>
-      <c r="C76" s="99" t="s">
+      <c r="B76" s="82"/>
+      <c r="C76" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="99" t="s">
+      <c r="D76" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="101" t="s">
+      <c r="F76" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="G76" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H76" s="99"/>
-      <c r="I76" s="99"/>
-      <c r="J76" s="79"/>
-      <c r="K76" s="79"/>
-      <c r="L76" s="82"/>
-      <c r="M76" s="85"/>
-      <c r="N76" s="85"/>
-      <c r="O76" s="85"/>
-      <c r="P76" s="85"/>
+      <c r="G76" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="88"/>
+      <c r="K76" s="88"/>
+      <c r="L76" s="91"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="94"/>
+      <c r="O76" s="94"/>
+      <c r="P76" s="94"/>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B77" s="65"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
       <c r="E77" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F77" s="102"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="80"/>
-      <c r="K77" s="80"/>
-      <c r="L77" s="83"/>
-      <c r="M77" s="86"/>
-      <c r="N77" s="86"/>
-      <c r="O77" s="86"/>
-      <c r="P77" s="86"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="92"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="95"/>
+      <c r="P77" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="288">
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="O70:O77"/>
-    <mergeCell ref="P70:P77"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="J70:J77"/>
-    <mergeCell ref="K70:K77"/>
-    <mergeCell ref="L70:L77"/>
-    <mergeCell ref="M70:M77"/>
+    <mergeCell ref="M5:M12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="J3:P3"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="J5:J12"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="K5:K12"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="P13:P20"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="J13:J20"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="L13:L20"/>
+    <mergeCell ref="M13:M20"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="O13:O20"/>
+    <mergeCell ref="B21:P21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J35"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:P37"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="P39:P42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="O39:O42"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="O43:O46"/>
+    <mergeCell ref="P43:P46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="K43:K46"/>
+    <mergeCell ref="L43:L46"/>
+    <mergeCell ref="M43:M46"/>
+    <mergeCell ref="N43:N46"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:H50"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="L47:L50"/>
+    <mergeCell ref="M47:M50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="O62:O69"/>
+    <mergeCell ref="N70:N77"/>
+    <mergeCell ref="B62:B69"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="K54:K61"/>
+    <mergeCell ref="L54:L61"/>
+    <mergeCell ref="M54:M61"/>
+    <mergeCell ref="N54:N61"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="B70:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="J52:P52"/>
+    <mergeCell ref="B54:B61"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="J54:J61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="O54:O61"/>
+    <mergeCell ref="P54:P61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="C58:C59"/>
     <mergeCell ref="P62:P69"/>
     <mergeCell ref="C64:C65"/>
     <mergeCell ref="D64:D65"/>
@@ -5972,249 +6187,27 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="M62:M69"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B52:I52"/>
-    <mergeCell ref="J52:P52"/>
-    <mergeCell ref="B54:B61"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="J54:J61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="O54:O61"/>
-    <mergeCell ref="P54:P61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="O62:O69"/>
-    <mergeCell ref="N70:N77"/>
-    <mergeCell ref="B62:B69"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="K54:K61"/>
-    <mergeCell ref="L54:L61"/>
-    <mergeCell ref="M54:M61"/>
-    <mergeCell ref="N54:N61"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="O47:O50"/>
-    <mergeCell ref="P47:P50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:H50"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="L47:L50"/>
-    <mergeCell ref="M47:M50"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="O43:O46"/>
-    <mergeCell ref="P43:P46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="K43:K46"/>
-    <mergeCell ref="L43:L46"/>
-    <mergeCell ref="M43:M46"/>
-    <mergeCell ref="N43:N46"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="P39:P42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="O39:O42"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:P37"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J35"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="B21:P21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="P13:P20"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="J13:J20"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="L13:L20"/>
-    <mergeCell ref="M13:M20"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="O13:O20"/>
-    <mergeCell ref="B13:B20"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="K5:K12"/>
-    <mergeCell ref="L5:L12"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="M5:M12"/>
-    <mergeCell ref="N5:N12"/>
-    <mergeCell ref="O5:O12"/>
-    <mergeCell ref="P5:P12"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="J3:P3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J12"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="O70:O77"/>
+    <mergeCell ref="P70:P77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="J70:J77"/>
+    <mergeCell ref="K70:K77"/>
+    <mergeCell ref="L70:L77"/>
+    <mergeCell ref="M70:M77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6245,44 +6238,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="2:16" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72" t="s">
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="74"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="80"/>
     </row>
     <row r="4" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
@@ -6332,439 +6325,504 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="91" t="s">
+      <c r="D5" s="102" t="s">
         <v>90</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="91" t="s">
+      <c r="G5" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="94"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
       <c r="E6" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="95" t="s">
+      <c r="B7" s="82"/>
+      <c r="C7" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="97" t="s">
+      <c r="F7" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="G7" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
+      <c r="G7" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
       <c r="E8" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="98"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="F8" s="107"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="103" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="103" t="s">
+      <c r="D9" s="112" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="113" t="s">
         <v>93</v>
       </c>
-      <c r="G9" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="G9" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
       <c r="E10" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="102"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="102" t="s">
         <v>90</v>
       </c>
       <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="91" t="s">
+      <c r="G11" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="I11" s="91" t="s">
+      <c r="I11" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="94"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="92"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="95" t="s">
+      <c r="B13" s="82"/>
+      <c r="C13" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="D13" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F13" s="106" t="s">
         <v>95</v>
       </c>
-      <c r="G13" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="G13" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="64"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="98"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="96"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="94"/>
+      <c r="N14" s="94"/>
+      <c r="O14" s="94"/>
+      <c r="P14" s="94"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="103" t="s">
+      <c r="B15" s="82"/>
+      <c r="C15" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="112" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="113" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
+      <c r="G15" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="65"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
       <c r="E16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="102"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="91" t="s">
+      <c r="C17" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="102" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="93" t="s">
+      <c r="F17" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="91" t="s">
+      <c r="G17" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="I17" s="91" t="s">
+      <c r="I17" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
       <c r="E18" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="95" t="s">
+      <c r="B19" s="82"/>
+      <c r="C19" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="95" t="s">
+      <c r="D19" s="96" t="s">
         <v>33</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F19" s="106" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
+      <c r="G19" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="98"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="103" t="s">
+      <c r="B21" s="82"/>
+      <c r="C21" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="103" t="s">
+      <c r="D21" s="112" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="85"/>
-      <c r="N21" s="85"/>
-      <c r="O21" s="85"/>
-      <c r="P21" s="85"/>
+      <c r="G21" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="88"/>
+      <c r="L21" s="91"/>
+      <c r="M21" s="94"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="94"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="65"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
       <c r="E22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="102"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="P17:P22"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="L17:L22"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="N17:N22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="P11:P16"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="L11:L16"/>
+    <mergeCell ref="M11:M16"/>
+    <mergeCell ref="N11:N16"/>
+    <mergeCell ref="O11:O16"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
     <mergeCell ref="P5:P10"/>
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B3:I3"/>
@@ -6781,71 +6839,6 @@
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="P11:P16"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="L11:L16"/>
-    <mergeCell ref="M11:M16"/>
-    <mergeCell ref="N11:N16"/>
-    <mergeCell ref="O11:O16"/>
-    <mergeCell ref="O17:O22"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="P17:P22"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="L17:L22"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="N17:N22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -6879,61 +6872,61 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -6983,7 +6976,7 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="63" t="s">
         <v>68</v>
       </c>
       <c r="C6" s="44" t="s">
@@ -7003,16 +6996,16 @@
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="67"/>
       <c r="M6" s="62"/>
       <c r="N6" s="62"/>
       <c r="O6" s="62"/>
       <c r="P6" s="62"/>
     </row>
     <row r="7" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="56"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="29" t="s">
         <v>74</v>
       </c>
@@ -7030,16 +7023,16 @@
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="60"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="67"/>
       <c r="M7" s="62"/>
       <c r="N7" s="62"/>
       <c r="O7" s="62"/>
       <c r="P7" s="62"/>
     </row>
     <row r="8" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="56"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="35" t="s">
         <v>136</v>
       </c>
@@ -7057,16 +7050,16 @@
       </c>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="60"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="62"/>
       <c r="N8" s="62"/>
       <c r="O8" s="62"/>
       <c r="P8" s="62"/>
     </row>
     <row r="9" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="50" t="s">
         <v>138</v>
       </c>
@@ -7088,16 +7081,16 @@
       <c r="I9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="60"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="67"/>
       <c r="M9" s="62"/>
       <c r="N9" s="62"/>
       <c r="O9" s="62"/>
       <c r="P9" s="62"/>
     </row>
     <row r="10" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="63" t="s">
         <v>157</v>
       </c>
       <c r="C10" s="44" t="s">
@@ -7117,16 +7110,16 @@
       </c>
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="60"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="67"/>
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
       <c r="P10" s="62"/>
     </row>
     <row r="11" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="56"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="29" t="s">
         <v>74</v>
       </c>
@@ -7144,16 +7137,16 @@
       </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="60"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="67"/>
       <c r="M11" s="62"/>
       <c r="N11" s="62"/>
       <c r="O11" s="62"/>
       <c r="P11" s="62"/>
     </row>
     <row r="12" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="35" t="s">
         <v>136</v>
       </c>
@@ -7171,16 +7164,16 @@
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="35"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="60"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="67"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
       <c r="O12" s="62"/>
       <c r="P12" s="62"/>
     </row>
     <row r="13" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="56"/>
+      <c r="B13" s="63"/>
       <c r="C13" s="50" t="s">
         <v>138</v>
       </c>
@@ -7202,16 +7195,16 @@
       <c r="I13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="58"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="60"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="67"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
       <c r="O13" s="62"/>
       <c r="P13" s="62"/>
     </row>
     <row r="14" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="63" t="s">
         <v>158</v>
       </c>
       <c r="C14" s="44" t="s">
@@ -7231,16 +7224,16 @@
       </c>
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="60"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="67"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
       <c r="O14" s="62"/>
       <c r="P14" s="62"/>
     </row>
     <row r="15" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="56"/>
+      <c r="B15" s="63"/>
       <c r="C15" s="29" t="s">
         <v>74</v>
       </c>
@@ -7258,16 +7251,16 @@
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="60"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="67"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
       <c r="P15" s="62"/>
     </row>
     <row r="16" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="56"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="35" t="s">
         <v>136</v>
       </c>
@@ -7285,16 +7278,16 @@
       </c>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="60"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="67"/>
       <c r="M16" s="62"/>
       <c r="N16" s="62"/>
       <c r="O16" s="62"/>
       <c r="P16" s="62"/>
     </row>
     <row r="17" spans="2:16" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="56"/>
+      <c r="B17" s="63"/>
       <c r="C17" s="50" t="s">
         <v>138</v>
       </c>
@@ -7316,9 +7309,9 @@
       <c r="I17" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="60"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="67"/>
       <c r="M17" s="62"/>
       <c r="N17" s="62"/>
       <c r="O17" s="62"/>
@@ -7326,6 +7319,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="N6:N9"/>
     <mergeCell ref="P14:P17"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="L14:L17"/>
@@ -7342,18 +7347,6 @@
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="L10:L13"/>
     <mergeCell ref="M10:M13"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="N6:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7387,63 +7380,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="68"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="74"/>
     </row>
     <row r="3" spans="2:16" ht="22.2" x14ac:dyDescent="0.3">
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="74"/>
     </row>
     <row r="4" spans="2:16" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="74"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="80"/>
     </row>
     <row r="5" spans="2:16" ht="33.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
@@ -7493,595 +7486,673 @@
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="87"/>
+      <c r="G6" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="110"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="78">
+      <c r="J6" s="87">
         <v>2</v>
       </c>
-      <c r="K6" s="78">
-        <v>1</v>
-      </c>
-      <c r="L6" s="81">
+      <c r="K6" s="87">
+        <v>1</v>
+      </c>
+      <c r="L6" s="90">
         <v>20</v>
       </c>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
+      <c r="M6" s="93"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="93"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
       <c r="E7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="91" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="91"/>
+      <c r="G8" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="102"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="95" t="s">
+      <c r="B10" s="82"/>
+      <c r="C10" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="97" t="s">
+      <c r="F10" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="95" t="s">
+      <c r="G10" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="95" t="s">
+      <c r="I10" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="88"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="98"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="96"/>
-      <c r="I11" s="96"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="85"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="88"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
+      <c r="O11" s="94"/>
+      <c r="P11" s="94"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="64"/>
-      <c r="C12" s="99" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D12" s="99" t="s">
+      <c r="D12" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E12" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="101" t="s">
+      <c r="F12" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="85"/>
+      <c r="G12" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="64"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
       <c r="E13" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="94"/>
+      <c r="N13" s="94"/>
+      <c r="O13" s="94"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="89" t="s">
+      <c r="F14" s="108" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="87"/>
+      <c r="G14" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="110"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="78">
+      <c r="J14" s="87">
         <v>2</v>
       </c>
-      <c r="K14" s="78">
-        <v>1</v>
-      </c>
-      <c r="L14" s="81">
+      <c r="K14" s="87">
+        <v>1</v>
+      </c>
+      <c r="L14" s="90">
         <v>20</v>
       </c>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="64"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="90"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="94"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="91" t="s">
+      <c r="B16" s="82"/>
+      <c r="C16" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="93" t="s">
+      <c r="F16" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="91"/>
+      <c r="G16" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="102"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="79"/>
-      <c r="K16" s="79"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="85"/>
-      <c r="O16" s="85"/>
-      <c r="P16" s="85"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="94"/>
+      <c r="N16" s="94"/>
+      <c r="O16" s="94"/>
+      <c r="P16" s="94"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
       <c r="E17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="94"/>
-      <c r="G17" s="92"/>
-      <c r="H17" s="92"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="94"/>
+      <c r="N17" s="94"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="94"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="95" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="95" t="s">
+      <c r="D18" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F18" s="106" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="95" t="s">
+      <c r="G18" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="95" t="s">
+      <c r="I18" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="85"/>
-      <c r="N18" s="85"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="85"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="94"/>
+      <c r="N18" s="94"/>
+      <c r="O18" s="94"/>
+      <c r="P18" s="94"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="98"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="85"/>
-      <c r="N19" s="85"/>
-      <c r="O19" s="85"/>
-      <c r="P19" s="85"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="L19" s="91"/>
+      <c r="M19" s="94"/>
+      <c r="N19" s="94"/>
+      <c r="O19" s="94"/>
+      <c r="P19" s="94"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="99" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="101" t="s">
+      <c r="F20" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="85"/>
-      <c r="N20" s="85"/>
-      <c r="O20" s="85"/>
-      <c r="P20" s="85"/>
+      <c r="G20" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="94"/>
+      <c r="O20" s="94"/>
+      <c r="P20" s="94"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="65"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="102"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="95"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="63" t="s">
+      <c r="B22" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="87" t="s">
+      <c r="D22" s="110" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="89" t="s">
+      <c r="F22" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G22" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="87"/>
+      <c r="G22" s="110" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="110"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="78">
+      <c r="J22" s="87">
         <v>2</v>
       </c>
-      <c r="K22" s="78">
-        <v>1</v>
-      </c>
-      <c r="L22" s="81">
+      <c r="K22" s="87">
+        <v>1</v>
+      </c>
+      <c r="L22" s="90">
         <v>20</v>
       </c>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="84"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="93"/>
+      <c r="P22" s="93"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="64"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
       <c r="E23" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="90"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="85"/>
-      <c r="N23" s="85"/>
-      <c r="O23" s="85"/>
-      <c r="P23" s="85"/>
+      <c r="J23" s="88"/>
+      <c r="K23" s="88"/>
+      <c r="L23" s="91"/>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="94"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="82"/>
+      <c r="C24" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="102" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="93" t="s">
+      <c r="F24" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="91"/>
+      <c r="G24" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="102"/>
       <c r="I24" s="9"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="85"/>
-      <c r="N24" s="85"/>
-      <c r="O24" s="85"/>
-      <c r="P24" s="85"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="91"/>
+      <c r="M24" s="94"/>
+      <c r="N24" s="94"/>
+      <c r="O24" s="94"/>
+      <c r="P24" s="94"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="64"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="94"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
+      <c r="F25" s="105"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="85"/>
-      <c r="N25" s="85"/>
-      <c r="O25" s="85"/>
-      <c r="P25" s="85"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="91"/>
+      <c r="M25" s="94"/>
+      <c r="N25" s="94"/>
+      <c r="O25" s="94"/>
+      <c r="P25" s="94"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="95" t="s">
+      <c r="B26" s="82"/>
+      <c r="C26" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="96" t="s">
         <v>38</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="97" t="s">
+      <c r="F26" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="G26" s="95" t="s">
-        <v>1</v>
-      </c>
-      <c r="H26" s="95" t="s">
+      <c r="G26" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="I26" s="95" t="s">
+      <c r="I26" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="85"/>
-      <c r="N26" s="85"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="85"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="91"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94"/>
+      <c r="O26" s="94"/>
+      <c r="P26" s="94"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="98"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="85"/>
-      <c r="N27" s="85"/>
-      <c r="O27" s="85"/>
-      <c r="P27" s="85"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="94"/>
+      <c r="N27" s="94"/>
+      <c r="O27" s="94"/>
+      <c r="P27" s="94"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="64"/>
-      <c r="C28" s="99" t="s">
+      <c r="B28" s="82"/>
+      <c r="C28" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="98" t="s">
         <v>42</v>
       </c>
       <c r="E28" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="F28" s="101" t="s">
+      <c r="F28" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="G28" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="85"/>
+      <c r="G28" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="91"/>
+      <c r="M28" s="94"/>
+      <c r="N28" s="94"/>
+      <c r="O28" s="94"/>
+      <c r="P28" s="94"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="65"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="100"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
       <c r="E29" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="102"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:P4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="P6:P13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="O6:O13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="K6:K13"/>
+    <mergeCell ref="L6:L13"/>
+    <mergeCell ref="M6:M13"/>
+    <mergeCell ref="N6:N13"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J6:J13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="P14:P21"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="J14:J21"/>
+    <mergeCell ref="K14:K21"/>
+    <mergeCell ref="L14:L21"/>
+    <mergeCell ref="M14:M21"/>
+    <mergeCell ref="N14:N21"/>
+    <mergeCell ref="O14:O21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="N22:N29"/>
+    <mergeCell ref="O22:O29"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="P22:P29"/>
@@ -8098,84 +8169,6 @@
     <mergeCell ref="K22:K29"/>
     <mergeCell ref="L22:L29"/>
     <mergeCell ref="M22:M29"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="N22:N29"/>
-    <mergeCell ref="O22:O29"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="P14:P21"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J14:J21"/>
-    <mergeCell ref="K14:K21"/>
-    <mergeCell ref="L14:L21"/>
-    <mergeCell ref="M14:M21"/>
-    <mergeCell ref="N14:N21"/>
-    <mergeCell ref="O14:O21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="K6:K13"/>
-    <mergeCell ref="L6:L13"/>
-    <mergeCell ref="M6:M13"/>
-    <mergeCell ref="N6:N13"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J6:J13"/>
-    <mergeCell ref="O6:O13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:P4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="P6:P13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
